--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A3FFA-208D-482C-9B27-E12B3102B86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB19605-0501-457B-B9C3-F42D18667428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="15120" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,80 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -586,38 +658,32 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -746,13 +812,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -772,109 +831,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -882,10 +839,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -894,12 +848,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -940,6 +888,58 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1017,18 +1017,18 @@
     <sortCondition descending="1" ref="F1:F54"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="23">
       <calculatedColumnFormula>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="22">
       <calculatedColumnFormula>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="21">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="20">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[wins]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1037,21 +1037,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G89" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G89" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:G89" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1060,12 +1060,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C14" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1339,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,8 +2661,8 @@
   </sheetPr>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,8 +2712,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Женя (кипер)</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
       <c r="G2" s="8">
         <v>2</v>
       </c>
@@ -2732,7 +2736,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Толя Шлаев</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
       <c r="F3" s="9">
         <v>2</v>
       </c>
@@ -2757,7 +2763,9 @@
       <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
       <c r="G4" s="8">
         <v>2</v>
       </c>
@@ -2776,8 +2784,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Тёма</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
@@ -2799,7 +2811,9 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
       <c r="G6" s="8">
         <v>2</v>
       </c>
@@ -2818,7 +2832,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Максим Строцкий</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
       <c r="F7" s="9">
         <v>3</v>
       </c>
@@ -2840,8 +2856,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Василий Улитин</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
       <c r="G8" s="8">
         <v>2</v>
       </c>
@@ -2884,7 +2904,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Александр</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
@@ -2933,7 +2955,9 @@
       <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
       <c r="G12" s="8">
         <v>4</v>
       </c>
@@ -2976,8 +3000,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Руслан (от Сергея)</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
       <c r="G14" s="8">
         <v>2</v>
       </c>
@@ -2996,7 +3024,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Расул</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
       <c r="F15" s="9">
         <v>2</v>
       </c>
@@ -3090,7 +3120,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Никита</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
       <c r="F19" s="9">
         <v>1</v>
       </c>
@@ -3112,8 +3144,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Миша</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="8">
         <v>1</v>
       </c>
@@ -3156,8 +3192,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Bu (Рыжий)</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
       <c r="G22" s="8">
         <v>1</v>
       </c>
@@ -3179,7 +3219,9 @@
       <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
@@ -3198,8 +3240,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Александр Травкин</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
       <c r="G24" s="8">
         <v>1</v>
       </c>
@@ -3218,7 +3264,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Олег Шишкин</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
@@ -3240,8 +3288,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Женя (кипер)</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
       <c r="G26" s="8">
         <v>3</v>
       </c>
@@ -3260,8 +3312,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Сергей</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
       <c r="G27" s="8">
         <v>1</v>
       </c>
@@ -3283,7 +3339,9 @@
       <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
       <c r="G28" s="8">
         <v>5</v>
       </c>
@@ -3329,7 +3387,9 @@
       <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
       <c r="G30" s="8">
         <v>3</v>
       </c>
@@ -3348,7 +3408,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Сергей Крюков</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
@@ -3370,8 +3432,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Рома Сурнин</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
       <c r="G32" s="8">
         <v>3</v>
       </c>
@@ -3390,8 +3456,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Дядя Руслан</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
       <c r="G33" s="8">
         <v>5</v>
       </c>
@@ -3410,8 +3480,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Женя Одушкин</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
       <c r="G34" s="8">
         <v>1</v>
       </c>
@@ -3430,7 +3504,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Эд (Сэм)</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
@@ -3452,8 +3528,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Рубик</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
       <c r="G36" s="8">
         <v>3</v>
       </c>
@@ -3472,8 +3552,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Рубик +1</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
       <c r="G37" s="8">
         <v>3</v>
       </c>
@@ -3492,8 +3576,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Артем Ширяев</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
       <c r="G38" s="8">
         <v>1</v>
       </c>
@@ -3512,8 +3600,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Ваня</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
       <c r="G39" s="8">
         <v>1</v>
       </c>
@@ -3535,7 +3627,9 @@
       <c r="E40" s="8">
         <v>1</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
       <c r="G40" s="8">
         <v>5</v>
       </c>
@@ -3554,8 +3648,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Нурик</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
       <c r="G41" s="8">
         <v>7</v>
       </c>
@@ -3622,7 +3720,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Расул</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
       <c r="F44" s="9">
         <v>1</v>
       </c>
@@ -3668,7 +3768,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Тёма</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
       <c r="F46" s="9">
         <v>2</v>
       </c>
@@ -3690,8 +3792,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Никита</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
       <c r="G47" s="8">
         <v>1</v>
       </c>
@@ -3710,8 +3816,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Женя (кипер)</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
       <c r="G48" s="8">
         <v>1</v>
       </c>
@@ -3778,7 +3888,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Влад</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
       <c r="F51" s="9">
         <v>1</v>
       </c>
@@ -3824,8 +3936,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Сергей Крюков</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
       <c r="G53" s="8">
         <v>7</v>
       </c>
@@ -3844,8 +3960,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Стас (от Расула)</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
       <c r="G54" s="8">
         <v>1</v>
       </c>
@@ -3867,7 +3987,9 @@
       <c r="E55" s="8">
         <v>1</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
       <c r="G55" s="8">
         <v>1</v>
       </c>
@@ -3910,8 +4032,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Атай</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
       <c r="G57" s="8">
         <v>1</v>
       </c>
@@ -3954,7 +4080,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Олег Шишкин</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
       <c r="F59" s="9">
         <v>1</v>
       </c>
@@ -3976,8 +4104,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Месси (от Расула)</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
       <c r="G60" s="8">
         <v>1</v>
       </c>
@@ -4020,8 +4152,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Артем Ширяев</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="28"/>
+      <c r="E62" s="26">
+        <v>0</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0</v>
+      </c>
       <c r="G62" s="27">
         <v>6</v>
       </c>
@@ -4088,8 +4224,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Никита</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="28"/>
+      <c r="E65" s="26">
+        <v>0</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
       <c r="G65" s="27">
         <v>4</v>
       </c>
@@ -4108,8 +4248,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Олег Шишкин</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="28"/>
+      <c r="E66" s="26">
+        <v>0</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0</v>
+      </c>
       <c r="G66" s="27">
         <v>6</v>
       </c>
@@ -4176,8 +4320,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Тёма</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="28"/>
+      <c r="E69" s="26">
+        <v>0</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0</v>
+      </c>
       <c r="G69" s="27">
         <v>6</v>
       </c>
@@ -4220,8 +4368,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Женя (кипер)</v>
       </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="28"/>
+      <c r="E71" s="26">
+        <v>0</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0</v>
+      </c>
       <c r="G71" s="27">
         <v>4</v>
       </c>
@@ -4240,7 +4392,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Андрей (АК+1)</v>
       </c>
-      <c r="E72" s="26"/>
+      <c r="E72" s="26">
+        <v>0</v>
+      </c>
       <c r="F72" s="28">
         <v>1</v>
       </c>
@@ -4265,7 +4419,9 @@
       <c r="E73" s="26">
         <v>2</v>
       </c>
-      <c r="F73" s="28"/>
+      <c r="F73" s="28">
+        <v>0</v>
+      </c>
       <c r="G73" s="27">
         <v>2</v>
       </c>
@@ -4284,8 +4440,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Кирилл (АК+1)</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="28"/>
+      <c r="E74" s="26">
+        <v>0</v>
+      </c>
+      <c r="F74" s="28">
+        <v>0</v>
+      </c>
       <c r="G74" s="27">
         <v>2</v>
       </c>
@@ -4304,8 +4464,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Илья (АК+1)</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="28"/>
+      <c r="E75" s="26">
+        <v>0</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0</v>
+      </c>
       <c r="G75" s="27">
         <v>2</v>
       </c>
@@ -4324,8 +4488,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Рамиль (АК+1)</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="28"/>
+      <c r="E76" s="26">
+        <v>0</v>
+      </c>
+      <c r="F76" s="28">
+        <v>0</v>
+      </c>
       <c r="G76" s="27">
         <v>2</v>
       </c>
@@ -4347,7 +4515,9 @@
       <c r="E77" s="26">
         <v>1</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="28">
+        <v>0</v>
+      </c>
       <c r="G77" s="27">
         <v>4</v>
       </c>
@@ -4369,7 +4539,9 @@
       <c r="E78" s="26">
         <v>1</v>
       </c>
-      <c r="F78" s="28"/>
+      <c r="F78" s="28">
+        <v>0</v>
+      </c>
       <c r="G78" s="27">
         <v>0</v>
       </c>
@@ -4388,8 +4560,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Сома (Руб)</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="26">
+        <v>0</v>
+      </c>
+      <c r="F79" s="28">
+        <v>0</v>
+      </c>
       <c r="G79" s="27">
         <v>0</v>
       </c>
@@ -4411,7 +4587,9 @@
       <c r="E80" s="26">
         <v>2</v>
       </c>
-      <c r="F80" s="28"/>
+      <c r="F80" s="28">
+        <v>0</v>
+      </c>
       <c r="G80" s="27">
         <v>4</v>
       </c>
@@ -4430,7 +4608,9 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Дима (Руб)</v>
       </c>
-      <c r="E81" s="26"/>
+      <c r="E81" s="26">
+        <v>0</v>
+      </c>
       <c r="F81" s="28">
         <v>1</v>
       </c>
@@ -4452,8 +4632,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Юра Пименов</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="28"/>
+      <c r="E82" s="26">
+        <v>0</v>
+      </c>
+      <c r="F82" s="28">
+        <v>0</v>
+      </c>
       <c r="G82" s="27">
         <v>6</v>
       </c>
@@ -4472,8 +4656,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Игорь Фомичев</v>
       </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="28"/>
+      <c r="E83" s="26">
+        <v>0</v>
+      </c>
+      <c r="F83" s="28">
+        <v>0</v>
+      </c>
       <c r="G83" s="27">
         <v>6</v>
       </c>
@@ -4516,8 +4704,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Миша (АК+1)</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="28"/>
+      <c r="E85" s="26">
+        <v>0</v>
+      </c>
+      <c r="F85" s="28">
+        <v>0</v>
+      </c>
       <c r="G85" s="27">
         <v>2</v>
       </c>
@@ -4536,8 +4728,12 @@
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Егор (АК+1)</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="28"/>
+      <c r="E86" s="26">
+        <v>0</v>
+      </c>
+      <c r="F86" s="28">
+        <v>0</v>
+      </c>
       <c r="G86" s="27">
         <v>2</v>
       </c>
@@ -4559,7 +4755,9 @@
       <c r="E87" s="26">
         <v>1</v>
       </c>
-      <c r="F87" s="28"/>
+      <c r="F87" s="28">
+        <v>0</v>
+      </c>
       <c r="G87" s="27">
         <v>2</v>
       </c>
@@ -4605,7 +4803,9 @@
       <c r="E89" s="26">
         <v>1</v>
       </c>
-      <c r="F89" s="28"/>
+      <c r="F89" s="28">
+        <v>0</v>
+      </c>
       <c r="G89" s="27">
         <v>4</v>
       </c>
@@ -4631,8 +4831,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB19605-0501-457B-B9C3-F42D18667428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2BD7D-EEBF-47FB-A631-A8A36CEB30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="690" windowWidth="14100" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
   <si>
     <t>player_id</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Игорь (Ник +1)</t>
-  </si>
-  <si>
-    <t>Александр</t>
   </si>
   <si>
     <t>Андрей (АК+1)</t>
@@ -247,6 +244,15 @@
   </si>
   <si>
     <t>Миша (АК+1)</t>
+  </si>
+  <si>
+    <t>Артем Зэф</t>
+  </si>
+  <si>
+    <t>Ваня (Рыжий +1)</t>
+  </si>
+  <si>
+    <t>Александр Костюнин</t>
   </si>
 </sst>
 </file>
@@ -287,21 +293,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -420,40 +420,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,41 +498,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,10 +976,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F54" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F54" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
-    <sortCondition descending="1" ref="F1:F54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F56" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F56" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
+    <sortCondition descending="1" ref="F1:F56"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1037,8 +1002,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G89" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G89" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G104" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G104" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1060,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C14" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C17" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1337,10 +1302,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,75 +1340,75 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E2" s="30">
+        <v>9</v>
+      </c>
+      <c r="E2" s="28">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
-      </c>
-      <c r="F2" s="31">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="A3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="32">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="32">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="32">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="33">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D4" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="33">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F3" s="34">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="33">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="D4" s="33">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="33">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="F4" s="34">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1455,7 +1420,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1463,99 +1428,99 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="12">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F6" s="13">
+        <v>22</v>
+      </c>
+      <c r="F6" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="32">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
+        <v>8</v>
+      </c>
+      <c r="D7" s="32">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="32">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>13</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="33">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F8" s="22">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1563,103 +1528,103 @@
       </c>
       <c r="F9" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F10" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>11</v>
+      </c>
+      <c r="F11" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C13" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D13" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E13" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F13" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F12" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1671,111 +1636,111 @@
       </c>
       <c r="C14" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C15" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="12">
+        <v>45</v>
+      </c>
+      <c r="C17" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="13">
+        <v>8</v>
+      </c>
+      <c r="F17" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -1784,22 +1749,22 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -1807,111 +1772,111 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="A20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F20" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F20" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="F23" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D22" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F22" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F23" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1923,195 +1888,195 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>44</v>
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="F27" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F29" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="12">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D30" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E30" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F30" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C31" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D31" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E31" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F31" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B32" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E30" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F30" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="F31" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2119,171 +2084,171 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="A33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C37" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D37" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E37" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F37" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C38" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D38" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E38" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F38" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C39" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D39" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E39" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F39" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D37" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F37" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E38" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F39" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2295,11 +2260,11 @@
       </c>
       <c r="C40" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2307,15 +2272,15 @@
       </c>
       <c r="F40" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2323,7 +2288,7 @@
       </c>
       <c r="D41" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2331,15 +2296,15 @@
       </c>
       <c r="F41" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>55</v>
+      <c r="A42" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2347,7 +2312,7 @@
       </c>
       <c r="D42" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2355,43 +2320,43 @@
       </c>
       <c r="F42" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="A43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
+        <v>3</v>
+      </c>
+      <c r="F43" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C44" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2403,15 +2368,15 @@
       </c>
       <c r="F44" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>58</v>
+      <c r="A45" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2431,15 +2396,15 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>59</v>
+      <c r="A46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2447,7 +2412,7 @@
       </c>
       <c r="E46" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2456,10 +2421,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C47" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2479,35 +2444,35 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="A48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C49" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2519,19 +2484,19 @@
       </c>
       <c r="E49" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C50" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2543,43 +2508,43 @@
       </c>
       <c r="E50" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="A51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="F51" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>24</v>
+      <c r="A52" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C52" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2587,11 +2552,11 @@
       </c>
       <c r="D52" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2599,15 +2564,15 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>60</v>
+      <c r="A53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C53" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2615,7 +2580,7 @@
       </c>
       <c r="E53" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2623,25 +2588,73 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="A54" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="9">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="24">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="24">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2659,10 +2672,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2731,8 @@
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2742,7 +2756,8 @@
       <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2766,7 +2781,8 @@
       <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2790,7 +2806,8 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2814,7 +2831,8 @@
       <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2838,7 +2856,8 @@
       <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2862,7 +2881,8 @@
       <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2886,7 +2906,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2898,11 +2919,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Александр</v>
+        <v>Александр Костюнин</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -2910,7 +2931,8 @@
       <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2934,7 +2956,8 @@
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2958,7 +2981,8 @@
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2982,7 +3006,8 @@
       <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
@@ -3006,7 +3031,8 @@
       <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3030,7 +3056,8 @@
       <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3054,7 +3081,8 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3078,7 +3106,8 @@
       <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3102,7 +3131,8 @@
       <c r="F18" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3126,7 +3156,8 @@
       <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3150,7 +3181,8 @@
       <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3174,7 +3206,8 @@
       <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3198,7 +3231,8 @@
       <c r="F22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3222,7 +3256,8 @@
       <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3246,7 +3281,8 @@
       <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3270,7 +3306,8 @@
       <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3294,7 +3331,8 @@
       <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3318,7 +3356,8 @@
       <c r="F27" s="9">
         <v>0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3342,7 +3381,8 @@
       <c r="F28" s="9">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3366,7 +3406,8 @@
       <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3390,7 +3431,8 @@
       <c r="F30" s="9">
         <v>0</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3414,7 +3456,8 @@
       <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3438,7 +3481,8 @@
       <c r="F32" s="9">
         <v>0</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3462,7 +3506,8 @@
       <c r="F33" s="9">
         <v>0</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3486,7 +3531,8 @@
       <c r="F34" s="9">
         <v>0</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3510,7 +3556,8 @@
       <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3534,7 +3581,8 @@
       <c r="F36" s="9">
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3558,7 +3606,8 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>3</v>
       </c>
     </row>
@@ -3582,7 +3631,8 @@
       <c r="F38" s="9">
         <v>0</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3606,7 +3656,8 @@
       <c r="F39" s="9">
         <v>0</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3630,7 +3681,8 @@
       <c r="F40" s="9">
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>5</v>
       </c>
     </row>
@@ -3654,7 +3706,8 @@
       <c r="F41" s="9">
         <v>0</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3678,7 +3731,8 @@
       <c r="F42" s="9">
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3702,7 +3756,8 @@
       <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3726,7 +3781,8 @@
       <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3750,7 +3806,8 @@
       <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3774,7 +3831,8 @@
       <c r="F46" s="9">
         <v>2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3798,7 +3856,8 @@
       <c r="F47" s="9">
         <v>0</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3822,7 +3881,8 @@
       <c r="F48" s="9">
         <v>0</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3846,7 +3906,8 @@
       <c r="F49" s="9">
         <v>2</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3870,7 +3931,8 @@
       <c r="F50" s="9">
         <v>1</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3894,7 +3956,8 @@
       <c r="F51" s="9">
         <v>1</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3918,7 +3981,8 @@
       <c r="F52" s="9">
         <v>5</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3942,7 +4006,8 @@
       <c r="F53" s="9">
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -3966,7 +4031,8 @@
       <c r="F54" s="9">
         <v>0</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3990,7 +4056,8 @@
       <c r="F55" s="9">
         <v>0</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -4014,7 +4081,8 @@
       <c r="F56" s="9">
         <v>1</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -4038,7 +4106,8 @@
       <c r="F57" s="9">
         <v>0</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
@@ -4062,7 +4131,8 @@
       <c r="F58" s="9">
         <v>2</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
@@ -4086,12 +4156,13 @@
       <c r="F59" s="9">
         <v>1</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="34">
         <v>45813</v>
       </c>
       <c r="B60" s="8">
@@ -4110,709 +4181,1114 @@
       <c r="F60" s="9">
         <v>0</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="34">
         <v>45816</v>
       </c>
-      <c r="B61" s="8">
-        <v>2</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="12">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D61" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Сергей Крюков</v>
       </c>
-      <c r="E61" s="8">
-        <v>1</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12">
         <v>1</v>
       </c>
       <c r="G61" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="34">
         <v>45816</v>
       </c>
-      <c r="B62" s="26">
-        <v>1</v>
-      </c>
-      <c r="C62" s="26" t="s">
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="27" t="str">
+      <c r="D62" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Артем Ширяев</v>
       </c>
-      <c r="E62" s="26">
-        <v>0</v>
-      </c>
-      <c r="F62" s="28">
-        <v>0</v>
-      </c>
-      <c r="G62" s="27">
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
+      <c r="A63" s="34">
         <v>45816</v>
       </c>
-      <c r="B63" s="26">
-        <v>1</v>
-      </c>
-      <c r="C63" s="26" t="s">
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="27" t="str">
+      <c r="D63" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Илшат</v>
       </c>
-      <c r="E63" s="26">
-        <v>3</v>
-      </c>
-      <c r="F63" s="28">
-        <v>3</v>
-      </c>
-      <c r="G63" s="27">
+      <c r="E63" s="12">
+        <v>3</v>
+      </c>
+      <c r="F63" s="12">
+        <v>3</v>
+      </c>
+      <c r="G63" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+      <c r="A64" s="34">
         <v>45816</v>
       </c>
-      <c r="B64" s="26">
-        <v>2</v>
-      </c>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="12">
+        <v>2</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="27" t="str">
+      <c r="D64" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Вова</v>
       </c>
-      <c r="E64" s="26">
-        <v>1</v>
-      </c>
-      <c r="F64" s="28">
-        <v>2</v>
-      </c>
-      <c r="G64" s="27">
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>2</v>
+      </c>
+      <c r="G64" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="A65" s="34">
         <v>45816</v>
       </c>
-      <c r="B65" s="26">
-        <v>2</v>
-      </c>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="12">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="27" t="str">
+      <c r="D65" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Никита</v>
       </c>
-      <c r="E65" s="26">
-        <v>0</v>
-      </c>
-      <c r="F65" s="28">
-        <v>0</v>
-      </c>
-      <c r="G65" s="27">
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="34">
         <v>45816</v>
       </c>
-      <c r="B66" s="26">
-        <v>1</v>
-      </c>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="12">
+        <v>1</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="27" t="str">
+      <c r="D66" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Олег Шишкин</v>
       </c>
-      <c r="E66" s="26">
-        <v>0</v>
-      </c>
-      <c r="F66" s="28">
-        <v>0</v>
-      </c>
-      <c r="G66" s="27">
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+      <c r="A67" s="34">
         <v>45816</v>
       </c>
-      <c r="B67" s="26">
-        <v>1</v>
-      </c>
-      <c r="C67" s="26" t="s">
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="27" t="str">
+      <c r="D67" s="21" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Влад</v>
       </c>
-      <c r="E67" s="26">
-        <v>1</v>
-      </c>
-      <c r="F67" s="28">
-        <v>2</v>
-      </c>
-      <c r="G67" s="27">
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12">
+        <v>2</v>
+      </c>
+      <c r="G67" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
+      <c r="A68" s="34">
         <v>45816</v>
       </c>
-      <c r="B68" s="26">
-        <v>2</v>
-      </c>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="12">
+        <v>2</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B70" s="12">
+        <v>2</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E70" s="12">
+        <v>4</v>
+      </c>
+      <c r="F70" s="12">
+        <v>2</v>
+      </c>
+      <c r="G70" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B71" s="12">
+        <v>2</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B72" s="12">
+        <v>3</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (АК+1)</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B73" s="12">
+        <v>3</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (АК+1)</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B74" s="12">
+        <v>3</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл (АК+1)</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B75" s="12">
+        <v>3</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илья (АК+1)</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B76" s="12">
+        <v>3</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рамиль (АК+1)</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B77" s="12">
+        <v>2</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B78" s="12">
+        <v>4</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурали (Руб)</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B79" s="12">
+        <v>4</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сома (Руб)</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B80" s="12">
+        <v>2</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E80" s="12">
+        <v>2</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B81" s="12">
+        <v>4</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима (Руб)</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B83" s="12">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B84" s="12">
+        <v>3</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1</v>
+      </c>
+      <c r="G84" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B85" s="12">
+        <v>3</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша (АК+1)</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B86" s="12">
+        <v>3</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Егор (АК+1)</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B87" s="12">
+        <v>3</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня</v>
+      </c>
+      <c r="E87" s="12">
+        <v>1</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+      <c r="G87" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B88" s="12">
+        <v>2</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E88" s="12">
+        <v>2</v>
+      </c>
+      <c r="F88" s="12">
+        <v>3</v>
+      </c>
+      <c r="G88" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
+        <v>45816</v>
+      </c>
+      <c r="B89" s="12">
+        <v>2</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Витя</v>
-      </c>
-      <c r="E68" s="26">
-        <v>1</v>
-      </c>
-      <c r="F68" s="28">
-        <v>1</v>
-      </c>
-      <c r="G68" s="27">
+      <c r="D89" s="21" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (Трав+)</v>
+      </c>
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B69" s="26">
-        <v>1</v>
-      </c>
-      <c r="C69" s="26" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
+        <v>45820</v>
+      </c>
+      <c r="B90" s="8">
+        <v>3</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+      <c r="G90" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E91" s="8">
+        <v>2</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="G91" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B92" s="8">
+        <v>1</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>5</v>
+      </c>
+      <c r="G92" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E93" s="8">
+        <v>4</v>
+      </c>
+      <c r="F93" s="9">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B94" s="8">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E94" s="8">
+        <v>6</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Bu (Рыжий)</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="27" t="str">
+      <c r="D96" s="11" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
         <v>Тёма</v>
       </c>
-      <c r="E69" s="26">
-        <v>0</v>
-      </c>
-      <c r="F69" s="28">
-        <v>0</v>
-      </c>
-      <c r="G69" s="27">
+      <c r="E96" s="8">
+        <v>2</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B97" s="8">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>2</v>
+      </c>
+      <c r="G98" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B70" s="26">
-        <v>2</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Паша</v>
-      </c>
-      <c r="E70" s="26">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B99" s="8">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E99" s="8">
         <v>4</v>
       </c>
-      <c r="F70" s="28">
-        <v>2</v>
-      </c>
-      <c r="G70" s="27">
+      <c r="F99" s="9">
+        <v>2</v>
+      </c>
+      <c r="G99" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B100" s="8">
+        <v>2</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
+        <v>6</v>
+      </c>
+      <c r="G100" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B101" s="8">
+        <v>3</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Максим Строцкий</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B71" s="26">
-        <v>2</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Женя (кипер)</v>
-      </c>
-      <c r="E71" s="26">
-        <v>0</v>
-      </c>
-      <c r="F71" s="28">
-        <v>0</v>
-      </c>
-      <c r="G71" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B72" s="26">
-        <v>3</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Андрей (АК+1)</v>
-      </c>
-      <c r="E72" s="26">
-        <v>0</v>
-      </c>
-      <c r="F72" s="28">
-        <v>1</v>
-      </c>
-      <c r="G72" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B73" s="26">
-        <v>3</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Ваня (АК+1)</v>
-      </c>
-      <c r="E73" s="26">
-        <v>2</v>
-      </c>
-      <c r="F73" s="28">
-        <v>0</v>
-      </c>
-      <c r="G73" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B74" s="26">
-        <v>3</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Кирилл (АК+1)</v>
-      </c>
-      <c r="E74" s="26">
-        <v>0</v>
-      </c>
-      <c r="F74" s="28">
-        <v>0</v>
-      </c>
-      <c r="G74" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B75" s="26">
-        <v>3</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Илья (АК+1)</v>
-      </c>
-      <c r="E75" s="26">
-        <v>0</v>
-      </c>
-      <c r="F75" s="28">
-        <v>0</v>
-      </c>
-      <c r="G75" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B76" s="26">
-        <v>3</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Рамиль (АК+1)</v>
-      </c>
-      <c r="E76" s="26">
-        <v>0</v>
-      </c>
-      <c r="F76" s="28">
-        <v>0</v>
-      </c>
-      <c r="G76" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B77" s="26">
-        <v>2</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Рома Сурнин</v>
-      </c>
-      <c r="E77" s="26">
-        <v>1</v>
-      </c>
-      <c r="F77" s="28">
-        <v>0</v>
-      </c>
-      <c r="G77" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B78" s="26">
-        <v>4</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Нурали (Руб)</v>
-      </c>
-      <c r="E78" s="26">
-        <v>1</v>
-      </c>
-      <c r="F78" s="28">
-        <v>0</v>
-      </c>
-      <c r="G78" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B79" s="26">
-        <v>4</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Сома (Руб)</v>
-      </c>
-      <c r="E79" s="26">
-        <v>0</v>
-      </c>
-      <c r="F79" s="28">
-        <v>0</v>
-      </c>
-      <c r="G79" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B80" s="26">
-        <v>2</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Рубик</v>
-      </c>
-      <c r="E80" s="26">
-        <v>2</v>
-      </c>
-      <c r="F80" s="28">
-        <v>0</v>
-      </c>
-      <c r="G80" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B81" s="26">
-        <v>4</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Дима (Руб)</v>
-      </c>
-      <c r="E81" s="26">
-        <v>0</v>
-      </c>
-      <c r="F81" s="28">
-        <v>1</v>
-      </c>
-      <c r="G81" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B82" s="26">
-        <v>1</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Юра Пименов</v>
-      </c>
-      <c r="E82" s="26">
-        <v>0</v>
-      </c>
-      <c r="F82" s="28">
-        <v>0</v>
-      </c>
-      <c r="G82" s="27">
+      <c r="G101" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B102" s="8">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>0</v>
+      </c>
+      <c r="G102" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B83" s="26">
-        <v>1</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Игорь Фомичев</v>
-      </c>
-      <c r="E83" s="26">
-        <v>0</v>
-      </c>
-      <c r="F83" s="28">
-        <v>0</v>
-      </c>
-      <c r="G83" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B84" s="26">
-        <v>3</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Костя</v>
-      </c>
-      <c r="E84" s="26">
-        <v>1</v>
-      </c>
-      <c r="F84" s="28">
-        <v>1</v>
-      </c>
-      <c r="G84" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B85" s="26">
-        <v>3</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Миша (АК+1)</v>
-      </c>
-      <c r="E85" s="26">
-        <v>0</v>
-      </c>
-      <c r="F85" s="28">
-        <v>0</v>
-      </c>
-      <c r="G85" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B86" s="26">
-        <v>3</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Егор (АК+1)</v>
-      </c>
-      <c r="E86" s="26">
-        <v>0</v>
-      </c>
-      <c r="F86" s="28">
-        <v>0</v>
-      </c>
-      <c r="G86" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B87" s="26">
-        <v>3</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Ваня</v>
-      </c>
-      <c r="E87" s="26">
-        <v>1</v>
-      </c>
-      <c r="F87" s="28">
-        <v>0</v>
-      </c>
-      <c r="G87" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B88" s="26">
-        <v>2</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Александр Травкин</v>
-      </c>
-      <c r="E88" s="26">
-        <v>2</v>
-      </c>
-      <c r="F88" s="28">
-        <v>3</v>
-      </c>
-      <c r="G88" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
-        <v>45816</v>
-      </c>
-      <c r="B89" s="26">
-        <v>2</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="27" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Даня (Трав+)</v>
-      </c>
-      <c r="E89" s="26">
-        <v>1</v>
-      </c>
-      <c r="F89" s="28">
-        <v>0</v>
-      </c>
-      <c r="G89" s="27">
-        <v>4</v>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B103" s="8">
+        <v>3</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E103" s="28">
+        <v>1</v>
+      </c>
+      <c r="F103" s="29">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B104" s="8">
+        <v>3</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (Рыжий +1)</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C89" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C104" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -4829,10 +5305,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,9 +5472,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45820</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45820</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>45820</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2BD7D-EEBF-47FB-A631-A8A36CEB30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E86039F-F8B6-4DD5-9D46-CDAFE9992861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="690" windowWidth="14100" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="0" windowWidth="15330" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
   <si>
     <t>player_id</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Александр Костюнин</t>
+  </si>
+  <si>
+    <t>Дима Сахаров</t>
+  </si>
+  <si>
+    <t>Назар (Женя +1)</t>
   </si>
 </sst>
 </file>
@@ -976,10 +982,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F56" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F56" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
-    <sortCondition descending="1" ref="F1:F56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F58" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F58" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F58">
+    <sortCondition descending="1" ref="F1:F58"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1002,8 +1008,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G104" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G104" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G124" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G124" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1025,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C17" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C20" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1302,10 +1308,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,51 +1346,51 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>22</v>
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="28">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D2" s="28">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="28">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="29">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>47</v>
+      <c r="A3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="32">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" s="32">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="32">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F3" s="33">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1396,19 +1402,19 @@
       </c>
       <c r="C4" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1420,679 +1426,679 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D6" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>25</v>
+      </c>
+      <c r="F7" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>22</v>
+      </c>
+      <c r="F8" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C9" s="32">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D9" s="32">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E9" s="32">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>13</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F9" s="33">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C11" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D11" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E11" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F11" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="21">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="D9" s="21">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F12" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>11</v>
       </c>
-      <c r="F9" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F10" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="F14" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C15" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D15" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E15" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>13</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F15" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>15</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="F16" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12">
+      <c r="B17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D17" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E17" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F17" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="12">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F19" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F20" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="F21" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F23" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F26" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E27" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F28" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F29" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D30" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F30" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F31" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="F16" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F17" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D19" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="F19" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F20" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="F21" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="F32" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F23" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F24" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="F25" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="F26" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F27" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F28" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F29" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="F30" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E31" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F31" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E32" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F32" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>13</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2104,159 +2110,159 @@
       </c>
       <c r="F33" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F36" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F37" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F38" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C39" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D39" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E39" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F39" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="F35" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F36" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="F37" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="C38" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D38" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F38" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F39" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="C40" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2277,42 +2283,42 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="21">
+        <v>34</v>
+      </c>
+      <c r="C41" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2320,15 +2326,15 @@
       </c>
       <c r="F42" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C43" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2336,7 +2342,7 @@
       </c>
       <c r="D43" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2344,23 +2350,23 @@
       </c>
       <c r="F43" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2373,34 +2379,34 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="12">
+        <v>37</v>
+      </c>
+      <c r="C45" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F45" s="13">
+        <v>3</v>
+      </c>
+      <c r="F45" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C46" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2412,19 +2418,19 @@
       </c>
       <c r="E46" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>56</v>
+      <c r="A47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2445,14 +2451,14 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C48" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2460,7 +2466,7 @@
       </c>
       <c r="E48" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2468,11 +2474,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>58</v>
+      <c r="A49" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2493,10 +2499,10 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2517,34 +2523,34 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="21">
+        <v>58</v>
+      </c>
+      <c r="C51" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C52" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2552,55 +2558,55 @@
       </c>
       <c r="D52" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="12">
+        <v>38</v>
+      </c>
+      <c r="C53" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F53" s="13">
+        <v>2</v>
+      </c>
+      <c r="F53" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>59</v>
+      <c r="A54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C54" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="8">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2611,50 +2617,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="11">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="9">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="8">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="8">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="24">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B58" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C58" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D58" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E58" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F58" s="24">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2672,10 +2726,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,9 +5340,509 @@
         <v>1</v>
       </c>
     </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B105" s="8">
+        <v>2</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима Сахаров</v>
+      </c>
+      <c r="E105" s="8">
+        <v>3</v>
+      </c>
+      <c r="F105" s="9">
+        <v>2</v>
+      </c>
+      <c r="G105" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B106" s="8">
+        <v>2</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E106" s="8">
+        <v>5</v>
+      </c>
+      <c r="F106" s="9">
+        <v>2</v>
+      </c>
+      <c r="G106" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B107" s="8">
+        <v>1</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Алексей Королев</v>
+      </c>
+      <c r="E107" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B108" s="8">
+        <v>2</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E108" s="8">
+        <v>2</v>
+      </c>
+      <c r="F108" s="9">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B109" s="8">
+        <v>2</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+      <c r="G109" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B110" s="8">
+        <v>3</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9">
+        <v>2</v>
+      </c>
+      <c r="G110" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E111" s="8">
+        <v>0</v>
+      </c>
+      <c r="F111" s="9">
+        <v>0</v>
+      </c>
+      <c r="G111" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E113" s="8">
+        <v>3</v>
+      </c>
+      <c r="F113" s="9">
+        <v>3</v>
+      </c>
+      <c r="G113" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B114" s="8">
+        <v>3</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
+        <v>0</v>
+      </c>
+      <c r="G114" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B115" s="8">
+        <v>1</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E115" s="8">
+        <v>6</v>
+      </c>
+      <c r="F115" s="9">
+        <v>4</v>
+      </c>
+      <c r="G115" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B116" s="8">
+        <v>2</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B117" s="8">
+        <v>3</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G117" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B118" s="8">
+        <v>1</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Назар (Женя +1)</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="9">
+        <v>4</v>
+      </c>
+      <c r="G118" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B119" s="8">
+        <v>3</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B120" s="8">
+        <v>3</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E120" s="8">
+        <v>5</v>
+      </c>
+      <c r="F120" s="9">
+        <v>2</v>
+      </c>
+      <c r="G120" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B121" s="8">
+        <v>3</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (Трав+)</v>
+      </c>
+      <c r="E121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" s="9">
+        <v>2</v>
+      </c>
+      <c r="G121" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
+        <v>0</v>
+      </c>
+      <c r="G122" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B123" s="8">
+        <v>2</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0</v>
+      </c>
+      <c r="F123" s="9">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B124" s="8">
+        <v>1</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E124" s="8">
+        <v>2</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0</v>
+      </c>
+      <c r="G124" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C104" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C124" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -5305,10 +5859,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,9 +6059,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45823</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>45823</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45823</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E86039F-F8B6-4DD5-9D46-CDAFE9992861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEADCC5-47A1-4A9C-A391-D171C00C61F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="0" windowWidth="15330" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="0" windowWidth="14910" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="72">
   <si>
     <t>player_id</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Назар (Женя +1)</t>
+  </si>
+  <si>
+    <t>Гриша</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Муслим (от Расула)</t>
   </si>
 </sst>
 </file>
@@ -982,10 +991,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F58" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F58" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F58">
-    <sortCondition descending="1" ref="F1:F58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F61" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F61" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition descending="1" ref="F1:F61"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1008,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G124" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G124" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G142" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G142" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1031,8 +1040,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C20" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C23" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1308,10 +1317,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,15 +1391,15 @@
       </c>
       <c r="D3" s="32">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="32">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="33">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1402,19 +1411,19 @@
       </c>
       <c r="C4" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1426,7 +1435,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1434,11 +1443,11 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1450,7 +1459,7 @@
       </c>
       <c r="C6" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1458,11 +1467,11 @@
       </c>
       <c r="E6" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1474,7 +1483,7 @@
       </c>
       <c r="C7" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1482,11 +1491,11 @@
       </c>
       <c r="E7" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1506,11 +1515,11 @@
       </c>
       <c r="E8" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1522,19 +1531,19 @@
       </c>
       <c r="C9" s="32">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="32">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="32">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="33">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1578,211 +1587,211 @@
       </c>
       <c r="E11" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>31</v>
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="A13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D13" s="12">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F14" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F15" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="21">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="F14" s="22">
+        <v>15</v>
+      </c>
+      <c r="F17" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="12">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F15" s="13">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="C19" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D19" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E19" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F19" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F18" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="F19" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1897,120 +1906,120 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>62</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>55</v>
+      <c r="A26" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="12">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F27" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B28" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C28" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E28" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C29" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
-      </c>
-      <c r="F28" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E29" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
       </c>
       <c r="F29" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2019,110 +2028,110 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C30" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="13">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C32" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C33" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D33" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F33" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
-      </c>
-    </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>25</v>
+      <c r="A34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2134,15 +2143,15 @@
       </c>
       <c r="F34" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>51</v>
+      <c r="A35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C35" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2154,91 +2163,91 @@
       </c>
       <c r="E35" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="12">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="21">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E38" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F38" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="D39" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2259,250 +2268,250 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F40" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F41" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F42" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C43" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D43" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E43" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F43" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C44" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D44" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E44" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F44" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C45" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D45" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E45" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F45" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C46" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D46" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E46" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F46" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="12">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D47" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F44" s="13">
+        <v>4</v>
+      </c>
+      <c r="F47" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F45" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F46" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="12">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F47" s="13">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="A49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="F49" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>57</v>
+      <c r="A50" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C50" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2522,15 +2531,15 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>58</v>
+      <c r="A51" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C51" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2538,7 +2547,7 @@
       </c>
       <c r="E51" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2547,10 +2556,10 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2570,35 +2579,35 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="21">
+      <c r="A53" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="12">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="12">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="12">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="13">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>53</v>
+      <c r="A54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C54" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2606,23 +2615,23 @@
       </c>
       <c r="D54" s="8">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="9">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>24</v>
+      <c r="A55" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2634,81 +2643,153 @@
       </c>
       <c r="E55" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="9">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F56" s="24">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="8">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="8">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="8">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C59" s="8">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D59" s="8">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E59" s="8">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F59" s="9">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B60" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C60" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D60" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E60" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F60" s="24">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B61" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C61" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D61" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E61" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F61" s="24">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2726,10 +2807,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5840,9 +5921,459 @@
         <v>7</v>
       </c>
     </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B125" s="8">
+        <v>3</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима Сахаров</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0</v>
+      </c>
+      <c r="F125" s="9">
+        <v>0</v>
+      </c>
+      <c r="G125" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B126" s="8">
+        <v>2</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E126" s="8">
+        <v>1</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Гриша</v>
+      </c>
+      <c r="E127" s="8">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0</v>
+      </c>
+      <c r="G127" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B128" s="8">
+        <v>1</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Муслим (от Расула)</v>
+      </c>
+      <c r="E128" s="8">
+        <v>2</v>
+      </c>
+      <c r="F128" s="9">
+        <v>3</v>
+      </c>
+      <c r="G128" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B129" s="8">
+        <v>3</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E129" s="8">
+        <v>1</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B130" s="8">
+        <v>3</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="9">
+        <v>0</v>
+      </c>
+      <c r="G130" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B131" s="8">
+        <v>3</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E131" s="8">
+        <v>1</v>
+      </c>
+      <c r="F131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B132" s="8">
+        <v>1</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E132" s="8">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0</v>
+      </c>
+      <c r="G132" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B133" s="8">
+        <v>3</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0</v>
+      </c>
+      <c r="G133" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B134" s="8">
+        <v>2</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E134" s="8">
+        <v>2</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B135" s="8">
+        <v>2</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+      <c r="G135" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B136" s="8">
+        <v>3</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E136" s="8">
+        <v>1</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+      <c r="G136" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B137" s="8">
+        <v>1</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Максим Строцкий</v>
+      </c>
+      <c r="E137" s="8">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0</v>
+      </c>
+      <c r="G137" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E138" s="8">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D139" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E139" s="8">
+        <v>3</v>
+      </c>
+      <c r="F139" s="9">
+        <v>3</v>
+      </c>
+      <c r="G139" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B140" s="8">
+        <v>1</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E140" s="8">
+        <v>1</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B141" s="8">
+        <v>1</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E141" s="8">
+        <v>1</v>
+      </c>
+      <c r="F141" s="9">
+        <v>0</v>
+      </c>
+      <c r="G141" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B142" s="8">
+        <v>1</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="11" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Стас Семитко</v>
+      </c>
+      <c r="E142" s="8">
+        <v>2</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+      <c r="G142" s="11">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C124" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C142" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -5859,10 +6390,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6092,9 +6623,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45827</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45827</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45827</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B23" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B791275-E62B-419D-9391-C0F9C2237473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E4541-EBB3-4334-A562-7D5F048A07A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="0" windowWidth="14100" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="75">
   <si>
     <t>player_id</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Эдик (Руб +1)</t>
+  </si>
+  <si>
+    <t>Рыжий</t>
   </si>
 </sst>
 </file>
@@ -557,58 +560,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -682,13 +633,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -706,6 +650,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -928,6 +879,58 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -999,24 +1002,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F63" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F63" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
-    <sortCondition descending="1" ref="F1:F63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F64" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F64" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F64">
+    <sortCondition descending="1" ref="F1:F64"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="23">
       <calculatedColumnFormula>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="22">
       <calculatedColumnFormula>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="21">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="20">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[wins]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1025,21 +1028,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G169" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:G169" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G188" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G188" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1048,12 +1051,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C26" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C29" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,10 +1328,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,67 +1374,67 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>24</v>
+      </c>
+      <c r="D3" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>34</v>
+      </c>
+      <c r="F3" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C4" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E4" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
-      </c>
-      <c r="F3" s="12">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
-      </c>
-      <c r="D4" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
-      </c>
-      <c r="F4" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1443,7 +1446,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1451,11 +1454,11 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1467,7 +1470,7 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,183 +1518,183 @@
       </c>
       <c r="C8" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F8" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="21">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="21">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="22">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>25</v>
+      </c>
+      <c r="F10" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C11" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D11" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E11" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>28</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F11" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="21">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="E10" s="21">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="F10" s="22">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>11</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F12" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>11</v>
+      </c>
+      <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>15</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="D12" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
-      </c>
-      <c r="F12" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C14" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
-      </c>
-      <c r="F14" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D15" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -1724,46 +1727,46 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F17" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>55</v>
+      <c r="A18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -1772,234 +1775,234 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>13</v>
+      </c>
+      <c r="F20" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C21" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D21" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E21" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>15</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F21" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F20" s="12">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="D24" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C26" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D26" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F23" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F24" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E25" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="F25" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F26" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>33</v>
+      <c r="A28" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2007,87 +2010,87 @@
       </c>
       <c r="F28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="F29" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="F30" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D30" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E30" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F30" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="F31" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2095,35 +2098,35 @@
       </c>
       <c r="D32" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>43</v>
+      <c r="A33" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F33" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2132,22 +2135,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="E38" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2275,11 +2278,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>25</v>
+      <c r="A40" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2291,19 +2294,19 @@
       </c>
       <c r="E40" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>60</v>
+      <c r="A41" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="C41" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2311,11 +2314,11 @@
       </c>
       <c r="D41" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2323,51 +2326,51 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F42" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C43" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E43" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F43" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2610,40 +2613,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F54" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B55" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="C54" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F54" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="C55" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2651,7 +2654,7 @@
       </c>
       <c r="E55" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2660,14 +2663,14 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2675,7 +2678,7 @@
       </c>
       <c r="E56" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2684,10 +2687,10 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2707,11 +2710,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>58</v>
+      <c r="A58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="C58" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2732,66 +2735,66 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F59" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B60" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C60" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F60" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B61" s="33" t="s">
         <v>53</v>
-      </c>
-      <c r="C60" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="C61" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2802,36 +2805,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B63" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C62" s="10">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F62" s="18">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="C63" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2843,9 +2846,33 @@
       </c>
       <c r="E63" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2863,9 +2890,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
@@ -7102,9 +7129,484 @@
         <v>3</v>
       </c>
     </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B170" s="7">
+        <v>1</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E170" s="7">
+        <v>1</v>
+      </c>
+      <c r="F170" s="8">
+        <v>0</v>
+      </c>
+      <c r="G170" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B171" s="7">
+        <v>3</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D171" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рыжий</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0</v>
+      </c>
+      <c r="F171" s="8">
+        <v>0</v>
+      </c>
+      <c r="G171" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B172" s="7">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0</v>
+      </c>
+      <c r="F172" s="8">
+        <v>1</v>
+      </c>
+      <c r="G172" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B173" s="7">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E173" s="7">
+        <v>1</v>
+      </c>
+      <c r="F173" s="8">
+        <v>0</v>
+      </c>
+      <c r="G173" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B174" s="7">
+        <v>2</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0</v>
+      </c>
+      <c r="F174" s="8">
+        <v>0</v>
+      </c>
+      <c r="G174" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B175" s="7">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E175" s="7">
+        <v>0</v>
+      </c>
+      <c r="F175" s="8">
+        <v>0</v>
+      </c>
+      <c r="G175" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B176" s="7">
+        <v>1</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E176" s="7">
+        <v>1</v>
+      </c>
+      <c r="F176" s="8">
+        <v>4</v>
+      </c>
+      <c r="G176" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B177" s="7">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0</v>
+      </c>
+      <c r="F177" s="8">
+        <v>1</v>
+      </c>
+      <c r="G177" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B178" s="7">
+        <v>2</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E178" s="7">
+        <v>1</v>
+      </c>
+      <c r="F178" s="8">
+        <v>2</v>
+      </c>
+      <c r="G178" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B179" s="7">
+        <v>2</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E179" s="7">
+        <v>1</v>
+      </c>
+      <c r="F179" s="8">
+        <v>1</v>
+      </c>
+      <c r="G179" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B180" s="7">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E180" s="7">
+        <v>1</v>
+      </c>
+      <c r="F180" s="8">
+        <v>0</v>
+      </c>
+      <c r="G180" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B181" s="7">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E181" s="7">
+        <v>3</v>
+      </c>
+      <c r="F181" s="8">
+        <v>1</v>
+      </c>
+      <c r="G181" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B182" s="7">
+        <v>1</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E182" s="7">
+        <v>1</v>
+      </c>
+      <c r="F182" s="8">
+        <v>0</v>
+      </c>
+      <c r="G182" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B183" s="7">
+        <v>1</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Василий Улитин</v>
+      </c>
+      <c r="E183" s="7">
+        <v>2</v>
+      </c>
+      <c r="F183" s="8">
+        <v>0</v>
+      </c>
+      <c r="G183" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B184" s="7">
+        <v>2</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D184" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E184" s="7">
+        <v>1</v>
+      </c>
+      <c r="F184" s="8">
+        <v>0</v>
+      </c>
+      <c r="G184" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B185" s="7">
+        <v>2</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D185" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E185" s="7">
+        <v>3</v>
+      </c>
+      <c r="F185" s="8">
+        <v>5</v>
+      </c>
+      <c r="G185" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B186" s="7">
+        <v>3</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D186" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0</v>
+      </c>
+      <c r="F186" s="8">
+        <v>0</v>
+      </c>
+      <c r="G186" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B187" s="7">
+        <v>3</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Муслим (от Расула)</v>
+      </c>
+      <c r="E187" s="7">
+        <v>2</v>
+      </c>
+      <c r="F187" s="8">
+        <v>0</v>
+      </c>
+      <c r="G187" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>45834</v>
+      </c>
+      <c r="B188" s="7">
+        <v>1</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0</v>
+      </c>
+      <c r="F188" s="8">
+        <v>0</v>
+      </c>
+      <c r="G188" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C169" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C188" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -7121,10 +7623,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7420,9 +7922,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>45834</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>45834</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>45834</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E4541-EBB3-4334-A562-7D5F048A07A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F093EC-6977-4F56-9280-8FC8C112A2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="450" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1330,7 +1330,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="E3" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1518,19 +1518,19 @@
       </c>
       <c r="C8" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="E10" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="E12" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1854,19 +1854,19 @@
       </c>
       <c r="C22" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2892,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7244,14 +7244,14 @@
         <v>Артем Зэф</v>
       </c>
       <c r="E174" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G178" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7369,14 +7369,14 @@
         <v>Тёма</v>
       </c>
       <c r="E179" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G181" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="G184" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="G185" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7626,7 +7626,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7941,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F093EC-6977-4F56-9280-8FC8C112A2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5EF94-77CE-473D-89C1-B71AEC4E9137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="450" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14670" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="78">
   <si>
     <t>player_id</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Месси (от Расула)</t>
-  </si>
-  <si>
-    <t>Рубик +1</t>
   </si>
   <si>
     <t>Руслан (от Сергея)</t>
@@ -278,6 +275,18 @@
   <si>
     <t>Рыжий</t>
   </si>
+  <si>
+    <t>Мирали (Руб +1)</t>
+  </si>
+  <si>
+    <t>KS (Андрей)</t>
+  </si>
+  <si>
+    <t>Ибрагим (Нурик +1)</t>
+  </si>
+  <si>
+    <t>Никита (АК+1)</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +323,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -448,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,129 +569,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -803,6 +707,118 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -830,7 +846,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -839,6 +855,12 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1002,10 +1024,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F64" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F64" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F64">
-    <sortCondition descending="1" ref="F1:F64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F67" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F67" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
+    <sortCondition descending="1" ref="F1:F67"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1028,21 +1050,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G188" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G188" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G219" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G219" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="0">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1051,12 +1073,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C29" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C33" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:C33" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1328,10 +1350,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,26 +1389,26 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1422,19 +1444,19 @@
       </c>
       <c r="C4" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1446,19 +1468,19 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1478,11 +1500,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1494,19 +1516,19 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1526,19 +1548,19 @@
       </c>
       <c r="E8" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1559,10 +1581,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1574,11 +1596,11 @@
       </c>
       <c r="E10" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1598,19 +1620,19 @@
       </c>
       <c r="E11" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1629,300 +1651,300 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>11</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>15</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C16" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D16" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E16" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F16" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E17" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F17" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="11">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>16</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>16</v>
+      </c>
+      <c r="F20" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C21" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>22</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F23" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C24" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D24" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E24" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>12</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F24" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E19" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F19" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D20" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F20" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
-      </c>
-      <c r="F21" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="F22" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
-      </c>
-      <c r="F23" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="D24" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E24" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F24" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>23</v>
+      <c r="A25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1930,7 +1952,7 @@
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1938,19 +1960,19 @@
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C26" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1958,43 +1980,43 @@
       </c>
       <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>43</v>
+      <c r="A28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2002,95 +2024,95 @@
       </c>
       <c r="D28" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>15</v>
+      </c>
+      <c r="F29" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>15</v>
+      </c>
+      <c r="F30" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D29" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E29" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="F31" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D30" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F30" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="F31" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>35</v>
+      <c r="A32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2098,7 +2120,7 @@
       </c>
       <c r="D32" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2106,663 +2128,663 @@
       </c>
       <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F33" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F34" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="F35" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F36" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D37" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E37" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F37" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E38" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F38" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D39" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E39" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F39" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F40" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D41" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F41" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="16">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="16">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="F35" s="17">
+        <v>9</v>
+      </c>
+      <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="16">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D43" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F36" s="17">
+        <v>7</v>
+      </c>
+      <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="F37" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E38" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F38" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="F39" s="12">
+      <c r="F44" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="11">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D45" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E45" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F45" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F46" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F47" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F48" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D49" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E49" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F49" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F50" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F51" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D52" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F52" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F54" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="16">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E55" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F43" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F44" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E45" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F45" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="F46" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D47" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F55" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B56" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C56" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D56" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E56" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F56" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="11">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F49" s="12">
+        <v>4</v>
+      </c>
+      <c r="F57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="16">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="16">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E58" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F50" s="17">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="11">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F51" s="12">
+        <v>3</v>
+      </c>
+      <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F52" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F53" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="10">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F54" s="18">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F55" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F57" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F58" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F59" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>38</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C60" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2774,18 +2796,18 @@
       </c>
       <c r="E60" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="7">
@@ -2794,27 +2816,27 @@
       </c>
       <c r="D61" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>59</v>
+      <c r="A62" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C62" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2822,43 +2844,43 @@
       </c>
       <c r="E62" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="18">
+        <v>2</v>
+      </c>
+      <c r="F63" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>61</v>
+      <c r="A64" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C64" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2870,9 +2892,81 @@
       </c>
       <c r="E64" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2890,10 +2984,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3237,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3287,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3762,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3812,11 +3906,11 @@
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Рубик +1</v>
+        <v>Мирали (Руб +1)</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -3887,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3912,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3937,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4112,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4187,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4237,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4262,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4312,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4337,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4462,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4587,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4637,7 +4731,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4687,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4712,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4737,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4762,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4787,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4837,7 +4931,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4862,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4912,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4937,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4962,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5012,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D85" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5037,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5112,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5162,7 +5256,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D91" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5187,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D92" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5212,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D93" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5312,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D97" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5337,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5462,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D103" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5487,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D104" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5512,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D105" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5587,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D108" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5612,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D109" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5662,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D111" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5712,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5737,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D114" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5762,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5837,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D118" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5912,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D121" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6012,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D125" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6037,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6062,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D127" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6087,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6112,7 +6206,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D129" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6162,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D131" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6337,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D138" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6362,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D139" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6387,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D140" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6462,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D143" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6487,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D144" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6512,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6562,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D147" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6662,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D151" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6737,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6812,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D157" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6837,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D158" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6887,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D160" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6937,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D162" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6962,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D163" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7012,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D165" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7037,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D166" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7087,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D168" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7162,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D171" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7187,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D172" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7237,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D174" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7262,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D175" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7287,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D176" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7337,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D178" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7487,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D184" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7512,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D185" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7537,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D186" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7562,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D187" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7604,9 +7698,785 @@
         <v>4</v>
       </c>
     </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B189" s="7">
+        <v>4</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0</v>
+      </c>
+      <c r="F189" s="8">
+        <v>0</v>
+      </c>
+      <c r="G189" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B190" s="7">
+        <v>2</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E190" s="7">
+        <v>3</v>
+      </c>
+      <c r="F190" s="8">
+        <v>1</v>
+      </c>
+      <c r="G190" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B191" s="7">
+        <v>3</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E191" s="7">
+        <v>1</v>
+      </c>
+      <c r="F191" s="8">
+        <v>1</v>
+      </c>
+      <c r="G191" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B192" s="7">
+        <v>4</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D192" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>KS (Андрей)</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0</v>
+      </c>
+      <c r="F192" s="8">
+        <v>2</v>
+      </c>
+      <c r="G192" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B193" s="7">
+        <v>3</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D193" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0</v>
+      </c>
+      <c r="F193" s="8">
+        <v>0</v>
+      </c>
+      <c r="G193" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B194" s="7">
+        <v>4</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E194" s="7">
+        <v>1</v>
+      </c>
+      <c r="F194" s="8">
+        <v>1</v>
+      </c>
+      <c r="G194" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B195" s="7">
+        <v>2</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0</v>
+      </c>
+      <c r="F195" s="8">
+        <v>0</v>
+      </c>
+      <c r="G195" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B196" s="7">
+        <v>3</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0</v>
+      </c>
+      <c r="G196" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B197" s="7">
+        <v>3</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0</v>
+      </c>
+      <c r="F197" s="8">
+        <v>0</v>
+      </c>
+      <c r="G197" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B198" s="7">
+        <v>2</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D198" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Муслим (от Расула)</v>
+      </c>
+      <c r="E198" s="7">
+        <v>6</v>
+      </c>
+      <c r="F198" s="8">
+        <v>3</v>
+      </c>
+      <c r="G198" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B199" s="7">
+        <v>1</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D199" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0</v>
+      </c>
+      <c r="F199" s="8">
+        <v>1</v>
+      </c>
+      <c r="G199" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B200" s="7">
+        <v>4</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E200" s="7">
+        <v>1</v>
+      </c>
+      <c r="F200" s="8">
+        <v>2</v>
+      </c>
+      <c r="G200" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B201" s="7">
+        <v>2</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E201" s="7">
+        <v>2</v>
+      </c>
+      <c r="F201" s="8">
+        <v>2</v>
+      </c>
+      <c r="G201" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B202" s="7">
+        <v>2</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0</v>
+      </c>
+      <c r="F202" s="8">
+        <v>1</v>
+      </c>
+      <c r="G202" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B203" s="7">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0</v>
+      </c>
+      <c r="F203" s="8">
+        <v>0</v>
+      </c>
+      <c r="G203" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B204" s="7">
+        <v>2</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Назар (Женя +1)</v>
+      </c>
+      <c r="E204" s="7">
+        <v>1</v>
+      </c>
+      <c r="F204" s="8">
+        <v>4</v>
+      </c>
+      <c r="G204" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B205" s="7">
+        <v>1</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D205" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл (АК+1)</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0</v>
+      </c>
+      <c r="F205" s="8">
+        <v>0</v>
+      </c>
+      <c r="G205" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B206" s="7">
+        <v>1</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D206" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (АК+1)</v>
+      </c>
+      <c r="E206" s="7">
+        <v>3</v>
+      </c>
+      <c r="F206" s="8">
+        <v>2</v>
+      </c>
+      <c r="G206" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B207" s="7">
+        <v>1</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D207" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (АК+1)</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0</v>
+      </c>
+      <c r="F207" s="8">
+        <v>0</v>
+      </c>
+      <c r="G207" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B208" s="7">
+        <v>1</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D208" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рамиль (АК+1)</v>
+      </c>
+      <c r="E208" s="7">
+        <v>1</v>
+      </c>
+      <c r="F208" s="8">
+        <v>1</v>
+      </c>
+      <c r="G208" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B209" s="7">
+        <v>1</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (АК+1)</v>
+      </c>
+      <c r="E209" s="7">
+        <v>1</v>
+      </c>
+      <c r="F209" s="8">
+        <v>1</v>
+      </c>
+      <c r="G209" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B210" s="7">
+        <v>3</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D210" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ибрагим (Нурик +1)</v>
+      </c>
+      <c r="E210" s="7">
+        <v>2</v>
+      </c>
+      <c r="F210" s="8">
+        <v>1</v>
+      </c>
+      <c r="G210" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B211" s="7">
+        <v>4</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D211" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E211" s="7">
+        <v>2</v>
+      </c>
+      <c r="F211" s="8">
+        <v>2</v>
+      </c>
+      <c r="G211" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B212" s="7">
+        <v>2</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эльдар</v>
+      </c>
+      <c r="E212" s="7">
+        <v>1</v>
+      </c>
+      <c r="F212" s="8">
+        <v>0</v>
+      </c>
+      <c r="G212" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B213" s="7">
+        <v>1</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эд (Сэм)</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0</v>
+      </c>
+      <c r="F213" s="8">
+        <v>0</v>
+      </c>
+      <c r="G213" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B214" s="7">
+        <v>1</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0</v>
+      </c>
+      <c r="F214" s="8">
+        <v>0</v>
+      </c>
+      <c r="G214" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B215" s="7">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя Одушкин</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0</v>
+      </c>
+      <c r="F215" s="8">
+        <v>1</v>
+      </c>
+      <c r="G215" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B216" s="7">
+        <v>4</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E216" s="7">
+        <v>2</v>
+      </c>
+      <c r="F216" s="8">
+        <v>0</v>
+      </c>
+      <c r="G216" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B217" s="7">
+        <v>2</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима (Руб)</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0</v>
+      </c>
+      <c r="F217" s="8">
+        <v>0</v>
+      </c>
+      <c r="G217" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B218" s="7">
+        <v>3</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D218" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Мирали (Руб +1)</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0</v>
+      </c>
+      <c r="F218" s="8">
+        <v>0</v>
+      </c>
+      <c r="G218" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>45837</v>
+      </c>
+      <c r="B219" s="7">
+        <v>4</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D219" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь (Ник +1)</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1</v>
+      </c>
+      <c r="F219" s="8">
+        <v>0</v>
+      </c>
+      <c r="G219" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C188" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C219" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -7623,10 +8493,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7955,9 +8825,53 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>45837</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>45837</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>45837</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>45837</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5EF94-77CE-473D-89C1-B71AEC4E9137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBFB34-91C0-4CA6-B98A-72E0F920FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13785" yWindow="0" windowWidth="15015" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="80">
   <si>
     <t>player_id</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Витя</t>
   </si>
   <si>
-    <t>Даня (Трав+)</t>
-  </si>
-  <si>
     <t>Дима (Руб)</t>
   </si>
   <si>
@@ -286,6 +283,15 @@
   </si>
   <si>
     <t>Никита (АК+1)</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Слава</t>
+  </si>
+  <si>
+    <t>Андрей Бутусов</t>
   </si>
 </sst>
 </file>
@@ -582,6 +588,124 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -707,118 +831,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -846,7 +858,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -855,12 +867,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1024,10 +1030,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F67" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F67" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
-    <sortCondition descending="1" ref="F1:F67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F69" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F69" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F69">
+    <sortCondition descending="1" ref="F1:F69"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1050,21 +1056,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G219" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G219" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G237" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G237" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1073,12 +1079,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C33" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:C33" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C36" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1350,10 +1356,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,19 +1402,19 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1420,7 +1426,7 @@
       </c>
       <c r="C3" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1428,11 +1434,11 @@
       </c>
       <c r="E3" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F3" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1444,7 +1450,7 @@
       </c>
       <c r="C4" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1452,11 +1458,11 @@
       </c>
       <c r="E4" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1468,7 +1474,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1476,59 +1482,59 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C7" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="D6" s="16">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>41</v>
-      </c>
-      <c r="F6" s="17">
+        <v>45</v>
+      </c>
+      <c r="F7" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
-      </c>
-      <c r="F7" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1556,539 +1562,539 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="A9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="21">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E10" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>20</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
-      </c>
-      <c r="F10" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
       <c r="D11" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F11" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E12" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="16">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>11</v>
+      </c>
+      <c r="E13" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>18</v>
+      </c>
+      <c r="F13" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>13</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>11</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>15</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="16">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E17" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>16</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F17" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C18" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D18" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E18" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F18" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C19" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D19" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E19" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F19" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="11">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D21" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>16</v>
+      </c>
+      <c r="F21" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>19</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>19</v>
+      </c>
+      <c r="F23" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E24" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>16</v>
       </c>
-      <c r="F18" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="F24" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="16">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="F20" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>22</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="16">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D26" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C27" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D27" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E27" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F27" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D28" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E28" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>15</v>
+      </c>
+      <c r="F28" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F29" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C30" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D30" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E30" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>12</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F30" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F25" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F26" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F27" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D28" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F28" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D29" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
-      </c>
-      <c r="F29" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D30" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
-      </c>
-      <c r="F30" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
-      </c>
-    </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>23</v>
+      <c r="A31" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C31" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2096,7 +2102,7 @@
       </c>
       <c r="D31" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2104,267 +2110,267 @@
       </c>
       <c r="F31" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D32" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>18</v>
+      </c>
+      <c r="F32" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>18</v>
+      </c>
+      <c r="F33" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>13</v>
+      </c>
+      <c r="F34" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="F35" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F36" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F37" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E38" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="F38" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F39" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D40" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="F40" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>12</v>
       </c>
-      <c r="F32" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D33" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E33" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F33" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E34" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="F34" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E35" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F35" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F36" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D37" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="F37" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F38" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D39" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E39" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
-      </c>
-      <c r="F39" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="16">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
-      </c>
-      <c r="F41" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E42" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2397,466 +2403,466 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D44" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F44" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B45" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C45" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>8</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B46" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C46" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="16">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="16">
+        <v>3</v>
+      </c>
+      <c r="E47" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F47" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F48" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="11">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D49" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E49" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F49" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="11">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D50" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C51" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D51" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E51" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F51" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B52" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C52" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D52" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E52" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F52" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="16">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D53" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E53" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F53" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C54" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D54" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E54" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F54" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="16">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D55" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F53" s="17">
+        <v>5</v>
+      </c>
+      <c r="F55" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E56" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="10">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D57" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="7">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E58" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="F58" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="7">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F56" s="8">
+        <v>4</v>
+      </c>
+      <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="10">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="10">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="10">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="18">
+        <v>3</v>
+      </c>
+      <c r="F61" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D62" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E62" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F62" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="10">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="10">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F60" s="18">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F61" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F62" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C63" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2876,39 +2882,39 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="10">
+      <c r="A64" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>58</v>
+      <c r="A65" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C65" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2916,19 +2922,19 @@
       </c>
       <c r="E65" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C66" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2940,33 +2946,81 @@
       </c>
       <c r="E66" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="10">
+        <v>57</v>
+      </c>
+      <c r="C67" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -2984,10 +3038,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -3906,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4831,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4856,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4881,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4931,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D78" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -4956,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5006,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5031,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5056,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5106,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D85" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5131,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5206,11 +5260,11 @@
         <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D89" s="16" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Даня (Трав+)</v>
+        <v>Даниил</v>
       </c>
       <c r="E89" s="11">
         <v>1</v>
@@ -5256,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D91" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5281,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5581,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5606,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D105" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5681,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D108" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5706,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D109" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5831,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D114" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -5931,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D118" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6006,11 +6060,11 @@
         <v>3</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D121" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Даня (Трав+)</v>
+        <v>Даниил</v>
       </c>
       <c r="E121" s="7">
         <v>2</v>
@@ -6106,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D125" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6156,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D127" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6181,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D128" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6256,7 +6310,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D131" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6456,7 +6510,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D139" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6581,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D144" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6656,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D147" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6756,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D151" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6906,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D157" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6931,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D158" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -6981,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D160" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7031,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D162" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7056,7 +7110,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D163" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7131,7 +7185,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D166" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7181,11 +7235,11 @@
         <v>1</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D168" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Даня (Трав+)</v>
+        <v>Даниил</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -7256,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D171" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7331,7 +7385,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D174" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7356,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D175" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7431,7 +7485,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D178" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7656,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D187" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7781,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D192" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7881,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D196" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -7931,7 +7985,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D198" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8081,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D204" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8106,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D205" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8156,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D207" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8181,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D208" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8231,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D210" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8256,7 +8310,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D211" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8406,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D217" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8431,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D218" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -8473,10 +8527,460 @@
         <v>3</v>
       </c>
     </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B220" s="7">
+        <v>2</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E220" s="7">
+        <v>1</v>
+      </c>
+      <c r="F220" s="8">
+        <v>2</v>
+      </c>
+      <c r="G220" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B221" s="7">
+        <v>2</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0</v>
+      </c>
+      <c r="F221" s="8">
+        <v>0</v>
+      </c>
+      <c r="G221" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B222" s="7">
+        <v>1</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E222" s="7">
+        <v>4</v>
+      </c>
+      <c r="F222" s="8">
+        <v>3</v>
+      </c>
+      <c r="G222" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B223" s="7">
+        <v>1</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E223" s="7">
+        <v>3</v>
+      </c>
+      <c r="F223" s="8">
+        <v>0</v>
+      </c>
+      <c r="G223" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B224" s="7">
+        <v>3</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E224" s="7">
+        <v>1</v>
+      </c>
+      <c r="F224" s="8">
+        <v>0</v>
+      </c>
+      <c r="G224" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B225" s="7">
+        <v>1</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D225" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0</v>
+      </c>
+      <c r="F225" s="8">
+        <v>1</v>
+      </c>
+      <c r="G225" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B226" s="7">
+        <v>1</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D226" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0</v>
+      </c>
+      <c r="F226" s="8">
+        <v>1</v>
+      </c>
+      <c r="G226" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B227" s="7">
+        <v>1</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E227" s="7">
+        <v>5</v>
+      </c>
+      <c r="F227" s="8">
+        <v>1</v>
+      </c>
+      <c r="G227" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B228" s="7">
+        <v>3</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E228" s="7">
+        <v>1</v>
+      </c>
+      <c r="F228" s="8">
+        <v>0</v>
+      </c>
+      <c r="G228" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B229" s="7">
+        <v>1</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0</v>
+      </c>
+      <c r="F229" s="8">
+        <v>3</v>
+      </c>
+      <c r="G229" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B230" s="7">
+        <v>2</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E230" s="7">
+        <v>3</v>
+      </c>
+      <c r="F230" s="8">
+        <v>0</v>
+      </c>
+      <c r="G230" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B231" s="7">
+        <v>3</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E231" s="7">
+        <v>1</v>
+      </c>
+      <c r="F231" s="8">
+        <v>0</v>
+      </c>
+      <c r="G231" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B232" s="7">
+        <v>2</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E232" s="7">
+        <v>2</v>
+      </c>
+      <c r="F232" s="8">
+        <v>0</v>
+      </c>
+      <c r="G232" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B233" s="7">
+        <v>3</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E233" s="7">
+        <v>1</v>
+      </c>
+      <c r="F233" s="8">
+        <v>0</v>
+      </c>
+      <c r="G233" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B234" s="7">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E234" s="7">
+        <v>0</v>
+      </c>
+      <c r="F234" s="8">
+        <v>2</v>
+      </c>
+      <c r="G234" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B235" s="7">
+        <v>2</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D235" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E235" s="7">
+        <v>3</v>
+      </c>
+      <c r="F235" s="8">
+        <v>3</v>
+      </c>
+      <c r="G235" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B236" s="7">
+        <v>2</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E236" s="7">
+        <v>1</v>
+      </c>
+      <c r="F236" s="8">
+        <v>2</v>
+      </c>
+      <c r="G236" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B237" s="7">
+        <v>3</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E237" s="7">
+        <v>1</v>
+      </c>
+      <c r="F237" s="8">
+        <v>1</v>
+      </c>
+      <c r="G237" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C219" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C237" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -8493,10 +8997,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8869,9 +9373,42 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>45855</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>45855</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>45855</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBFB34-91C0-4CA6-B98A-72E0F920FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C411B-3F56-4179-9BF1-045193492DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="0" windowWidth="15015" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="0" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D33" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="F33" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3040,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="F221" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
@@ -8999,7 +8999,7 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C411B-3F56-4179-9BF1-045193492DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542135D-05FB-4677-98B6-9B335C899A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="0" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="90" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="85">
   <si>
     <t>player_id</t>
   </si>
@@ -293,6 +293,21 @@
   <si>
     <t>Андрей Бутусов</t>
   </si>
+  <si>
+    <t>Анашкин</t>
+  </si>
+  <si>
+    <t>Даня (сын Вити)</t>
+  </si>
+  <si>
+    <t>Никита (Нур+1)</t>
+  </si>
+  <si>
+    <t>Марат (Атай+1)</t>
+  </si>
+  <si>
+    <t>Азат</t>
+  </si>
 </sst>
 </file>
 
@@ -329,6 +344,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,7 +579,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +598,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1030,10 +1047,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F69" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F69" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F69">
-    <sortCondition descending="1" ref="F1:F69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F74" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F74" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
+    <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
@@ -1056,8 +1073,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G237" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G237" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G256" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G256" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1079,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C36" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C39" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1356,15 +1373,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
@@ -1419,50 +1436,50 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
-      </c>
-      <c r="D3" s="16">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="16">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>41</v>
-      </c>
-      <c r="F3" s="17">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="D4" s="11">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>41</v>
-      </c>
-      <c r="F4" s="12">
+        <v>44</v>
+      </c>
+      <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1491,226 +1508,226 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>48</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>12</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>30</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
-      </c>
-      <c r="D7" s="16">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>45</v>
-      </c>
-      <c r="F7" s="17">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>19</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C10" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D10" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>40</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
-      </c>
-      <c r="F9" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="21">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>10</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>20</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="11">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>21</v>
+      </c>
+      <c r="F12" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>22</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>29</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D13" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
-      </c>
-      <c r="E13" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F13" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="D14" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="F14" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1722,594 +1739,594 @@
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>9</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F17" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>14</v>
+      </c>
+      <c r="F18" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="E19" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>16</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F19" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>19</v>
+      </c>
+      <c r="F20" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>22</v>
+      </c>
+      <c r="F21" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>23</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>20</v>
+      </c>
+      <c r="F23" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C24" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D24" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E24" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F24" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="F26" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>19</v>
       </c>
-      <c r="C20" s="11">
+      <c r="F27" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>22</v>
+      </c>
+      <c r="F28" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F29" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D30" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>17</v>
+      </c>
+      <c r="F30" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>6</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>14</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="D21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="E33" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="F21" s="17">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="16">
+        <v>6</v>
+      </c>
+      <c r="D34" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>12</v>
+      </c>
+      <c r="F34" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>18</v>
+      </c>
+      <c r="F35" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>13</v>
+      </c>
+      <c r="F36" s="12">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>19</v>
       </c>
-      <c r="F22" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
-      </c>
-      <c r="F23" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
-      </c>
-      <c r="F24" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
-      </c>
-      <c r="F25" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="D26" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E28" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
-      </c>
-      <c r="F28" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>17</v>
       </c>
-      <c r="F29" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
-      </c>
-      <c r="D30" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E30" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
-      </c>
-      <c r="F30" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E31" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F31" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F32" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="16">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E33" s="16">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
-      </c>
-      <c r="F33" s="17">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="D34" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
-      </c>
-      <c r="F34" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D35" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F35" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
-      </c>
-      <c r="F36" s="12">
+      <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
-      </c>
-      <c r="F37" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
-      </c>
-      <c r="E38" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
-      </c>
-      <c r="F38" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="11">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="D39" s="11">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="E39" s="11">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
-      </c>
-      <c r="F39" s="12">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
-      </c>
-    </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="11">
@@ -2378,10 +2395,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="11">
@@ -2474,10 +2491,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="16">
@@ -2497,60 +2514,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>71</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C48" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="A49" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>7</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>51</v>
+      <c r="A50" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="C50" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2558,11 +2575,11 @@
       </c>
       <c r="D50" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
@@ -2570,371 +2587,371 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>36</v>
+      <c r="A51" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="C51" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F51" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="16">
+      <c r="A52" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>67</v>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C53" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F53" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F54" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C55" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C56" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D57" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F57" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C58" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D58" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F58" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C59" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D60" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F60" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B61" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C61" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D61" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E61" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>3</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F61" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B62" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C62" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D62" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E62" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>4</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F62" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C63" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>2</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D63" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E63" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F63" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F64" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F65" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B66" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="C61" s="10">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="10">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="10">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F61" s="18">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="10">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
-      </c>
-      <c r="F62" s="18">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F63" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F64" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="7">
-        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="7">
-        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
-      </c>
-      <c r="F65" s="8">
-        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="C66" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2946,81 +2963,201 @@
       </c>
       <c r="E66" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F67" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F68" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F69" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="7">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F70" s="8">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F71" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B72" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C72" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D72" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E72" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F72" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B73" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C73" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D73" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E73" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>1</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F73" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B74" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C74" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D74" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E74" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>0</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F74" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
       </c>
@@ -3038,10 +3175,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,10 +9114,485 @@
         <v>4</v>
       </c>
     </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B238" s="7">
+        <v>2</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E238" s="7">
+        <v>0</v>
+      </c>
+      <c r="F238" s="8">
+        <v>0</v>
+      </c>
+      <c r="G238" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B239" s="7">
+        <v>1</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D239" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анашкин</v>
+      </c>
+      <c r="E239" s="7">
+        <v>0</v>
+      </c>
+      <c r="F239" s="8">
+        <v>1</v>
+      </c>
+      <c r="G239" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B240" s="7">
+        <v>2</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E240" s="7">
+        <v>3</v>
+      </c>
+      <c r="F240" s="8">
+        <v>7</v>
+      </c>
+      <c r="G240" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B241" s="7">
+        <v>3</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D241" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E241" s="7">
+        <v>1</v>
+      </c>
+      <c r="F241" s="8">
+        <v>0</v>
+      </c>
+      <c r="G241" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B242" s="7">
+        <v>1</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E242" s="7">
+        <v>1</v>
+      </c>
+      <c r="F242" s="8">
+        <v>0</v>
+      </c>
+      <c r="G242" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B243" s="7">
+        <v>3</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0</v>
+      </c>
+      <c r="F243" s="8">
+        <v>3</v>
+      </c>
+      <c r="G243" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B244" s="7">
+        <v>1</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E244" s="7">
+        <v>3</v>
+      </c>
+      <c r="F244" s="8">
+        <v>0</v>
+      </c>
+      <c r="G244" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B245" s="7">
+        <v>2</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D245" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Муслим (от Расула)</v>
+      </c>
+      <c r="E245" s="7">
+        <v>11</v>
+      </c>
+      <c r="F245" s="8">
+        <v>1</v>
+      </c>
+      <c r="G245" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B246" s="7">
+        <v>1</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E246" s="7">
+        <v>0</v>
+      </c>
+      <c r="F246" s="8">
+        <v>0</v>
+      </c>
+      <c r="G246" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B247" s="7">
+        <v>2</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D247" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (сын Вити)</v>
+      </c>
+      <c r="E247" s="7">
+        <v>1</v>
+      </c>
+      <c r="F247" s="8">
+        <v>2</v>
+      </c>
+      <c r="G247" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B248" s="7">
+        <v>3</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D248" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (Нур+1)</v>
+      </c>
+      <c r="E248" s="7">
+        <v>3</v>
+      </c>
+      <c r="F248" s="8">
+        <v>0</v>
+      </c>
+      <c r="G248" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B249" s="7">
+        <v>1</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E249" s="7">
+        <v>1</v>
+      </c>
+      <c r="F249" s="8">
+        <v>0</v>
+      </c>
+      <c r="G249" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B250" s="7">
+        <v>2</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя Одушкин</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0</v>
+      </c>
+      <c r="F250" s="8">
+        <v>1</v>
+      </c>
+      <c r="G250" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B251" s="7">
+        <v>2</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D251" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E251" s="7">
+        <v>0</v>
+      </c>
+      <c r="F251" s="8">
+        <v>1</v>
+      </c>
+      <c r="G251" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B252" s="7">
+        <v>3</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D252" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Марат (Атай+1)</v>
+      </c>
+      <c r="E252" s="7">
+        <v>2</v>
+      </c>
+      <c r="F252" s="8">
+        <v>0</v>
+      </c>
+      <c r="G252" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B253" s="7">
+        <v>1</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рамиль (АК+1)</v>
+      </c>
+      <c r="E253" s="7">
+        <v>1</v>
+      </c>
+      <c r="F253" s="8">
+        <v>2</v>
+      </c>
+      <c r="G253" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B254" s="7">
+        <v>3</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E254" s="7">
+        <v>0</v>
+      </c>
+      <c r="F254" s="8">
+        <v>2</v>
+      </c>
+      <c r="G254" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B255" s="7">
+        <v>3</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D255" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E255" s="7">
+        <v>0</v>
+      </c>
+      <c r="F255" s="8">
+        <v>0</v>
+      </c>
+      <c r="G255" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>45858</v>
+      </c>
+      <c r="B256" s="7">
+        <v>1</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D256" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Азат</v>
+      </c>
+      <c r="E256" s="7">
+        <v>1</v>
+      </c>
+      <c r="F256" s="8">
+        <v>0</v>
+      </c>
+      <c r="G256" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C237" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -8997,10 +9609,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,9 +10018,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>45858</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>45858</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>45858</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542135D-05FB-4677-98B6-9B335C899A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD023F-8FC3-4627-93F4-37A388935500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="90" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="105" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="86">
   <si>
     <t>player_id</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Азат</t>
+  </si>
+  <si>
+    <t>Волков Антон</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1050,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F74" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F74" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F75" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F75" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1073,8 +1076,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G256" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G256" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G275" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G275" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1096,8 +1099,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C39" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C42" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1373,10 +1376,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,11 +1454,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1491,7 +1494,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1499,11 +1502,11 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1523,11 +1526,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1587,19 +1590,19 @@
       </c>
       <c r="C9" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1635,19 +1638,19 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1683,19 +1686,19 @@
       </c>
       <c r="C13" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1735,15 +1738,15 @@
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1779,19 +1782,19 @@
       </c>
       <c r="C17" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F17" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1803,19 +1806,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,15 +1858,15 @@
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1907,11 +1910,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1979,11 +1982,11 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2075,11 +2078,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2291,11 +2294,11 @@
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2435,11 +2438,11 @@
       </c>
       <c r="E44" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2503,15 +2506,15 @@
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,11 +2726,11 @@
       </c>
       <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,6 +3163,30 @@
       <c r="F74" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E75" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F75" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3175,10 +3202,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9589,10 +9616,485 @@
         <v>3</v>
       </c>
     </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B257" s="7">
+        <v>1</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D257" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E257" s="7">
+        <v>4</v>
+      </c>
+      <c r="F257" s="8">
+        <v>1</v>
+      </c>
+      <c r="G257" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B258" s="7">
+        <v>1</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E258" s="7">
+        <v>1</v>
+      </c>
+      <c r="F258" s="8">
+        <v>0</v>
+      </c>
+      <c r="G258" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B259" s="7">
+        <v>1</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D259" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E259" s="7">
+        <v>0</v>
+      </c>
+      <c r="F259" s="8">
+        <v>1</v>
+      </c>
+      <c r="G259" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B260" s="7">
+        <v>1</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D260" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0</v>
+      </c>
+      <c r="F260" s="8">
+        <v>0</v>
+      </c>
+      <c r="G260" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B261" s="7">
+        <v>1</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E261" s="7">
+        <v>0</v>
+      </c>
+      <c r="F261" s="8">
+        <v>0</v>
+      </c>
+      <c r="G261" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B262" s="7">
+        <v>1</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E262" s="7">
+        <v>1</v>
+      </c>
+      <c r="F262" s="8">
+        <v>3</v>
+      </c>
+      <c r="G262" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B263" s="7">
+        <v>2</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E263" s="7">
+        <v>1</v>
+      </c>
+      <c r="F263" s="8">
+        <v>1</v>
+      </c>
+      <c r="G263" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B264" s="7">
+        <v>2</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0</v>
+      </c>
+      <c r="F264" s="8">
+        <v>0</v>
+      </c>
+      <c r="G264" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B265" s="7">
+        <v>2</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D265" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Муслим (от Расула)</v>
+      </c>
+      <c r="E265" s="7">
+        <v>1</v>
+      </c>
+      <c r="F265" s="8">
+        <v>1</v>
+      </c>
+      <c r="G265" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B266" s="7">
+        <v>2</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0</v>
+      </c>
+      <c r="F266" s="8">
+        <v>0</v>
+      </c>
+      <c r="G266" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B267" s="7">
+        <v>2</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D267" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+      <c r="F267" s="8">
+        <v>0</v>
+      </c>
+      <c r="G267" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B268" s="7">
+        <v>2</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0</v>
+      </c>
+      <c r="F268" s="8">
+        <v>0</v>
+      </c>
+      <c r="G268" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B269" s="7">
+        <v>3</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D269" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0</v>
+      </c>
+      <c r="F269" s="8">
+        <v>0</v>
+      </c>
+      <c r="G269" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B270" s="7">
+        <v>3</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E270" s="7">
+        <v>4</v>
+      </c>
+      <c r="F270" s="8">
+        <v>0</v>
+      </c>
+      <c r="G270" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B271" s="7">
+        <v>3</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E271" s="7">
+        <v>0</v>
+      </c>
+      <c r="F271" s="8">
+        <v>2</v>
+      </c>
+      <c r="G271" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B272" s="7">
+        <v>3</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D272" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E272" s="7">
+        <v>1</v>
+      </c>
+      <c r="F272" s="8">
+        <v>1</v>
+      </c>
+      <c r="G272" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B273" s="7">
+        <v>3</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0</v>
+      </c>
+      <c r="F273" s="8">
+        <v>0</v>
+      </c>
+      <c r="G273" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B274" s="7">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D274" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Волков Антон</v>
+      </c>
+      <c r="E274" s="7">
+        <v>1</v>
+      </c>
+      <c r="F274" s="8">
+        <v>2</v>
+      </c>
+      <c r="G274" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <v>45862</v>
+      </c>
+      <c r="B275" s="7">
+        <v>3</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D275" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E275" s="7">
+        <v>0</v>
+      </c>
+      <c r="F275" s="8">
+        <v>1</v>
+      </c>
+      <c r="G275" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -9609,10 +10111,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10051,9 +10553,42 @@
         <v>3</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>45862</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>45862</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>45862</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B42" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD023F-8FC3-4627-93F4-37A388935500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91530D86-BC22-4953-BEDC-EC6AD77924C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="105" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="89">
   <si>
     <t>player_id</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Волков Антон</t>
+  </si>
+  <si>
+    <t>Зинаддин Алимов</t>
+  </si>
+  <si>
+    <t>Вова (АК+1)</t>
+  </si>
+  <si>
+    <t>Нарек (АК+1)</t>
   </si>
 </sst>
 </file>
@@ -681,6 +690,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -698,13 +714,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1050,8 +1059,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F75" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F75" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F78" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F78" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1076,8 +1085,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G275" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G275" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G297" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G297" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1099,8 +1108,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C42" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C45" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C45" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1376,10 +1385,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1498,15 +1507,15 @@
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1518,19 +1527,19 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1566,7 +1575,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,19 +1647,19 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,19 +1671,19 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1718,11 +1727,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1806,7 +1815,7 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,15 +1891,15 @@
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1926,19 +1935,19 @@
       </c>
       <c r="C23" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2078,11 +2087,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2286,19 +2295,19 @@
       </c>
       <c r="C38" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2318,11 +2327,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2334,19 +2343,19 @@
       </c>
       <c r="C40" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D40" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F40" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2406,19 +2415,19 @@
       </c>
       <c r="C43" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2534,11 +2543,11 @@
       </c>
       <c r="E48" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2578,15 +2587,15 @@
       </c>
       <c r="D50" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2790,19 +2799,19 @@
       </c>
       <c r="C59" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,11 +3023,11 @@
       </c>
       <c r="E68" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F68" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3187,6 +3196,78 @@
       <c r="F75" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>9</v>
+      </c>
+      <c r="D76" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>7</v>
+      </c>
+      <c r="E76" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F76" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F77" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>10</v>
+      </c>
+      <c r="F78" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3202,10 +3283,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10091,10 +10172,560 @@
         <v>4</v>
       </c>
     </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B276" s="7">
+        <v>2</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E276" s="7">
+        <v>1</v>
+      </c>
+      <c r="F276" s="8">
+        <v>2</v>
+      </c>
+      <c r="G276" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B277" s="7">
+        <v>1</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D277" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E277" s="7">
+        <v>4</v>
+      </c>
+      <c r="F277" s="8">
+        <v>1</v>
+      </c>
+      <c r="G277" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B278" s="7">
+        <v>1</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D278" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E278" s="7">
+        <v>1</v>
+      </c>
+      <c r="F278" s="8">
+        <v>0</v>
+      </c>
+      <c r="G278" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B279" s="7">
+        <v>1</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E279" s="7">
+        <v>1</v>
+      </c>
+      <c r="F279" s="8">
+        <v>1</v>
+      </c>
+      <c r="G279" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B280" s="7">
+        <v>1</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D280" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E280" s="7">
+        <v>0</v>
+      </c>
+      <c r="F280" s="8">
+        <v>0</v>
+      </c>
+      <c r="G280" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B281" s="7">
+        <v>2</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E281" s="7">
+        <v>0</v>
+      </c>
+      <c r="F281" s="8">
+        <v>0</v>
+      </c>
+      <c r="G281" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B282" s="7">
+        <v>2</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E282" s="7">
+        <v>0</v>
+      </c>
+      <c r="F282" s="8">
+        <v>3</v>
+      </c>
+      <c r="G282" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B283" s="7">
+        <v>1</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E283" s="7">
+        <v>2</v>
+      </c>
+      <c r="F283" s="8">
+        <v>2</v>
+      </c>
+      <c r="G283" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B284" s="7">
+        <v>2</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D284" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E284" s="7">
+        <v>2</v>
+      </c>
+      <c r="F284" s="8">
+        <v>1</v>
+      </c>
+      <c r="G284" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B285" s="7">
+        <v>2</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E285" s="7">
+        <v>0</v>
+      </c>
+      <c r="F285" s="8">
+        <v>0</v>
+      </c>
+      <c r="G285" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B286" s="7">
+        <v>2</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E286" s="7">
+        <v>4</v>
+      </c>
+      <c r="F286" s="8">
+        <v>0</v>
+      </c>
+      <c r="G286" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B287" s="7">
+        <v>1</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E287" s="7">
+        <v>0</v>
+      </c>
+      <c r="F287" s="8">
+        <v>0</v>
+      </c>
+      <c r="G287" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B288" s="7">
+        <v>2</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D288" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (сын Вити)</v>
+      </c>
+      <c r="E288" s="7">
+        <v>0</v>
+      </c>
+      <c r="F288" s="8">
+        <v>0</v>
+      </c>
+      <c r="G288" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B289" s="7">
+        <v>1</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D289" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E289" s="7">
+        <v>0</v>
+      </c>
+      <c r="F289" s="8">
+        <v>4</v>
+      </c>
+      <c r="G289" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B290" s="7">
+        <v>3</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (АК+1)</v>
+      </c>
+      <c r="E290" s="7">
+        <v>3</v>
+      </c>
+      <c r="F290" s="8">
+        <v>1</v>
+      </c>
+      <c r="G290" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B291" s="7">
+        <v>3</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D291" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (АК+1)</v>
+      </c>
+      <c r="E291" s="7">
+        <v>8</v>
+      </c>
+      <c r="F291" s="8">
+        <v>2</v>
+      </c>
+      <c r="G291" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B292" s="7">
+        <v>3</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D292" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл (АК+1)</v>
+      </c>
+      <c r="E292" s="7">
+        <v>0</v>
+      </c>
+      <c r="F292" s="8">
+        <v>1</v>
+      </c>
+      <c r="G292" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B293" s="7">
+        <v>3</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D293" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Егор (АК+1)</v>
+      </c>
+      <c r="E293" s="7">
+        <v>0</v>
+      </c>
+      <c r="F293" s="8">
+        <v>0</v>
+      </c>
+      <c r="G293" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B294" s="7">
+        <v>3</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D294" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (АК+1)</v>
+      </c>
+      <c r="E294" s="7">
+        <v>2</v>
+      </c>
+      <c r="F294" s="8">
+        <v>2</v>
+      </c>
+      <c r="G294" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B295" s="7">
+        <v>3</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D295" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E295" s="7">
+        <v>9</v>
+      </c>
+      <c r="F295" s="8">
+        <v>7</v>
+      </c>
+      <c r="G295" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B296" s="7">
+        <v>3</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D296" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова (АК+1)</v>
+      </c>
+      <c r="E296" s="7">
+        <v>0</v>
+      </c>
+      <c r="F296" s="8">
+        <v>0</v>
+      </c>
+      <c r="G296" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>45865</v>
+      </c>
+      <c r="B297" s="7">
+        <v>3</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D297" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нарек (АК+1)</v>
+      </c>
+      <c r="E297" s="7">
+        <v>1</v>
+      </c>
+      <c r="F297" s="8">
+        <v>1</v>
+      </c>
+      <c r="G297" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C297" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -10111,10 +10742,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10586,9 +11217,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>45865</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>45865</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>45865</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B42" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91530D86-BC22-4953-BEDC-EC6AD77924C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88BDDFF-B05F-41FD-AA7B-75EED5164D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="0" windowWidth="14100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="30" windowWidth="14100" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="90">
   <si>
     <t>player_id</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Нарек (АК+1)</t>
+  </si>
+  <si>
+    <t>Антон Копыч</t>
   </si>
 </sst>
 </file>
@@ -690,13 +693,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -714,6 +710,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1059,8 +1062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F78" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F78" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F79" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F79" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1085,8 +1088,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G297" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G297" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G315" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G315" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1108,8 +1111,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C45" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C45" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C48" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1385,10 +1388,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,19 +1434,19 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1455,7 +1458,7 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1463,11 +1466,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1479,7 +1482,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1487,11 +1490,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1507,15 +1510,15 @@
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1527,7 +1530,7 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1535,11 +1538,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1583,11 +1586,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,19 +1746,19 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,15 +1798,15 @@
       </c>
       <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1815,19 +1818,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,19 +1866,19 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1939,15 +1942,15 @@
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2031,7 +2034,7 @@
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2079,19 +2082,19 @@
       </c>
       <c r="C29" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2135,11 +2138,11 @@
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2447,11 +2450,11 @@
       </c>
       <c r="E44" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F44" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2511,19 +2514,19 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,11 +2738,11 @@
       </c>
       <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,6 +3271,30 @@
       <c r="F78" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D79" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E79" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F79" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3283,10 +3310,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10722,10 +10749,460 @@
         <v>10</v>
       </c>
     </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B298" s="7">
+        <v>1</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E298" s="7">
+        <v>0</v>
+      </c>
+      <c r="F298" s="8">
+        <v>0</v>
+      </c>
+      <c r="G298" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B299" s="7">
+        <v>1</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E299" s="7">
+        <v>0</v>
+      </c>
+      <c r="F299" s="8">
+        <v>3</v>
+      </c>
+      <c r="G299" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B300" s="7">
+        <v>1</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E300" s="7">
+        <v>1</v>
+      </c>
+      <c r="F300" s="8">
+        <v>0</v>
+      </c>
+      <c r="G300" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B301" s="7">
+        <v>1</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E301" s="7">
+        <v>0</v>
+      </c>
+      <c r="F301" s="8">
+        <v>0</v>
+      </c>
+      <c r="G301" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B302" s="7">
+        <v>3</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D302" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E302" s="7">
+        <v>3</v>
+      </c>
+      <c r="F302" s="8">
+        <v>2</v>
+      </c>
+      <c r="G302" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B303" s="7">
+        <v>2</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E303" s="7">
+        <v>2</v>
+      </c>
+      <c r="F303" s="8">
+        <v>0</v>
+      </c>
+      <c r="G303" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B304" s="7">
+        <v>3</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E304" s="7">
+        <v>1</v>
+      </c>
+      <c r="F304" s="8">
+        <v>0</v>
+      </c>
+      <c r="G304" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B305" s="7">
+        <v>1</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D305" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E305" s="7">
+        <v>4</v>
+      </c>
+      <c r="F305" s="8">
+        <v>1</v>
+      </c>
+      <c r="G305" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B306" s="7">
+        <v>2</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D306" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E306" s="7">
+        <v>2</v>
+      </c>
+      <c r="F306" s="8">
+        <v>1</v>
+      </c>
+      <c r="G306" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B307" s="7">
+        <v>3</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D307" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E307" s="7">
+        <v>3</v>
+      </c>
+      <c r="F307" s="8">
+        <v>3</v>
+      </c>
+      <c r="G307" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B308" s="7">
+        <v>2</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E308" s="7">
+        <v>1</v>
+      </c>
+      <c r="F308" s="8">
+        <v>0</v>
+      </c>
+      <c r="G308" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B309" s="7">
+        <v>2</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E309" s="7">
+        <v>2</v>
+      </c>
+      <c r="F309" s="8">
+        <v>5</v>
+      </c>
+      <c r="G309" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B310" s="7">
+        <v>2</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D310" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E310" s="7">
+        <v>2</v>
+      </c>
+      <c r="F310" s="8">
+        <v>2</v>
+      </c>
+      <c r="G310" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B311" s="7">
+        <v>3</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D311" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E311" s="7">
+        <v>0</v>
+      </c>
+      <c r="F311" s="8">
+        <v>0</v>
+      </c>
+      <c r="G311" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B312" s="7">
+        <v>1</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E312" s="7">
+        <v>0</v>
+      </c>
+      <c r="F312" s="8">
+        <v>1</v>
+      </c>
+      <c r="G312" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B313" s="7">
+        <v>2</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D313" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E313" s="7">
+        <v>2</v>
+      </c>
+      <c r="F313" s="8">
+        <v>1</v>
+      </c>
+      <c r="G313" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B314" s="7">
+        <v>3</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D314" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E314" s="7">
+        <v>0</v>
+      </c>
+      <c r="F314" s="8">
+        <v>0</v>
+      </c>
+      <c r="G314" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B315" s="7">
+        <v>1</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D315" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E315" s="7">
+        <v>0</v>
+      </c>
+      <c r="F315" s="8">
+        <v>3</v>
+      </c>
+      <c r="G315" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C297" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C315" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -10742,10 +11219,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11250,9 +11727,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B48" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88BDDFF-B05F-41FD-AA7B-75EED5164D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B960E-7065-4A38-874E-B25E8735DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="30" windowWidth="14100" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C23" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3312,8 +3312,8 @@
   </sheetPr>
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11189,7 +11189,7 @@
         <v>Витя</v>
       </c>
       <c r="E315" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" s="8">
         <v>3</v>
@@ -11221,7 +11221,7 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B960E-7065-4A38-874E-B25E8735DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC88E6-7D9F-4DE3-93DB-FF977CA47187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="0" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="93">
   <si>
     <t>player_id</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>Антон Копыч</t>
+  </si>
+  <si>
+    <t>Сониксоннов Сергей</t>
+  </si>
+  <si>
+    <t>Ваня (сын Славы)</t>
+  </si>
+  <si>
+    <t>Паша (АК+1)</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1071,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F79" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F79" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F82" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1088,8 +1097,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G315" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G315" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G337" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G337" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1111,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C48" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C51" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1388,10 +1397,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="A80" sqref="A80:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,19 +1467,19 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1482,7 +1491,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1490,11 +1499,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1510,15 +1519,15 @@
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1530,7 +1539,7 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1538,11 +1547,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1582,15 +1591,15 @@
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,19 +1683,19 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1730,11 +1739,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,11 +1787,11 @@
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1794,7 +1803,7 @@
       </c>
       <c r="C17" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1802,11 +1811,11 @@
       </c>
       <c r="E17" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1818,19 +1827,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1875,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1874,11 +1883,11 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1894,15 +1903,15 @@
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1922,11 +1931,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2110,15 +2119,15 @@
       </c>
       <c r="D30" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F30" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,11 +2315,11 @@
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2330,11 +2339,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2734,15 +2743,15 @@
       </c>
       <c r="D56" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,19 +3219,19 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,15 +3295,87 @@
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F80" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F81" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D82" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F82" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3310,10 +3391,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11199,10 +11280,560 @@
         <v>4</v>
       </c>
     </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B316" s="7">
+        <v>1</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E316" s="7">
+        <v>1</v>
+      </c>
+      <c r="F316" s="8">
+        <v>0</v>
+      </c>
+      <c r="G316" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B317" s="7">
+        <v>2</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Расул</v>
+      </c>
+      <c r="E317" s="7">
+        <v>2</v>
+      </c>
+      <c r="F317" s="8">
+        <v>0</v>
+      </c>
+      <c r="G317" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B318" s="7">
+        <v>2</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D318" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E318" s="7">
+        <v>0</v>
+      </c>
+      <c r="F318" s="8">
+        <v>1</v>
+      </c>
+      <c r="G318" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B319" s="7">
+        <v>2</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D319" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E319" s="7">
+        <v>2</v>
+      </c>
+      <c r="F319" s="8">
+        <v>1</v>
+      </c>
+      <c r="G319" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B320" s="7">
+        <v>3</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D320" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E320" s="7">
+        <v>0</v>
+      </c>
+      <c r="F320" s="8">
+        <v>1</v>
+      </c>
+      <c r="G320" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B321" s="7">
+        <v>3</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D321" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E321" s="7">
+        <v>2</v>
+      </c>
+      <c r="F321" s="8">
+        <v>2</v>
+      </c>
+      <c r="G321" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B322" s="7">
+        <v>1</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E322" s="7">
+        <v>1</v>
+      </c>
+      <c r="F322" s="8">
+        <v>1</v>
+      </c>
+      <c r="G322" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B323" s="7">
+        <v>2</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D323" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E323" s="7">
+        <v>0</v>
+      </c>
+      <c r="F323" s="8">
+        <v>0</v>
+      </c>
+      <c r="G323" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B324" s="7">
+        <v>3</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D324" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E324" s="7">
+        <v>2</v>
+      </c>
+      <c r="F324" s="8">
+        <v>2</v>
+      </c>
+      <c r="G324" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B325" s="7">
+        <v>1</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D325" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E325" s="7">
+        <v>0</v>
+      </c>
+      <c r="F325" s="8">
+        <v>1</v>
+      </c>
+      <c r="G325" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B326" s="7">
+        <v>1</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D326" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E326" s="7">
+        <v>2</v>
+      </c>
+      <c r="F326" s="8">
+        <v>0</v>
+      </c>
+      <c r="G326" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B327" s="7">
+        <v>3</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E327" s="7">
+        <v>0</v>
+      </c>
+      <c r="F327" s="8">
+        <v>0</v>
+      </c>
+      <c r="G327" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B328" s="7">
+        <v>3</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E328" s="7">
+        <v>0</v>
+      </c>
+      <c r="F328" s="8">
+        <v>0</v>
+      </c>
+      <c r="G328" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B329" s="7">
+        <v>3</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E329" s="7">
+        <v>1</v>
+      </c>
+      <c r="F329" s="8">
+        <v>0</v>
+      </c>
+      <c r="G329" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B330" s="7">
+        <v>3</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E330" s="7">
+        <v>0</v>
+      </c>
+      <c r="F330" s="8">
+        <v>0</v>
+      </c>
+      <c r="G330" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B331" s="7">
+        <v>1</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D331" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E331" s="7">
+        <v>0</v>
+      </c>
+      <c r="F331" s="8">
+        <v>1</v>
+      </c>
+      <c r="G331" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B332" s="7">
+        <v>1</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D332" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сониксоннов Сергей</v>
+      </c>
+      <c r="E332" s="7">
+        <v>0</v>
+      </c>
+      <c r="F332" s="8">
+        <v>0</v>
+      </c>
+      <c r="G332" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B333" s="7">
+        <v>1</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Максим Строцкий</v>
+      </c>
+      <c r="E333" s="7">
+        <v>0</v>
+      </c>
+      <c r="F333" s="8">
+        <v>0</v>
+      </c>
+      <c r="G333" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B334" s="7">
+        <v>1</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D334" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (сын Славы)</v>
+      </c>
+      <c r="E334" s="7">
+        <v>1</v>
+      </c>
+      <c r="F334" s="8">
+        <v>0</v>
+      </c>
+      <c r="G334" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B335" s="7">
+        <v>2</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E335" s="7">
+        <v>0</v>
+      </c>
+      <c r="F335" s="8">
+        <v>1</v>
+      </c>
+      <c r="G335" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B336" s="7">
+        <v>2</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D336" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша (АК+1)</v>
+      </c>
+      <c r="E336" s="7">
+        <v>3</v>
+      </c>
+      <c r="F336" s="8">
+        <v>1</v>
+      </c>
+      <c r="G336" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>45872</v>
+      </c>
+      <c r="B337" s="7">
+        <v>2</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D337" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E337" s="7">
+        <v>0</v>
+      </c>
+      <c r="F337" s="8">
+        <v>1</v>
+      </c>
+      <c r="G337" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C315" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C337" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -11219,10 +11850,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11760,9 +12391,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>45872</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>45872</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>45872</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B48" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC88E6-7D9F-4DE3-93DB-FF977CA47187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CE781-A0B1-4849-8518-FC5207AB1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="0" windowWidth="14100" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12810" yWindow="0" windowWidth="15885" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="95">
   <si>
     <t>player_id</t>
   </si>
@@ -332,6 +332,12 @@
   <si>
     <t>Паша (АК+1)</t>
   </si>
+  <si>
+    <t>Мишка</t>
+  </si>
+  <si>
+    <t>Жора</t>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,6 +629,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -702,6 +711,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -719,13 +735,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1071,8 +1080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F82" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F84" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F84" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1097,8 +1106,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G337" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G337" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G356" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G356" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1120,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C51" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C54" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1397,10 +1406,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:B82"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,15 +1480,15 @@
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1491,7 +1500,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1499,11 +1508,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,7 +1524,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1523,11 +1532,11 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1547,11 +1556,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1595,11 +1604,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,19 +1668,19 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1755,19 +1764,19 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1827,19 +1836,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,15 +1888,15 @@
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1955,11 +1964,11 @@
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2051,11 +2060,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2099,11 +2108,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2259,7 +2268,7 @@
       </c>
       <c r="C36" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2267,11 +2276,11 @@
       </c>
       <c r="E36" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F36" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2339,11 +2348,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2523,19 +2532,19 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,19 +2748,19 @@
       </c>
       <c r="C56" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,7 +3300,7 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,6 +3385,54 @@
       <c r="F82" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F83" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F84" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3391,10 +3448,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="D348" sqref="D348"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11830,10 +11887,485 @@
         <v>6</v>
       </c>
     </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B338" s="7">
+        <v>3</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D338" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E338" s="7">
+        <v>0</v>
+      </c>
+      <c r="F338" s="8">
+        <v>0</v>
+      </c>
+      <c r="G338" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B339" s="7">
+        <v>2</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D339" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Мишка</v>
+      </c>
+      <c r="E339" s="7">
+        <v>0</v>
+      </c>
+      <c r="F339" s="8">
+        <v>0</v>
+      </c>
+      <c r="G339" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B340" s="7">
+        <v>2</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D340" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E340" s="7">
+        <v>1</v>
+      </c>
+      <c r="F340" s="8">
+        <v>0</v>
+      </c>
+      <c r="G340" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B341" s="7">
+        <v>1</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D341" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Василий Улитин</v>
+      </c>
+      <c r="E341" s="7">
+        <v>2</v>
+      </c>
+      <c r="F341" s="8">
+        <v>0</v>
+      </c>
+      <c r="G341" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B342" s="7">
+        <v>2</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D342" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E342" s="7">
+        <v>1</v>
+      </c>
+      <c r="F342" s="8">
+        <v>0</v>
+      </c>
+      <c r="G342" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B343" s="7">
+        <v>3</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E343" s="7">
+        <v>1</v>
+      </c>
+      <c r="F343" s="8">
+        <v>1</v>
+      </c>
+      <c r="G343" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B344" s="7">
+        <v>3</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D344" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E344" s="7">
+        <v>0</v>
+      </c>
+      <c r="F344" s="8">
+        <v>0</v>
+      </c>
+      <c r="G344" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B345" s="7">
+        <v>3</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D345" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E345" s="7">
+        <v>1</v>
+      </c>
+      <c r="F345" s="8">
+        <v>0</v>
+      </c>
+      <c r="G345" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B346" s="7">
+        <v>1</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D346" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E346" s="7">
+        <v>3</v>
+      </c>
+      <c r="F346" s="8">
+        <v>1</v>
+      </c>
+      <c r="G346" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B347" s="7">
+        <v>1</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D347" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E347" s="7">
+        <v>0</v>
+      </c>
+      <c r="F347" s="8">
+        <v>1</v>
+      </c>
+      <c r="G347" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B348" s="7">
+        <v>2</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D348" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E348" s="7">
+        <v>5</v>
+      </c>
+      <c r="F348" s="8">
+        <v>0</v>
+      </c>
+      <c r="G348" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B349" s="7">
+        <v>2</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D349" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E349" s="7">
+        <v>1</v>
+      </c>
+      <c r="F349" s="8">
+        <v>1</v>
+      </c>
+      <c r="G349" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B350" s="7">
+        <v>2</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D350" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E350" s="7">
+        <v>1</v>
+      </c>
+      <c r="F350" s="8">
+        <v>7</v>
+      </c>
+      <c r="G350" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B351" s="7">
+        <v>1</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E351" s="7">
+        <v>0</v>
+      </c>
+      <c r="F351" s="8">
+        <v>0</v>
+      </c>
+      <c r="G351" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B352" s="7">
+        <v>1</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D352" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E352" s="7">
+        <v>2</v>
+      </c>
+      <c r="F352" s="8">
+        <v>2</v>
+      </c>
+      <c r="G352" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B353" s="7">
+        <v>3</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E353" s="7">
+        <v>0</v>
+      </c>
+      <c r="F353" s="8">
+        <v>0</v>
+      </c>
+      <c r="G353" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B354" s="7">
+        <v>1</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E354" s="7">
+        <v>0</v>
+      </c>
+      <c r="F354" s="8">
+        <v>0</v>
+      </c>
+      <c r="G354" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B355" s="7">
+        <v>3</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D355" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E355" s="7">
+        <v>0</v>
+      </c>
+      <c r="F355" s="8">
+        <v>1</v>
+      </c>
+      <c r="G355" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="6">
+        <v>45876</v>
+      </c>
+      <c r="B356" s="7">
+        <v>2</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D356" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Жора</v>
+      </c>
+      <c r="E356" s="7">
+        <v>1</v>
+      </c>
+      <c r="F356" s="8">
+        <v>0</v>
+      </c>
+      <c r="G356" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C337" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C356" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -11850,10 +12382,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12424,9 +12956,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>45876</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>45876</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>45876</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B54" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CE781-A0B1-4849-8518-FC5207AB1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF0BB1-69DA-4DA1-9F10-7335737BCC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="0" windowWidth="15885" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -711,13 +711,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -735,6 +728,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1129,7 +1129,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C54" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12252,7 +12252,7 @@
         <v>Андрей Бутусов</v>
       </c>
       <c r="E352" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F352" s="8">
         <v>2</v>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF0BB1-69DA-4DA1-9F10-7335737BCC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42AFC4-9A2F-4014-B02A-56BBBC113387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="15015" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="95">
   <si>
     <t>player_id</t>
   </si>
@@ -1106,8 +1106,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G356" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G356" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G374" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G374" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1129,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C54" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C57" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1500,19 +1500,19 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1524,19 +1524,19 @@
       </c>
       <c r="C5" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1604,11 +1604,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,19 +1668,19 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,19 +1740,19 @@
       </c>
       <c r="C14" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1764,19 +1764,19 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1836,19 +1836,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,19 +1884,19 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1940,11 +1940,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1964,11 +1964,11 @@
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2060,11 +2060,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,15 +2152,15 @@
       </c>
       <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2464,15 +2464,15 @@
       </c>
       <c r="D44" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2532,19 +2532,19 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C83" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3404,11 +3404,11 @@
       </c>
       <c r="E83" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F83" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3448,10 +3448,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="A375" sqref="A375:XFD377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12362,10 +12362,460 @@
         <v>6</v>
       </c>
     </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B357" s="7">
+        <v>1</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D357" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E357" s="7">
+        <v>0</v>
+      </c>
+      <c r="F357" s="8">
+        <v>0</v>
+      </c>
+      <c r="G357" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B358" s="7">
+        <v>1</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E358" s="7">
+        <v>1</v>
+      </c>
+      <c r="F358" s="8">
+        <v>0</v>
+      </c>
+      <c r="G358" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B359" s="7">
+        <v>1</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D359" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E359" s="7">
+        <v>3</v>
+      </c>
+      <c r="F359" s="8">
+        <v>3</v>
+      </c>
+      <c r="G359" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B360" s="7">
+        <v>1</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E360" s="7">
+        <v>0</v>
+      </c>
+      <c r="F360" s="8">
+        <v>1</v>
+      </c>
+      <c r="G360" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B361" s="7">
+        <v>1</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D361" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E361" s="7">
+        <v>5</v>
+      </c>
+      <c r="F361" s="8">
+        <v>2</v>
+      </c>
+      <c r="G361" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B362" s="7">
+        <v>1</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E362" s="7">
+        <v>1</v>
+      </c>
+      <c r="F362" s="8">
+        <v>3</v>
+      </c>
+      <c r="G362" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B363" s="7">
+        <v>2</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D363" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E363" s="7">
+        <v>1</v>
+      </c>
+      <c r="F363" s="8">
+        <v>1</v>
+      </c>
+      <c r="G363" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B364" s="7">
+        <v>2</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D364" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E364" s="7">
+        <v>4</v>
+      </c>
+      <c r="F364" s="8">
+        <v>0</v>
+      </c>
+      <c r="G364" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B365" s="7">
+        <v>2</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E365" s="7">
+        <v>0</v>
+      </c>
+      <c r="F365" s="8">
+        <v>0</v>
+      </c>
+      <c r="G365" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B366" s="7">
+        <v>2</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D366" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E366" s="7">
+        <v>0</v>
+      </c>
+      <c r="F366" s="8">
+        <v>4</v>
+      </c>
+      <c r="G366" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B367" s="7">
+        <v>3</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D367" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E367" s="7">
+        <v>3</v>
+      </c>
+      <c r="F367" s="8">
+        <v>4</v>
+      </c>
+      <c r="G367" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B368" s="7">
+        <v>3</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E368" s="7">
+        <v>1</v>
+      </c>
+      <c r="F368" s="8">
+        <v>1</v>
+      </c>
+      <c r="G368" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B369" s="7">
+        <v>3</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D369" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E369" s="7">
+        <v>2</v>
+      </c>
+      <c r="F369" s="8">
+        <v>2</v>
+      </c>
+      <c r="G369" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B370" s="7">
+        <v>3</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E370" s="7">
+        <v>0</v>
+      </c>
+      <c r="F370" s="8">
+        <v>0</v>
+      </c>
+      <c r="G370" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B371" s="7">
+        <v>3</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D371" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Мишка</v>
+      </c>
+      <c r="E371" s="7">
+        <v>4</v>
+      </c>
+      <c r="F371" s="8">
+        <v>0</v>
+      </c>
+      <c r="G371" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B372" s="7">
+        <v>3</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D372" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E372" s="7">
+        <v>4</v>
+      </c>
+      <c r="F372" s="8">
+        <v>3</v>
+      </c>
+      <c r="G372" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B373" s="7">
+        <v>2</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D373" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E373" s="7">
+        <v>0</v>
+      </c>
+      <c r="F373" s="8">
+        <v>0</v>
+      </c>
+      <c r="G373" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B374" s="7">
+        <v>2</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E374" s="7">
+        <v>0</v>
+      </c>
+      <c r="F374" s="8">
+        <v>0</v>
+      </c>
+      <c r="G374" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C356" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C374" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -12382,10 +12832,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12989,9 +13439,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>45883</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>45883</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>45883</v>
+      </c>
+      <c r="B57" s="7">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B54" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B57" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42AFC4-9A2F-4014-B02A-56BBBC113387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D005EE-0897-45E3-A1EB-5F36CF0EA291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="15015" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12735" yWindow="285" windowWidth="15990" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="97">
   <si>
     <t>player_id</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>Жора</t>
+  </si>
+  <si>
+    <t>Лев (Даниил+1)</t>
+  </si>
+  <si>
+    <t>Антон Тишкин</t>
   </si>
 </sst>
 </file>
@@ -711,6 +717,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -728,13 +741,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1080,8 +1086,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F84" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F84" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F86" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F86" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1106,8 +1112,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G374" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G374" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G401" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G401" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1129,8 +1135,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C57" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C61" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C61" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1406,10 +1412,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1484,11 +1490,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1504,15 +1510,15 @@
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1556,11 +1562,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1572,19 +1578,19 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1600,15 +1606,15 @@
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,7 +1698,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1700,11 +1706,11 @@
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1716,19 +1722,19 @@
       </c>
       <c r="C13" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1748,11 +1754,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1908,7 +1914,7 @@
       </c>
       <c r="C21" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1916,11 +1922,11 @@
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1940,11 +1946,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2056,15 +2062,15 @@
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2156,11 +2162,11 @@
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2252,11 +2258,11 @@
       </c>
       <c r="E35" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2292,7 +2298,7 @@
       </c>
       <c r="C37" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2316,19 +2322,19 @@
       </c>
       <c r="C38" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2348,11 +2354,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2416,15 +2422,15 @@
       </c>
       <c r="D42" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2440,15 +2446,15 @@
       </c>
       <c r="D43" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2488,15 +2494,15 @@
       </c>
       <c r="D45" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2612,11 +2618,11 @@
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2748,19 +2754,19 @@
       </c>
       <c r="C56" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,11 +2834,11 @@
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,19 +2994,19 @@
       </c>
       <c r="C66" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F66" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,19 +3042,19 @@
       </c>
       <c r="C68" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3300,7 +3306,7 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3308,11 +3314,11 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3433,6 +3439,54 @@
       <c r="F84" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="E85" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F85" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="D86" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F86" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3448,10 +3502,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G374"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="A375" sqref="A375:XFD377"/>
+    <sheetView topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12812,10 +12866,685 @@
         <v>2</v>
       </c>
     </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B375" s="7">
+        <v>3</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E375" s="7">
+        <v>0</v>
+      </c>
+      <c r="F375" s="8">
+        <v>0</v>
+      </c>
+      <c r="G375" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B376" s="7">
+        <v>4</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D376" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E376" s="7">
+        <v>0</v>
+      </c>
+      <c r="F376" s="8">
+        <v>0</v>
+      </c>
+      <c r="G376" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B377" s="7">
+        <v>2</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D377" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E377" s="7">
+        <v>2</v>
+      </c>
+      <c r="F377" s="8">
+        <v>2</v>
+      </c>
+      <c r="G377" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B378" s="7">
+        <v>2</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E378" s="7">
+        <v>0</v>
+      </c>
+      <c r="F378" s="8">
+        <v>1</v>
+      </c>
+      <c r="G378" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B379" s="7">
+        <v>2</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D379" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Слава</v>
+      </c>
+      <c r="E379" s="7">
+        <v>2</v>
+      </c>
+      <c r="F379" s="8">
+        <v>2</v>
+      </c>
+      <c r="G379" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B380" s="7">
+        <v>1</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E380" s="7">
+        <v>2</v>
+      </c>
+      <c r="F380" s="8">
+        <v>1</v>
+      </c>
+      <c r="G380" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B381" s="7">
+        <v>2</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D381" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E381" s="7">
+        <v>1</v>
+      </c>
+      <c r="F381" s="8">
+        <v>0</v>
+      </c>
+      <c r="G381" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B382" s="7">
+        <v>2</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D382" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E382" s="7">
+        <v>1</v>
+      </c>
+      <c r="F382" s="8">
+        <v>0</v>
+      </c>
+      <c r="G382" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B383" s="7">
+        <v>4</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D383" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E383" s="7">
+        <v>1</v>
+      </c>
+      <c r="F383" s="8">
+        <v>0</v>
+      </c>
+      <c r="G383" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B384" s="7">
+        <v>4</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E384" s="7">
+        <v>0</v>
+      </c>
+      <c r="F384" s="8">
+        <v>0</v>
+      </c>
+      <c r="G384" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B385" s="7">
+        <v>4</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E385" s="7">
+        <v>0</v>
+      </c>
+      <c r="F385" s="8">
+        <v>1</v>
+      </c>
+      <c r="G385" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B386" s="7">
+        <v>4</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D386" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E386" s="7">
+        <v>2</v>
+      </c>
+      <c r="F386" s="8">
+        <v>0</v>
+      </c>
+      <c r="G386" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B387" s="7">
+        <v>3</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D387" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима Сахаров</v>
+      </c>
+      <c r="E387" s="7">
+        <v>0</v>
+      </c>
+      <c r="F387" s="8">
+        <v>1</v>
+      </c>
+      <c r="G387" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B388" s="7">
+        <v>3</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D388" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E388" s="7">
+        <v>0</v>
+      </c>
+      <c r="F388" s="8">
+        <v>0</v>
+      </c>
+      <c r="G388" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B389" s="7">
+        <v>4</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E389" s="7">
+        <v>0</v>
+      </c>
+      <c r="F389" s="8">
+        <v>0</v>
+      </c>
+      <c r="G389" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B390" s="7">
+        <v>3</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D390" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E390" s="7">
+        <v>0</v>
+      </c>
+      <c r="F390" s="8">
+        <v>2</v>
+      </c>
+      <c r="G390" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B391" s="7">
+        <v>3</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D391" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Макс (Миша +1)</v>
+      </c>
+      <c r="E391" s="7">
+        <v>2</v>
+      </c>
+      <c r="F391" s="8">
+        <v>2</v>
+      </c>
+      <c r="G391" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B392" s="7">
+        <v>2</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D392" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Лев (Даниил+1)</v>
+      </c>
+      <c r="E392" s="7">
+        <v>0</v>
+      </c>
+      <c r="F392" s="8">
+        <v>2</v>
+      </c>
+      <c r="G392" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B393" s="7">
+        <v>1</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D393" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эд (Сэм)</v>
+      </c>
+      <c r="E393" s="7">
+        <v>0</v>
+      </c>
+      <c r="F393" s="8">
+        <v>1</v>
+      </c>
+      <c r="G393" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B394" s="7">
+        <v>1</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D394" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E394" s="7">
+        <v>1</v>
+      </c>
+      <c r="F394" s="8">
+        <v>0</v>
+      </c>
+      <c r="G394" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B395" s="7">
+        <v>1</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D395" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (АК+1)</v>
+      </c>
+      <c r="E395" s="7">
+        <v>0</v>
+      </c>
+      <c r="F395" s="8">
+        <v>1</v>
+      </c>
+      <c r="G395" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B396" s="7">
+        <v>1</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D396" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Егор (АК+1)</v>
+      </c>
+      <c r="E396" s="7">
+        <v>1</v>
+      </c>
+      <c r="F396" s="8">
+        <v>1</v>
+      </c>
+      <c r="G396" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B397" s="7">
+        <v>1</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D397" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл (АК+1)</v>
+      </c>
+      <c r="E397" s="7">
+        <v>0</v>
+      </c>
+      <c r="F397" s="8">
+        <v>0</v>
+      </c>
+      <c r="G397" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B398" s="7">
+        <v>1</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D398" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (АК+1)</v>
+      </c>
+      <c r="E398" s="7">
+        <v>0</v>
+      </c>
+      <c r="F398" s="8">
+        <v>0</v>
+      </c>
+      <c r="G398" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B399" s="7">
+        <v>2</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D399" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эльдар</v>
+      </c>
+      <c r="E399" s="7">
+        <v>0</v>
+      </c>
+      <c r="F399" s="8">
+        <v>0</v>
+      </c>
+      <c r="G399" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B400" s="7">
+        <v>3</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D400" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Тишкин</v>
+      </c>
+      <c r="E400" s="7">
+        <v>6</v>
+      </c>
+      <c r="F400" s="8">
+        <v>0</v>
+      </c>
+      <c r="G400" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B401" s="7">
+        <v>3</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D401" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E401" s="7">
+        <v>1</v>
+      </c>
+      <c r="F401" s="8">
+        <v>3</v>
+      </c>
+      <c r="G401" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C374" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C401" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -12832,10 +13561,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13472,9 +14201,53 @@
         <v>8</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>45886</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>45886</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>45886</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>45886</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B57" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D005EE-0897-45E3-A1EB-5F36CF0EA291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1DC433-E6B9-416A-9050-A46547614678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="285" windowWidth="15990" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="0" windowWidth="12030" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -717,13 +717,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -741,6 +734,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C61" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C61" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C61" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C56" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F56" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
   <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="E383" sqref="E383"/>
+      <selection activeCell="F387" sqref="F387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12981,7 +12981,7 @@
         <v>Слава</v>
       </c>
       <c r="E379" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F379" s="8">
         <v>2</v>
@@ -13564,7 +13564,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1DC433-E6B9-416A-9050-A46547614678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F507C8A-455F-468D-8CE4-2271953B2FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="0" windowWidth="12030" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="14355" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="98">
   <si>
     <t>player_id</t>
   </si>
@@ -343,6 +346,9 @@
   </si>
   <si>
     <t>Антон Тишкин</t>
+  </si>
+  <si>
+    <t>Энтони Тепеев</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1092,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F86" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F86" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F87" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F87" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1112,8 +1118,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G401" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G401" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G420" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G420" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1135,8 +1141,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C61" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C61" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C64" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1412,10 +1418,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,19 +1464,19 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1486,15 +1492,15 @@
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1506,7 +1512,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1554,7 +1560,7 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1562,11 +1568,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1610,11 +1616,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,15 +1684,15 @@
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1754,11 +1760,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1770,19 +1776,19 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1842,7 +1848,7 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1850,11 +1856,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,15 +1900,15 @@
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1946,11 +1952,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2010,7 +2016,7 @@
       </c>
       <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2018,11 +2024,11 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2042,11 +2048,11 @@
       </c>
       <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2066,11 +2072,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2154,7 +2160,7 @@
       </c>
       <c r="C31" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2162,11 +2168,11 @@
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2418,19 +2424,19 @@
       </c>
       <c r="C42" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2470,15 +2476,15 @@
       </c>
       <c r="D44" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F44" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2538,19 +2544,19 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,6 +3493,30 @@
       <c r="F86" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
         <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D87" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="F87" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3502,10 +3532,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="F387" sqref="F387"/>
+    <sheetView topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13541,10 +13571,485 @@
         <v>5</v>
       </c>
     </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B402" s="7">
+        <v>1</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D402" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E402" s="7">
+        <v>0</v>
+      </c>
+      <c r="F402" s="8">
+        <v>1</v>
+      </c>
+      <c r="G402" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B403" s="7">
+        <v>1</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E403" s="7">
+        <v>1</v>
+      </c>
+      <c r="F403" s="8">
+        <v>0</v>
+      </c>
+      <c r="G403" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B404" s="7">
+        <v>1</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D404" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E404" s="7">
+        <v>1</v>
+      </c>
+      <c r="F404" s="8">
+        <v>0</v>
+      </c>
+      <c r="G404" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B405" s="7">
+        <v>1</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E405" s="7">
+        <v>0</v>
+      </c>
+      <c r="F405" s="8">
+        <v>0</v>
+      </c>
+      <c r="G405" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B406" s="7">
+        <v>1</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E406" s="7">
+        <v>0</v>
+      </c>
+      <c r="F406" s="8">
+        <v>1</v>
+      </c>
+      <c r="G406" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B407" s="7">
+        <v>1</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D407" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E407" s="7">
+        <v>1</v>
+      </c>
+      <c r="F407" s="8">
+        <v>0</v>
+      </c>
+      <c r="G407" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B408" s="7">
+        <v>2</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D408" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E408" s="7">
+        <v>2</v>
+      </c>
+      <c r="F408" s="8">
+        <v>1</v>
+      </c>
+      <c r="G408" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B409" s="7">
+        <v>2</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D409" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E409" s="7">
+        <v>2</v>
+      </c>
+      <c r="F409" s="8">
+        <v>4</v>
+      </c>
+      <c r="G409" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B410" s="7">
+        <v>2</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D410" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E410" s="7">
+        <v>0</v>
+      </c>
+      <c r="F410" s="8">
+        <v>0</v>
+      </c>
+      <c r="G410" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B411" s="7">
+        <v>2</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D411" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E411" s="7">
+        <v>0</v>
+      </c>
+      <c r="F411" s="8">
+        <v>0</v>
+      </c>
+      <c r="G411" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B412" s="7">
+        <v>2</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D412" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E412" s="7">
+        <v>0</v>
+      </c>
+      <c r="F412" s="8">
+        <v>0</v>
+      </c>
+      <c r="G412" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B413" s="7">
+        <v>3</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D413" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E413" s="7">
+        <v>4</v>
+      </c>
+      <c r="F413" s="8">
+        <v>1</v>
+      </c>
+      <c r="G413" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B414" s="7">
+        <v>3</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E414" s="7">
+        <v>0</v>
+      </c>
+      <c r="F414" s="8">
+        <v>6</v>
+      </c>
+      <c r="G414" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B415" s="7">
+        <v>3</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D415" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима Сахаров</v>
+      </c>
+      <c r="E415" s="7">
+        <v>1</v>
+      </c>
+      <c r="F415" s="8">
+        <v>2</v>
+      </c>
+      <c r="G415" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B416" s="7">
+        <v>3</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D416" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E416" s="7">
+        <v>3</v>
+      </c>
+      <c r="F416" s="8">
+        <v>0</v>
+      </c>
+      <c r="G416" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B417" s="7">
+        <v>3</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D417" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E417" s="7">
+        <v>1</v>
+      </c>
+      <c r="F417" s="8">
+        <v>0</v>
+      </c>
+      <c r="G417" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B418" s="7">
+        <v>3</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E418" s="7">
+        <v>0</v>
+      </c>
+      <c r="F418" s="8">
+        <v>0</v>
+      </c>
+      <c r="G418" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B419" s="7">
+        <v>2</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D419" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E419" s="7">
+        <v>0</v>
+      </c>
+      <c r="F419" s="8">
+        <v>1</v>
+      </c>
+      <c r="G419" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B420" s="7">
+        <v>2</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D420" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Энтони Тепеев</v>
+      </c>
+      <c r="E420" s="7">
+        <v>2</v>
+      </c>
+      <c r="F420" s="8">
+        <v>0</v>
+      </c>
+      <c r="G420" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C401" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C420" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -13561,10 +14066,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,9 +14750,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>45890</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>45890</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>45890</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F507C8A-455F-468D-8CE4-2271953B2FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A432B-0693-4D60-9B9E-7C1776B11E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="14355" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="150" windowWidth="14205" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="98">
   <si>
     <t>player_id</t>
   </si>
@@ -1118,8 +1118,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G420" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G420" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G439" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G439" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1141,8 +1141,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C64" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C66" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C66" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1420,7 +1420,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1584,19 +1584,19 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1616,11 +1616,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,19 +1704,19 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C14" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1800,19 +1800,19 @@
       </c>
       <c r="C16" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1968,19 +1968,19 @@
       </c>
       <c r="C23" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2064,19 +2064,19 @@
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C30" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="E30" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,15 +2260,15 @@
       </c>
       <c r="D35" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F35" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2312,11 +2312,11 @@
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2328,19 +2328,19 @@
       </c>
       <c r="C38" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2360,11 +2360,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2400,19 +2400,19 @@
       </c>
       <c r="C41" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,15 +2476,15 @@
       </c>
       <c r="D44" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F44" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C45" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="E48" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F48" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3344,11 +3344,11 @@
       </c>
       <c r="E80" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F80" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,10 +3532,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="D423" sqref="D423"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="E427" sqref="E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14046,10 +14046,485 @@
         <v>3</v>
       </c>
     </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B421" s="7">
+        <v>2</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E421" s="7">
+        <v>0</v>
+      </c>
+      <c r="F421" s="8">
+        <v>0</v>
+      </c>
+      <c r="G421" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B422" s="7">
+        <v>1</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D422" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E422" s="7">
+        <v>6</v>
+      </c>
+      <c r="F422" s="8">
+        <v>2</v>
+      </c>
+      <c r="G422" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B423" s="7">
+        <v>2</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D423" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E423" s="7">
+        <v>1</v>
+      </c>
+      <c r="F423" s="8">
+        <v>2</v>
+      </c>
+      <c r="G423" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B424" s="7">
+        <v>2</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D424" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E424" s="7">
+        <v>1</v>
+      </c>
+      <c r="F424" s="8">
+        <v>3</v>
+      </c>
+      <c r="G424" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B425" s="7">
+        <v>2</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D425" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сониксоннов Сергей</v>
+      </c>
+      <c r="E425" s="7">
+        <v>0</v>
+      </c>
+      <c r="F425" s="8">
+        <v>0</v>
+      </c>
+      <c r="G425" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B426" s="7">
+        <v>1</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D426" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E426" s="7">
+        <v>1</v>
+      </c>
+      <c r="F426" s="8">
+        <v>0</v>
+      </c>
+      <c r="G426" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B427" s="7">
+        <v>1</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D427" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E427" s="7">
+        <v>3</v>
+      </c>
+      <c r="F427" s="8">
+        <v>2</v>
+      </c>
+      <c r="G427" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B428" s="7">
+        <v>1</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D428" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E428" s="7">
+        <v>0</v>
+      </c>
+      <c r="F428" s="8">
+        <v>0</v>
+      </c>
+      <c r="G428" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B429" s="7">
+        <v>1</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D429" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E429" s="7">
+        <v>2</v>
+      </c>
+      <c r="F429" s="8">
+        <v>2</v>
+      </c>
+      <c r="G429" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B430" s="7">
+        <v>1</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Максим Строцкий</v>
+      </c>
+      <c r="E430" s="7">
+        <v>2</v>
+      </c>
+      <c r="F430" s="8">
+        <v>3</v>
+      </c>
+      <c r="G430" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B431" s="7">
+        <v>1</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D431" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (сын Вити)</v>
+      </c>
+      <c r="E431" s="7">
+        <v>0</v>
+      </c>
+      <c r="F431" s="8">
+        <v>0</v>
+      </c>
+      <c r="G431" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B432" s="7">
+        <v>2</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D432" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E432" s="7">
+        <v>3</v>
+      </c>
+      <c r="F432" s="8">
+        <v>1</v>
+      </c>
+      <c r="G432" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B433" s="7">
+        <v>1</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D433" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E433" s="7">
+        <v>2</v>
+      </c>
+      <c r="F433" s="8">
+        <v>2</v>
+      </c>
+      <c r="G433" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B434" s="7">
+        <v>2</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D434" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эд (Сэм)</v>
+      </c>
+      <c r="E434" s="7">
+        <v>1</v>
+      </c>
+      <c r="F434" s="8">
+        <v>0</v>
+      </c>
+      <c r="G434" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B435" s="7">
+        <v>2</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D435" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E435" s="7">
+        <v>0</v>
+      </c>
+      <c r="F435" s="8">
+        <v>0</v>
+      </c>
+      <c r="G435" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B436" s="7">
+        <v>1</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анатолий</v>
+      </c>
+      <c r="E436" s="7">
+        <v>0</v>
+      </c>
+      <c r="F436" s="8">
+        <v>2</v>
+      </c>
+      <c r="G436" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B437" s="7">
+        <v>2</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D437" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эльдар</v>
+      </c>
+      <c r="E437" s="7">
+        <v>0</v>
+      </c>
+      <c r="F437" s="8">
+        <v>1</v>
+      </c>
+      <c r="G437" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B438" s="7">
+        <v>2</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D438" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E438" s="7">
+        <v>2</v>
+      </c>
+      <c r="F438" s="8">
+        <v>0</v>
+      </c>
+      <c r="G438" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B439" s="7">
+        <v>2</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D439" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E439" s="7">
+        <v>0</v>
+      </c>
+      <c r="F439" s="8">
+        <v>0</v>
+      </c>
+      <c r="G439" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C420" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C439" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -14066,10 +14541,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14783,9 +15258,31 @@
         <v>7</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>45893</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>45893</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B66" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A432B-0693-4D60-9B9E-7C1776B11E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB34ED-E0D5-47A9-B1A9-C5C7AC94865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="150" windowWidth="14205" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14205" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
   <dimension ref="A1:G439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="E427" sqref="E427"/>
+      <selection activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14264,7 +14264,7 @@
         <v>2</v>
       </c>
       <c r="F429" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G429" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB34ED-E0D5-47A9-B1A9-C5C7AC94865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484C306-1FD9-4741-98C3-709D025DD05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14205" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="99">
   <si>
     <t>player_id</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Паша (АК+1)</t>
   </si>
   <si>
-    <t>Мишка</t>
-  </si>
-  <si>
     <t>Жора</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>Энтони Тепеев</t>
+  </si>
+  <si>
+    <t>Миша Орехов</t>
+  </si>
+  <si>
+    <t>Руслан Байшев</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1095,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F87" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:F87" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F88" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:F88" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
@@ -1118,8 +1121,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G439" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G439" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G458" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G458" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1141,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C66" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C66" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C69" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C69" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
@@ -1418,10 +1421,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,19 +1467,19 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1488,19 +1491,19 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1544,11 +1547,11 @@
       </c>
       <c r="E5" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1568,11 +1571,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1612,15 +1615,15 @@
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,7 +1683,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1688,11 +1691,11 @@
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1776,7 +1779,7 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1848,19 +1851,19 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,15 +1903,15 @@
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1952,11 +1955,11 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1972,15 +1975,15 @@
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2072,11 +2075,11 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2140,15 +2143,15 @@
       </c>
       <c r="D30" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,19 +2163,19 @@
       </c>
       <c r="C31" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2280,7 +2283,7 @@
       </c>
       <c r="C36" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2288,11 +2291,11 @@
       </c>
       <c r="E36" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F36" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2544,19 +2547,19 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,34 +3404,34 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C83" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F83" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3449,10 +3452,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3473,10 +3476,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3497,26 +3500,50 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D88" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
         <v>5</v>
+      </c>
+      <c r="F88" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3532,10 +3559,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="G429" sqref="G429"/>
+    <sheetView topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12004,11 +12031,11 @@
         <v>2</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D339" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Мишка</v>
+        <v>Миша Орехов</v>
       </c>
       <c r="E339" s="7">
         <v>0</v>
@@ -12429,7 +12456,7 @@
         <v>2</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D356" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -12804,11 +12831,11 @@
         <v>3</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D371" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Мишка</v>
+        <v>Миша Орехов</v>
       </c>
       <c r="E371" s="7">
         <v>4</v>
@@ -13329,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D392" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -13529,7 +13556,7 @@
         <v>3</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D400" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -14029,7 +14056,7 @@
         <v>2</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D420" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -14521,10 +14548,485 @@
         <v>4</v>
       </c>
     </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B440" s="7">
+        <v>1</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D440" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E440" s="7">
+        <v>1</v>
+      </c>
+      <c r="F440" s="8">
+        <v>0</v>
+      </c>
+      <c r="G440" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B441" s="7">
+        <v>1</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D441" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E441" s="7">
+        <v>2</v>
+      </c>
+      <c r="F441" s="8">
+        <v>2</v>
+      </c>
+      <c r="G441" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B442" s="7">
+        <v>1</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D442" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Руслан Байшев</v>
+      </c>
+      <c r="E442" s="7">
+        <v>1</v>
+      </c>
+      <c r="F442" s="8">
+        <v>0</v>
+      </c>
+      <c r="G442" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B443" s="7">
+        <v>1</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D443" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E443" s="7">
+        <v>1</v>
+      </c>
+      <c r="F443" s="8">
+        <v>1</v>
+      </c>
+      <c r="G443" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B444" s="7">
+        <v>1</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D444" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша Орехов</v>
+      </c>
+      <c r="E444" s="7">
+        <v>2</v>
+      </c>
+      <c r="F444" s="8">
+        <v>2</v>
+      </c>
+      <c r="G444" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B445" s="7">
+        <v>1</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D445" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E445" s="7">
+        <v>1</v>
+      </c>
+      <c r="F445" s="8">
+        <v>1</v>
+      </c>
+      <c r="G445" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B446" s="7">
+        <v>2</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D446" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E446" s="7">
+        <v>3</v>
+      </c>
+      <c r="F446" s="8">
+        <v>1</v>
+      </c>
+      <c r="G446" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B447" s="7">
+        <v>2</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D447" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E447" s="7">
+        <v>2</v>
+      </c>
+      <c r="F447" s="8">
+        <v>0</v>
+      </c>
+      <c r="G447" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B448" s="7">
+        <v>2</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D448" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E448" s="7">
+        <v>0</v>
+      </c>
+      <c r="F448" s="8">
+        <v>0</v>
+      </c>
+      <c r="G448" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B449" s="7">
+        <v>2</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D449" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E449" s="7">
+        <v>0</v>
+      </c>
+      <c r="F449" s="8">
+        <v>2</v>
+      </c>
+      <c r="G449" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B450" s="7">
+        <v>2</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D450" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E450" s="7">
+        <v>0</v>
+      </c>
+      <c r="F450" s="8">
+        <v>0</v>
+      </c>
+      <c r="G450" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B451" s="7">
+        <v>3</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D451" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Энтони Тепеев</v>
+      </c>
+      <c r="E451" s="7">
+        <v>2</v>
+      </c>
+      <c r="F451" s="8">
+        <v>1</v>
+      </c>
+      <c r="G451" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B452" s="7">
+        <v>3</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D452" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Влад</v>
+      </c>
+      <c r="E452" s="7">
+        <v>0</v>
+      </c>
+      <c r="F452" s="8">
+        <v>0</v>
+      </c>
+      <c r="G452" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B453" s="7">
+        <v>3</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E453" s="7">
+        <v>2</v>
+      </c>
+      <c r="F453" s="8">
+        <v>2</v>
+      </c>
+      <c r="G453" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B454" s="7">
+        <v>3</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D454" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E454" s="7">
+        <v>0</v>
+      </c>
+      <c r="F454" s="8">
+        <v>1</v>
+      </c>
+      <c r="G454" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B455" s="7">
+        <v>3</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D455" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Василий Улитин</v>
+      </c>
+      <c r="E455" s="7">
+        <v>1</v>
+      </c>
+      <c r="F455" s="8">
+        <v>0</v>
+      </c>
+      <c r="G455" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B456" s="7">
+        <v>3</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E456" s="7">
+        <v>0</v>
+      </c>
+      <c r="F456" s="8">
+        <v>0</v>
+      </c>
+      <c r="G456" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B457" s="7">
+        <v>2</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D457" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E457" s="7">
+        <v>0</v>
+      </c>
+      <c r="F457" s="8">
+        <v>1</v>
+      </c>
+      <c r="G457" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B458" s="7">
+        <v>1</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D458" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E458" s="7">
+        <v>0</v>
+      </c>
+      <c r="F458" s="8">
+        <v>1</v>
+      </c>
+      <c r="G458" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C439" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C458" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -14541,10 +15043,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15280,9 +15782,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>45897</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>45897</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>45897</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B66" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484C306-1FD9-4741-98C3-709D025DD05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A9B9A0-624C-4D3C-9AB0-B377021CCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="99">
   <si>
     <t>player_id</t>
   </si>
@@ -653,6 +653,153 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -934,153 +1081,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1095,24 +1095,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F88" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F88" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F88" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="3">
       <calculatedColumnFormula>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="2">
       <calculatedColumnFormula>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="1">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="0">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[wins]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1121,21 +1121,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G458" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G458" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G487" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A1:G487" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="21">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="18">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1144,12 +1144,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C69" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C69" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C73" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:C73" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1423,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,19 +1491,19 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1567,15 +1567,15 @@
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,19 +1659,19 @@
       </c>
       <c r="C10" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1803,19 +1803,19 @@
       </c>
       <c r="C16" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2191,15 +2191,15 @@
       </c>
       <c r="D32" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2387,11 +2387,11 @@
       </c>
       <c r="E40" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2411,11 +2411,11 @@
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,19 +2427,19 @@
       </c>
       <c r="C42" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2459,11 +2459,11 @@
       </c>
       <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2627,11 +2627,11 @@
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="D57" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C59" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2843,11 +2843,11 @@
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="E63" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,19 +3051,19 @@
       </c>
       <c r="C68" s="7">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3243,19 +3243,19 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3323,11 +3323,11 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,11 +3515,11 @@
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15023,10 +15023,735 @@
         <v>5</v>
       </c>
     </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B459" s="7">
+        <v>3</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D459" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E459" s="7">
+        <v>0</v>
+      </c>
+      <c r="F459" s="8">
+        <v>1</v>
+      </c>
+      <c r="G459" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B460" s="7">
+        <v>1</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D460" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (АК+1)</v>
+      </c>
+      <c r="E460" s="7">
+        <v>0</v>
+      </c>
+      <c r="F460" s="8">
+        <v>0</v>
+      </c>
+      <c r="G460" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B461" s="7">
+        <v>3</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D461" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима Сахаров</v>
+      </c>
+      <c r="E461" s="7">
+        <v>1</v>
+      </c>
+      <c r="F461" s="8">
+        <v>1</v>
+      </c>
+      <c r="G461" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B462" s="7">
+        <v>4</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D462" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ибрагим (Нурик +1)</v>
+      </c>
+      <c r="E462" s="7">
+        <v>0</v>
+      </c>
+      <c r="F462" s="8">
+        <v>0</v>
+      </c>
+      <c r="G462" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B463" s="7">
+        <v>4</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D463" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E463" s="7">
+        <v>0</v>
+      </c>
+      <c r="F463" s="8">
+        <v>1</v>
+      </c>
+      <c r="G463" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B464" s="7">
+        <v>3</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D464" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E464" s="7">
+        <v>0</v>
+      </c>
+      <c r="F464" s="8">
+        <v>0</v>
+      </c>
+      <c r="G464" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B465" s="7">
+        <v>2</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D465" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E465" s="7">
+        <v>2</v>
+      </c>
+      <c r="F465" s="8">
+        <v>0</v>
+      </c>
+      <c r="G465" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B466" s="7">
+        <v>2</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D466" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E466" s="7">
+        <v>1</v>
+      </c>
+      <c r="F466" s="8">
+        <v>0</v>
+      </c>
+      <c r="G466" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B467" s="7">
+        <v>3</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D467" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E467" s="7">
+        <v>2</v>
+      </c>
+      <c r="F467" s="8">
+        <v>0</v>
+      </c>
+      <c r="G467" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B468" s="7">
+        <v>3</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D468" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E468" s="7">
+        <v>1</v>
+      </c>
+      <c r="F468" s="8">
+        <v>1</v>
+      </c>
+      <c r="G468" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B469" s="7">
+        <v>4</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D469" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E469" s="7">
+        <v>1</v>
+      </c>
+      <c r="F469" s="8">
+        <v>1</v>
+      </c>
+      <c r="G469" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B470" s="7">
+        <v>2</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D470" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E470" s="7">
+        <v>0</v>
+      </c>
+      <c r="F470" s="8">
+        <v>0</v>
+      </c>
+      <c r="G470" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B471" s="7">
+        <v>4</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D471" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E471" s="7">
+        <v>2</v>
+      </c>
+      <c r="F471" s="8">
+        <v>0</v>
+      </c>
+      <c r="G471" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B472" s="7">
+        <v>3</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D472" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Максим Строцкий</v>
+      </c>
+      <c r="E472" s="7">
+        <v>5</v>
+      </c>
+      <c r="F472" s="8">
+        <v>1</v>
+      </c>
+      <c r="G472" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B473" s="7">
+        <v>4</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D473" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E473" s="7">
+        <v>0</v>
+      </c>
+      <c r="F473" s="8">
+        <v>0</v>
+      </c>
+      <c r="G473" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B474" s="7">
+        <v>3</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D474" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E474" s="7">
+        <v>0</v>
+      </c>
+      <c r="F474" s="8">
+        <v>0</v>
+      </c>
+      <c r="G474" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B475" s="7">
+        <v>4</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D475" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E475" s="7">
+        <v>0</v>
+      </c>
+      <c r="F475" s="8">
+        <v>0</v>
+      </c>
+      <c r="G475" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B476" s="7">
+        <v>2</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D476" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (Нур+1)</v>
+      </c>
+      <c r="E476" s="7">
+        <v>0</v>
+      </c>
+      <c r="F476" s="8">
+        <v>1</v>
+      </c>
+      <c r="G476" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B477" s="7">
+        <v>1</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D477" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Егор (АК+1)</v>
+      </c>
+      <c r="E477" s="7">
+        <v>1</v>
+      </c>
+      <c r="F477" s="8">
+        <v>1</v>
+      </c>
+      <c r="G477" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B478" s="7">
+        <v>1</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D478" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл (АК+1)</v>
+      </c>
+      <c r="E478" s="7">
+        <v>0</v>
+      </c>
+      <c r="F478" s="8">
+        <v>0</v>
+      </c>
+      <c r="G478" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B479" s="7">
+        <v>1</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D479" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (АК+1)</v>
+      </c>
+      <c r="E479" s="7">
+        <v>0</v>
+      </c>
+      <c r="F479" s="8">
+        <v>0</v>
+      </c>
+      <c r="G479" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B480" s="7">
+        <v>1</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D480" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (АК+1)</v>
+      </c>
+      <c r="E480" s="7">
+        <v>2</v>
+      </c>
+      <c r="F480" s="8">
+        <v>0</v>
+      </c>
+      <c r="G480" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B481" s="7">
+        <v>2</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D481" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Энтони Тепеев</v>
+      </c>
+      <c r="E481" s="7">
+        <v>0</v>
+      </c>
+      <c r="F481" s="8">
+        <v>0</v>
+      </c>
+      <c r="G481" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B482" s="7">
+        <v>1</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D482" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E482" s="7">
+        <v>2</v>
+      </c>
+      <c r="F482" s="8">
+        <v>2</v>
+      </c>
+      <c r="G482" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B483" s="7">
+        <v>2</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D483" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эд (Сэм)</v>
+      </c>
+      <c r="E483" s="7">
+        <v>0</v>
+      </c>
+      <c r="F483" s="8">
+        <v>0</v>
+      </c>
+      <c r="G483" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B484" s="7">
+        <v>2</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D484" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E484" s="7">
+        <v>0</v>
+      </c>
+      <c r="F484" s="8">
+        <v>0</v>
+      </c>
+      <c r="G484" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B485" s="7">
+        <v>2</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D485" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E485" s="7">
+        <v>0</v>
+      </c>
+      <c r="F485" s="8">
+        <v>0</v>
+      </c>
+      <c r="G485" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B486" s="7">
+        <v>4</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D486" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя Одушкин</v>
+      </c>
+      <c r="E486" s="7">
+        <v>0</v>
+      </c>
+      <c r="F486" s="8">
+        <v>1</v>
+      </c>
+      <c r="G486" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="6">
+        <v>45899</v>
+      </c>
+      <c r="B487" s="7">
+        <v>1</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D487" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E487" s="7">
+        <v>0</v>
+      </c>
+      <c r="F487" s="8">
+        <v>0</v>
+      </c>
+      <c r="G487" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C458" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C487" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -15043,10 +15768,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15815,9 +16540,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>45899</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>45899</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>45899</v>
+      </c>
+      <c r="B72" s="7">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>45899</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4</v>
+      </c>
+      <c r="C73" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B73" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A9B9A0-624C-4D3C-9AB0-B377021CCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF61906-A176-4340-B774-008D9BAAB335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15450" yWindow="30" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -653,153 +653,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1081,6 +934,153 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1095,24 +1095,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F88" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:F88" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:F88" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition descending="1" ref="F1:F74"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="23">
       <calculatedColumnFormula>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="22">
       <calculatedColumnFormula>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="21">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="20">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[wins]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1121,21 +1121,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G487" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:G487" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:G487" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="8">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1144,12 +1144,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C73" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:C73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C73" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1499,11 +1499,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,11 +1715,11 @@
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1859,11 +1859,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,11 +2195,11 @@
       </c>
       <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2387,11 +2387,11 @@
       </c>
       <c r="E40" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2411,11 +2411,11 @@
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,11 +2435,11 @@
       </c>
       <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2459,11 +2459,11 @@
       </c>
       <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2627,11 +2627,11 @@
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2795,11 +2795,11 @@
       </c>
       <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="E63" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,11 +3059,11 @@
       </c>
       <c r="E68" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F68" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,11 +3515,11 @@
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,8 +3561,8 @@
   </sheetPr>
   <dimension ref="A1:G487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="D490" sqref="D490"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B459" s="7">
         <v>3</v>
@@ -15045,12 +15045,12 @@
       </c>
       <c r="G459" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B460" s="7">
         <v>1</v>
@@ -15070,12 +15070,12 @@
       </c>
       <c r="G460" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B461" s="7">
         <v>3</v>
@@ -15095,12 +15095,12 @@
       </c>
       <c r="G461" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B462" s="7">
         <v>4</v>
@@ -15120,12 +15120,12 @@
       </c>
       <c r="G462" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B463" s="7">
         <v>4</v>
@@ -15145,12 +15145,12 @@
       </c>
       <c r="G463" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B464" s="7">
         <v>3</v>
@@ -15170,12 +15170,12 @@
       </c>
       <c r="G464" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B465" s="7">
         <v>2</v>
@@ -15195,12 +15195,12 @@
       </c>
       <c r="G465" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B466" s="7">
         <v>2</v>
@@ -15220,12 +15220,12 @@
       </c>
       <c r="G466" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B467" s="7">
         <v>3</v>
@@ -15245,12 +15245,12 @@
       </c>
       <c r="G467" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B468" s="7">
         <v>3</v>
@@ -15270,12 +15270,12 @@
       </c>
       <c r="G468" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B469" s="7">
         <v>4</v>
@@ -15295,12 +15295,12 @@
       </c>
       <c r="G469" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B470" s="7">
         <v>2</v>
@@ -15320,12 +15320,12 @@
       </c>
       <c r="G470" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B471" s="7">
         <v>4</v>
@@ -15345,12 +15345,12 @@
       </c>
       <c r="G471" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B472" s="7">
         <v>3</v>
@@ -15370,12 +15370,12 @@
       </c>
       <c r="G472" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B473" s="7">
         <v>4</v>
@@ -15395,12 +15395,12 @@
       </c>
       <c r="G473" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B474" s="7">
         <v>3</v>
@@ -15420,12 +15420,12 @@
       </c>
       <c r="G474" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B475" s="7">
         <v>4</v>
@@ -15445,12 +15445,12 @@
       </c>
       <c r="G475" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B476" s="7">
         <v>2</v>
@@ -15470,12 +15470,12 @@
       </c>
       <c r="G476" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B477" s="7">
         <v>1</v>
@@ -15495,12 +15495,12 @@
       </c>
       <c r="G477" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B478" s="7">
         <v>1</v>
@@ -15520,12 +15520,12 @@
       </c>
       <c r="G478" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B479" s="7">
         <v>1</v>
@@ -15545,12 +15545,12 @@
       </c>
       <c r="G479" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B480" s="7">
         <v>1</v>
@@ -15570,12 +15570,12 @@
       </c>
       <c r="G480" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B481" s="7">
         <v>2</v>
@@ -15595,12 +15595,12 @@
       </c>
       <c r="G481" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B482" s="7">
         <v>1</v>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="G482" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B483" s="7">
         <v>2</v>
@@ -15645,12 +15645,12 @@
       </c>
       <c r="G483" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B484" s="7">
         <v>2</v>
@@ -15670,12 +15670,12 @@
       </c>
       <c r="G484" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B485" s="7">
         <v>2</v>
@@ -15695,12 +15695,12 @@
       </c>
       <c r="G485" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B486" s="7">
         <v>4</v>
@@ -15720,12 +15720,12 @@
       </c>
       <c r="G486" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B487" s="7">
         <v>1</v>
@@ -15745,7 +15745,7 @@
       </c>
       <c r="G487" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF61906-A176-4340-B774-008D9BAAB335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0428F4-C147-475E-A2FC-AAA15175E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15450" yWindow="30" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1499,11 +1499,11 @@
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,11 +1715,11 @@
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="E16" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1859,11 +1859,11 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,11 +2195,11 @@
       </c>
       <c r="E32" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2387,11 +2387,11 @@
       </c>
       <c r="E40" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2411,11 +2411,11 @@
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,11 +2435,11 @@
       </c>
       <c r="E42" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F42" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2459,11 +2459,11 @@
       </c>
       <c r="E43" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="E45" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2627,11 +2627,11 @@
       </c>
       <c r="E50" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F50" s="12">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2795,11 +2795,11 @@
       </c>
       <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="E63" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,11 +3059,11 @@
       </c>
       <c r="E68" s="7">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="8">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,11 +3515,11 @@
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[wins]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
   </sheetPr>
   <dimension ref="A1:G487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
       <selection activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="G459" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="G460" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="G461" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="G462" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -15145,7 +15145,7 @@
       </c>
       <c r="G463" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -15170,7 +15170,7 @@
       </c>
       <c r="G464" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -15195,7 +15195,7 @@
       </c>
       <c r="G465" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="G466" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="G467" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="G468" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="G469" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="G470" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="G471" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="G472" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="G473" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
       </c>
       <c r="G474" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="G475" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="G476" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="G477" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="G478" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="G479" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="G480" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="G481" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -15620,7 +15620,7 @@
       </c>
       <c r="G482" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="G483" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="G484" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="G485" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="G486" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -15745,7 +15745,7 @@
       </c>
       <c r="G487" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15771,7 +15771,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B70" s="7">
         <v>1</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B71" s="7">
         <v>2</v>
@@ -16564,7 +16564,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B72" s="7">
         <v>3</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B73" s="7">
         <v>4</v>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\dev\football_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B350D14-8326-409C-B442-F6726956E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C713D-5DE3-42B0-AFD7-29551DB96FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13095" yWindow="345" windowWidth="15645" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="102">
   <si>
     <t>player_id</t>
   </si>
@@ -662,56 +662,6 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -842,6 +792,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1033,6 +1001,38 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1188,10 +1188,10 @@
     <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="25">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7B92C955-C277-4BCF-B8AB-BC8A08DD3F98}" name="draws" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{7B92C955-C277-4BCF-B8AB-BC8A08DD3F98}" name="draws" dataDxfId="24">
       <calculatedColumnFormula>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="23">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[draws]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1200,40 +1200,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:I487" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:I487" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:I506" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:I506" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="11">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{77DBAB0A-D544-43B5-B781-AF8991E594CD}" name="draws_on_date" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{77DBAB0A-D544-43B5-B781-AF8991E594CD}" name="draws_on_date" dataDxfId="10">
       <calculatedColumnFormula>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A520E791-7CA1-456F-85A9-8F9DA9A2197F}" name="saves_on_date" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{A520E791-7CA1-456F-85A9-8F9DA9A2197F}" name="saves_on_date" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:D73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:D73" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:D76" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D76" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E0D3B2C4-0D10-4724-9583-EAA87E6A8BF5}" name="draws_on_date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E0D3B2C4-0D10-4724-9583-EAA87E6A8BF5}" name="draws_on_date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1554,23 +1554,23 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F3" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,15 +1674,15 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1730,15 +1730,15 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,15 +1786,15 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1806,23 +1806,23 @@
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="21">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="22">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1898,15 +1898,15 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F14" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1926,15 +1926,15 @@
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F15" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F18" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2066,15 +2066,15 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F20" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2122,15 +2122,15 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,23 +2142,23 @@
       </c>
       <c r="C23" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F23" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2202,19 +2202,19 @@
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2314,19 +2314,19 @@
       </c>
       <c r="D29" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F29" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2338,23 +2338,23 @@
       </c>
       <c r="C30" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F30" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,23 +2814,23 @@
       </c>
       <c r="C47" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F47" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,23 +3626,23 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F76" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3718,15 +3718,15 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F79" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,23 +3934,23 @@
       </c>
       <c r="C87" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D87" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F87" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+    <sheetView topLeftCell="C476" workbookViewId="0">
+      <selection activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19592,10 +19592,618 @@
         <v>0</v>
       </c>
     </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A488" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B488" s="7">
+        <v>1</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D488" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Энтони Тепеев</v>
+      </c>
+      <c r="E488" s="7">
+        <v>3</v>
+      </c>
+      <c r="F488" s="8">
+        <v>2</v>
+      </c>
+      <c r="G488" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H488" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I488" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A489" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B489" s="7">
+        <v>1</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D489" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E489" s="7">
+        <v>0</v>
+      </c>
+      <c r="F489" s="8">
+        <v>2</v>
+      </c>
+      <c r="G489" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H489" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I489" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A490" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B490" s="7">
+        <v>1</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D490" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E490" s="7">
+        <v>2</v>
+      </c>
+      <c r="F490" s="8">
+        <v>0</v>
+      </c>
+      <c r="G490" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H490" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I490" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A491" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B491" s="7">
+        <v>1</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D491" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E491" s="7">
+        <v>0</v>
+      </c>
+      <c r="F491" s="8">
+        <v>0</v>
+      </c>
+      <c r="G491" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H491" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I491" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A492" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B492" s="7">
+        <v>1</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D492" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E492" s="7">
+        <v>3</v>
+      </c>
+      <c r="F492" s="8">
+        <v>0</v>
+      </c>
+      <c r="G492" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H492" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I492" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A493" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B493" s="7">
+        <v>1</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E493" s="7">
+        <v>0</v>
+      </c>
+      <c r="F493" s="8">
+        <v>0</v>
+      </c>
+      <c r="G493" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H493" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I493" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A494" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B494" s="7">
+        <v>2</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D494" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Паша</v>
+      </c>
+      <c r="E494" s="7">
+        <v>5</v>
+      </c>
+      <c r="F494" s="8">
+        <v>1</v>
+      </c>
+      <c r="G494" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H494" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I494" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A495" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B495" s="7">
+        <v>2</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D495" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E495" s="7">
+        <v>3</v>
+      </c>
+      <c r="F495" s="8">
+        <v>1</v>
+      </c>
+      <c r="G495" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H495" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I495" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A496" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B496" s="7">
+        <v>2</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D496" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E496" s="7">
+        <v>0</v>
+      </c>
+      <c r="F496" s="8">
+        <v>3</v>
+      </c>
+      <c r="G496" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H496" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I496" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A497" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B497" s="7">
+        <v>1</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D497" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E497" s="7">
+        <v>1</v>
+      </c>
+      <c r="F497" s="8">
+        <v>1</v>
+      </c>
+      <c r="G497" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H497" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I497" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A498" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B498" s="7">
+        <v>2</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D498" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Зэф</v>
+      </c>
+      <c r="E498" s="7">
+        <v>0</v>
+      </c>
+      <c r="F498" s="8">
+        <v>1</v>
+      </c>
+      <c r="G498" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H498" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I498" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A499" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B499" s="7">
+        <v>3</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D499" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E499" s="7">
+        <v>1</v>
+      </c>
+      <c r="F499" s="8">
+        <v>0</v>
+      </c>
+      <c r="G499" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H499" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I499" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A500" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B500" s="7">
+        <v>3</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D500" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E500" s="7">
+        <v>3</v>
+      </c>
+      <c r="F500" s="8">
+        <v>0</v>
+      </c>
+      <c r="G500" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H500" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I500" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A501" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B501" s="7">
+        <v>3</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D501" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей Бутусов</v>
+      </c>
+      <c r="E501" s="7">
+        <v>1</v>
+      </c>
+      <c r="F501" s="8">
+        <v>1</v>
+      </c>
+      <c r="G501" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H501" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I501" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A502" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B502" s="7">
+        <v>3</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D502" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E502" s="7">
+        <v>0</v>
+      </c>
+      <c r="F502" s="8">
+        <v>0</v>
+      </c>
+      <c r="G502" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H502" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I502" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A503" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B503" s="7">
+        <v>3</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D503" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E503" s="7">
+        <v>0</v>
+      </c>
+      <c r="F503" s="8">
+        <v>0</v>
+      </c>
+      <c r="G503" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H503" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I503" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A504" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B504" s="7">
+        <v>2</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D504" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E504" s="7">
+        <v>0</v>
+      </c>
+      <c r="F504" s="8">
+        <v>1</v>
+      </c>
+      <c r="G504" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H504" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I504" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A505" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B505" s="7">
+        <v>2</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D505" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рубик</v>
+      </c>
+      <c r="E505" s="7">
+        <v>1</v>
+      </c>
+      <c r="F505" s="8">
+        <v>1</v>
+      </c>
+      <c r="G505" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H505" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I505" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A506" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B506" s="7">
+        <v>3</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D506" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E506" s="7">
+        <v>4</v>
+      </c>
+      <c r="F506" s="8">
+        <v>2</v>
+      </c>
+      <c r="G506" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H506" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I506" s="10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C487" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C506" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -19612,10 +20220,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20648,9 +21256,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>45904</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>45904</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>45904</v>
+      </c>
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8">
+        <v>5</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B73" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B76" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C713D-5DE3-42B0-AFD7-29551DB96FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0B3C7-190A-4F83-9E7F-48280578B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="345" windowWidth="15645" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1507,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,8 +3996,8 @@
   </sheetPr>
   <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView topLeftCell="C476" workbookViewId="0">
-      <selection activeCell="E500" sqref="E500"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20222,8 +20222,8 @@
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0B3C7-190A-4F83-9E7F-48280578B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABDF6C3-905B-44F7-9BE7-4BC8CD29B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1507,7 +1507,7 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D22" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3996,8 +3996,8 @@
   </sheetPr>
   <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="F505" sqref="F505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20090,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="F503" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G503" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABDF6C3-905B-44F7-9BE7-4BC8CD29B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C87F6-F6F3-47FE-95DE-2994EEA40831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="30" windowWidth="13350" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="106">
   <si>
     <t>player_id</t>
   </si>
@@ -362,6 +362,18 @@
   <si>
     <t>draws_on_date</t>
   </si>
+  <si>
+    <t>tournament</t>
+  </si>
+  <si>
+    <t>Барышиха</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>УПК</t>
+  </si>
 </sst>
 </file>
 
@@ -660,7 +672,22 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -792,6 +819,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1171,27 +1216,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G88" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:G88" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G89" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G89" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{72D5507B-3E56-45F9-949A-1B810B89614D}" name="player_id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9B600E03-F10C-49A9-BD9C-050BEA58FF6E}" name="player_name" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{8F857898-2667-4829-90AD-3A28B8E44AF3}" name="goals" dataDxfId="29">
       <calculatedColumnFormula>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{81B9F6B2-D5CC-4D13-9EE3-73B39091AD58}" name="assists" dataDxfId="28">
       <calculatedColumnFormula>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{1C26950D-761D-4C94-B228-1824773DE1A0}" name="wins" dataDxfId="27">
       <calculatedColumnFormula>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7B92C955-C277-4BCF-B8AB-BC8A08DD3F98}" name="draws" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{7B92C955-C277-4BCF-B8AB-BC8A08DD3F98}" name="draws" dataDxfId="26">
       <calculatedColumnFormula>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{9ADB0D0F-407B-4516-A8B8-97C920F43BB4}" name="points" dataDxfId="25">
       <calculatedColumnFormula>SUM(_players[[#This Row],[goals]:[draws]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1200,40 +1245,42 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:I506" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:I506" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J526" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J526" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="14">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D6DD79FC-E04C-45EB-8EBE-D6811A0C69D0}" name="date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{686C940A-87F8-43A1-ADFF-9CF607E801B5}" name="team_number" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{1C13D6CA-8B0C-4849-B32C-A77EF9C52B42}" name="player_id" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C2384479-71AA-40DA-A7B2-E30ECBA1AF99}" name="player_name" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{09AE1D8B-DCB8-4F87-ABB5-372822B0D6BF}" name="goals_on_date" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{7FD24496-81EB-47BB-8B89-26AB97C686CA}" name="assists_on_date" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{39F202A0-49EF-45EE-9054-882F18FBDF31}" name="wins_on_date" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{77DBAB0A-D544-43B5-B781-AF8991E594CD}" name="draws_on_date" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{77DBAB0A-D544-43B5-B781-AF8991E594CD}" name="draws_on_date" dataDxfId="12">
       <calculatedColumnFormula>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A520E791-7CA1-456F-85A9-8F9DA9A2197F}" name="saves_on_date" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A520E791-7CA1-456F-85A9-8F9DA9A2197F}" name="saves_on_date" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{60255463-9C5A-4356-83C8-4B8F5C0D84CC}" name="tournament" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:D76" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D76" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E0D3B2C4-0D10-4724-9583-EAA87E6A8BF5}" name="draws_on_date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E79" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E79" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{02A8A062-9D85-4980-948F-E89B2B2D08DF}" name="wins_on_date" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E0D3B2C4-0D10-4724-9583-EAA87E6A8BF5}" name="draws_on_date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{767C7E87-2BC0-427C-9555-EA488841AAAB}" name="tournament" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1505,10 +1552,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,23 +1629,23 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F3" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1610,7 +1657,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1618,15 +1665,15 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1666,23 +1713,23 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1694,23 +1741,23 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,7 +1769,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1730,15 +1777,15 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,7 +1825,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1786,15 +1833,15 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F10" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1834,23 +1881,23 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1862,23 +1909,23 @@
       </c>
       <c r="C13" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2002,23 +2049,23 @@
       </c>
       <c r="C18" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,23 +2105,23 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2198,23 +2245,23 @@
       </c>
       <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F25" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2234,15 +2281,15 @@
       </c>
       <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2282,7 +2329,7 @@
       </c>
       <c r="C28" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2290,15 +2337,15 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F28" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2538,19 +2585,19 @@
       </c>
       <c r="D37" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F37" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2562,23 +2609,23 @@
       </c>
       <c r="C38" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F38" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2598,15 +2645,15 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2646,23 +2693,23 @@
       </c>
       <c r="C41" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F41" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,23 +3673,23 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F76" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,7 +3757,7 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3718,15 +3765,15 @@
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,6 +4026,34 @@
       <c r="G88" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="F89" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="G89" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3994,10 +4069,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="F505" sqref="F505"/>
+    <sheetView topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="J507" sqref="J507:J526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,10 +4083,10 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4039,8 +4114,11 @@
       <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45806</v>
       </c>
@@ -4071,8 +4149,11 @@
       <c r="I2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45806</v>
       </c>
@@ -4103,8 +4184,11 @@
       <c r="I3" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45806</v>
       </c>
@@ -4135,8 +4219,11 @@
       <c r="I4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45806</v>
       </c>
@@ -4167,8 +4254,11 @@
       <c r="I5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45806</v>
       </c>
@@ -4199,8 +4289,11 @@
       <c r="I6" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45806</v>
       </c>
@@ -4231,8 +4324,11 @@
       <c r="I7" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45806</v>
       </c>
@@ -4263,8 +4359,11 @@
       <c r="I8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45806</v>
       </c>
@@ -4295,8 +4394,11 @@
       <c r="I9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45806</v>
       </c>
@@ -4327,8 +4429,11 @@
       <c r="I10" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45806</v>
       </c>
@@ -4359,8 +4464,11 @@
       <c r="I11" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45806</v>
       </c>
@@ -4391,8 +4499,11 @@
       <c r="I12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45806</v>
       </c>
@@ -4423,8 +4534,11 @@
       <c r="I13" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45806</v>
       </c>
@@ -4455,8 +4569,11 @@
       <c r="I14" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45806</v>
       </c>
@@ -4487,8 +4604,11 @@
       <c r="I15" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45806</v>
       </c>
@@ -4519,8 +4639,11 @@
       <c r="I16" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45806</v>
       </c>
@@ -4551,8 +4674,11 @@
       <c r="I17" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45806</v>
       </c>
@@ -4583,8 +4709,11 @@
       <c r="I18" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45809</v>
       </c>
@@ -4615,8 +4744,11 @@
       <c r="I19" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45809</v>
       </c>
@@ -4647,8 +4779,11 @@
       <c r="I20" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45809</v>
       </c>
@@ -4679,8 +4814,11 @@
       <c r="I21" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45809</v>
       </c>
@@ -4711,8 +4849,11 @@
       <c r="I22" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45809</v>
       </c>
@@ -4743,8 +4884,11 @@
       <c r="I23" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45809</v>
       </c>
@@ -4775,8 +4919,11 @@
       <c r="I24" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45809</v>
       </c>
@@ -4807,8 +4954,11 @@
       <c r="I25" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45809</v>
       </c>
@@ -4839,8 +4989,11 @@
       <c r="I26" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45809</v>
       </c>
@@ -4871,8 +5024,11 @@
       <c r="I27" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45809</v>
       </c>
@@ -4903,8 +5059,11 @@
       <c r="I28" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45809</v>
       </c>
@@ -4935,8 +5094,11 @@
       <c r="I29" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45809</v>
       </c>
@@ -4967,8 +5129,11 @@
       <c r="I30" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45809</v>
       </c>
@@ -4999,8 +5164,11 @@
       <c r="I31" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45809</v>
       </c>
@@ -5031,8 +5199,11 @@
       <c r="I32" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45809</v>
       </c>
@@ -5063,8 +5234,11 @@
       <c r="I33" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45809</v>
       </c>
@@ -5095,8 +5269,11 @@
       <c r="I34" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45809</v>
       </c>
@@ -5127,8 +5304,11 @@
       <c r="I35" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45809</v>
       </c>
@@ -5159,8 +5339,11 @@
       <c r="I36" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45809</v>
       </c>
@@ -5191,8 +5374,11 @@
       <c r="I37" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45809</v>
       </c>
@@ -5223,8 +5409,11 @@
       <c r="I38" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45809</v>
       </c>
@@ -5255,8 +5444,11 @@
       <c r="I39" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45809</v>
       </c>
@@ -5287,8 +5479,11 @@
       <c r="I40" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45813</v>
       </c>
@@ -5319,8 +5514,11 @@
       <c r="I41" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45813</v>
       </c>
@@ -5351,8 +5549,11 @@
       <c r="I42" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45813</v>
       </c>
@@ -5383,8 +5584,11 @@
       <c r="I43" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45813</v>
       </c>
@@ -5415,8 +5619,11 @@
       <c r="I44" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45813</v>
       </c>
@@ -5447,8 +5654,11 @@
       <c r="I45" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45813</v>
       </c>
@@ -5479,8 +5689,11 @@
       <c r="I46" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45813</v>
       </c>
@@ -5511,8 +5724,11 @@
       <c r="I47" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45813</v>
       </c>
@@ -5543,8 +5759,11 @@
       <c r="I48" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45813</v>
       </c>
@@ -5575,8 +5794,11 @@
       <c r="I49" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45813</v>
       </c>
@@ -5607,8 +5829,11 @@
       <c r="I50" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45813</v>
       </c>
@@ -5639,8 +5864,11 @@
       <c r="I51" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45813</v>
       </c>
@@ -5671,8 +5899,11 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45813</v>
       </c>
@@ -5703,8 +5934,11 @@
       <c r="I53" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45813</v>
       </c>
@@ -5735,8 +5969,11 @@
       <c r="I54" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45813</v>
       </c>
@@ -5767,8 +6004,11 @@
       <c r="I55" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45813</v>
       </c>
@@ -5799,8 +6039,11 @@
       <c r="I56" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45813</v>
       </c>
@@ -5831,8 +6074,11 @@
       <c r="I57" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45813</v>
       </c>
@@ -5863,8 +6109,11 @@
       <c r="I58" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45813</v>
       </c>
@@ -5895,8 +6144,11 @@
       <c r="I59" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>45813</v>
       </c>
@@ -5927,8 +6179,11 @@
       <c r="I60" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>45816</v>
       </c>
@@ -5959,8 +6214,11 @@
       <c r="I61" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>45816</v>
       </c>
@@ -5991,8 +6249,11 @@
       <c r="I62" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>45816</v>
       </c>
@@ -6023,8 +6284,11 @@
       <c r="I63" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>45816</v>
       </c>
@@ -6055,8 +6319,11 @@
       <c r="I64" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>45816</v>
       </c>
@@ -6087,8 +6354,11 @@
       <c r="I65" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>45816</v>
       </c>
@@ -6119,8 +6389,11 @@
       <c r="I66" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>45816</v>
       </c>
@@ -6151,8 +6424,11 @@
       <c r="I67" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>45816</v>
       </c>
@@ -6183,8 +6459,11 @@
       <c r="I68" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>45816</v>
       </c>
@@ -6215,8 +6494,11 @@
       <c r="I69" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>45816</v>
       </c>
@@ -6247,8 +6529,11 @@
       <c r="I70" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>45816</v>
       </c>
@@ -6279,8 +6564,11 @@
       <c r="I71" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>45816</v>
       </c>
@@ -6311,8 +6599,11 @@
       <c r="I72" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>45816</v>
       </c>
@@ -6343,8 +6634,11 @@
       <c r="I73" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>45816</v>
       </c>
@@ -6375,8 +6669,11 @@
       <c r="I74" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>45816</v>
       </c>
@@ -6407,8 +6704,11 @@
       <c r="I75" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>45816</v>
       </c>
@@ -6439,8 +6739,11 @@
       <c r="I76" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>45816</v>
       </c>
@@ -6471,8 +6774,11 @@
       <c r="I77" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>45816</v>
       </c>
@@ -6503,8 +6809,11 @@
       <c r="I78" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>45816</v>
       </c>
@@ -6535,8 +6844,11 @@
       <c r="I79" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>45816</v>
       </c>
@@ -6567,8 +6879,11 @@
       <c r="I80" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>45816</v>
       </c>
@@ -6599,8 +6914,11 @@
       <c r="I81" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>45816</v>
       </c>
@@ -6631,8 +6949,11 @@
       <c r="I82" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>45816</v>
       </c>
@@ -6663,8 +6984,11 @@
       <c r="I83" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>45816</v>
       </c>
@@ -6695,8 +7019,11 @@
       <c r="I84" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>45816</v>
       </c>
@@ -6727,8 +7054,11 @@
       <c r="I85" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>45816</v>
       </c>
@@ -6759,8 +7089,11 @@
       <c r="I86" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>45816</v>
       </c>
@@ -6791,8 +7124,11 @@
       <c r="I87" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>45816</v>
       </c>
@@ -6823,8 +7159,11 @@
       <c r="I88" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>45816</v>
       </c>
@@ -6855,8 +7194,11 @@
       <c r="I89" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>45820</v>
       </c>
@@ -6887,8 +7229,11 @@
       <c r="I90" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45820</v>
       </c>
@@ -6919,8 +7264,11 @@
       <c r="I91" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45820</v>
       </c>
@@ -6951,8 +7299,11 @@
       <c r="I92" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45820</v>
       </c>
@@ -6983,8 +7334,11 @@
       <c r="I93" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45820</v>
       </c>
@@ -7015,8 +7369,11 @@
       <c r="I94" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45820</v>
       </c>
@@ -7047,8 +7404,11 @@
       <c r="I95" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45820</v>
       </c>
@@ -7079,8 +7439,11 @@
       <c r="I96" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45820</v>
       </c>
@@ -7111,8 +7474,11 @@
       <c r="I97" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45820</v>
       </c>
@@ -7143,8 +7509,11 @@
       <c r="I98" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45820</v>
       </c>
@@ -7175,8 +7544,11 @@
       <c r="I99" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45820</v>
       </c>
@@ -7207,8 +7579,11 @@
       <c r="I100" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45820</v>
       </c>
@@ -7239,8 +7614,11 @@
       <c r="I101" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45820</v>
       </c>
@@ -7271,8 +7649,11 @@
       <c r="I102" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45820</v>
       </c>
@@ -7303,8 +7684,11 @@
       <c r="I103" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45820</v>
       </c>
@@ -7335,8 +7719,11 @@
       <c r="I104" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45823</v>
       </c>
@@ -7367,8 +7754,11 @@
       <c r="I105" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45823</v>
       </c>
@@ -7399,8 +7789,11 @@
       <c r="I106" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45823</v>
       </c>
@@ -7431,8 +7824,11 @@
       <c r="I107" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45823</v>
       </c>
@@ -7463,8 +7859,11 @@
       <c r="I108" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45823</v>
       </c>
@@ -7495,8 +7894,11 @@
       <c r="I109" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45823</v>
       </c>
@@ -7527,8 +7929,11 @@
       <c r="I110" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45823</v>
       </c>
@@ -7559,8 +7964,11 @@
       <c r="I111" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45823</v>
       </c>
@@ -7591,8 +7999,11 @@
       <c r="I112" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45823</v>
       </c>
@@ -7623,8 +8034,11 @@
       <c r="I113" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45823</v>
       </c>
@@ -7655,8 +8069,11 @@
       <c r="I114" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45823</v>
       </c>
@@ -7687,8 +8104,11 @@
       <c r="I115" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45823</v>
       </c>
@@ -7719,8 +8139,11 @@
       <c r="I116" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45823</v>
       </c>
@@ -7751,8 +8174,11 @@
       <c r="I117" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45823</v>
       </c>
@@ -7783,8 +8209,11 @@
       <c r="I118" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45823</v>
       </c>
@@ -7815,8 +8244,11 @@
       <c r="I119" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45823</v>
       </c>
@@ -7847,8 +8279,11 @@
       <c r="I120" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>45823</v>
       </c>
@@ -7879,8 +8314,11 @@
       <c r="I121" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45823</v>
       </c>
@@ -7911,8 +8349,11 @@
       <c r="I122" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45823</v>
       </c>
@@ -7943,8 +8384,11 @@
       <c r="I123" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45823</v>
       </c>
@@ -7975,8 +8419,11 @@
       <c r="I124" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45827</v>
       </c>
@@ -8007,8 +8454,11 @@
       <c r="I125" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45827</v>
       </c>
@@ -8039,8 +8489,11 @@
       <c r="I126" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45827</v>
       </c>
@@ -8071,8 +8524,11 @@
       <c r="I127" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45827</v>
       </c>
@@ -8103,8 +8559,11 @@
       <c r="I128" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45827</v>
       </c>
@@ -8135,8 +8594,11 @@
       <c r="I129" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45827</v>
       </c>
@@ -8167,8 +8629,11 @@
       <c r="I130" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45827</v>
       </c>
@@ -8199,8 +8664,11 @@
       <c r="I131" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45827</v>
       </c>
@@ -8231,8 +8699,11 @@
       <c r="I132" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45827</v>
       </c>
@@ -8263,8 +8734,11 @@
       <c r="I133" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>45827</v>
       </c>
@@ -8295,8 +8769,11 @@
       <c r="I134" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>45827</v>
       </c>
@@ -8327,8 +8804,11 @@
       <c r="I135" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>45827</v>
       </c>
@@ -8359,8 +8839,11 @@
       <c r="I136" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45827</v>
       </c>
@@ -8391,8 +8874,11 @@
       <c r="I137" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45827</v>
       </c>
@@ -8423,8 +8909,11 @@
       <c r="I138" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45827</v>
       </c>
@@ -8455,8 +8944,11 @@
       <c r="I139" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45827</v>
       </c>
@@ -8487,8 +8979,11 @@
       <c r="I140" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45827</v>
       </c>
@@ -8519,8 +9014,11 @@
       <c r="I141" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45827</v>
       </c>
@@ -8551,8 +9049,11 @@
       <c r="I142" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45830</v>
       </c>
@@ -8583,8 +9084,11 @@
       <c r="I143" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45830</v>
       </c>
@@ -8615,8 +9119,11 @@
       <c r="I144" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45830</v>
       </c>
@@ -8647,8 +9154,11 @@
       <c r="I145" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45830</v>
       </c>
@@ -8679,8 +9189,11 @@
       <c r="I146" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45830</v>
       </c>
@@ -8711,8 +9224,11 @@
       <c r="I147" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45830</v>
       </c>
@@ -8743,8 +9259,11 @@
       <c r="I148" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45830</v>
       </c>
@@ -8775,8 +9294,11 @@
       <c r="I149" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45830</v>
       </c>
@@ -8807,8 +9329,11 @@
       <c r="I150" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45830</v>
       </c>
@@ -8839,8 +9364,11 @@
       <c r="I151" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45830</v>
       </c>
@@ -8871,8 +9399,11 @@
       <c r="I152" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45830</v>
       </c>
@@ -8903,8 +9434,11 @@
       <c r="I153" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45830</v>
       </c>
@@ -8935,8 +9469,11 @@
       <c r="I154" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45830</v>
       </c>
@@ -8967,8 +9504,11 @@
       <c r="I155" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45830</v>
       </c>
@@ -8999,8 +9539,11 @@
       <c r="I156" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45830</v>
       </c>
@@ -9031,8 +9574,11 @@
       <c r="I157" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45830</v>
       </c>
@@ -9063,8 +9609,11 @@
       <c r="I158" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45830</v>
       </c>
@@ -9095,8 +9644,11 @@
       <c r="I159" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45830</v>
       </c>
@@ -9127,8 +9679,11 @@
       <c r="I160" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45830</v>
       </c>
@@ -9159,8 +9714,11 @@
       <c r="I161" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45830</v>
       </c>
@@ -9191,8 +9749,11 @@
       <c r="I162" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45830</v>
       </c>
@@ -9223,8 +9784,11 @@
       <c r="I163" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45830</v>
       </c>
@@ -9255,8 +9819,11 @@
       <c r="I164" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45830</v>
       </c>
@@ -9287,8 +9854,11 @@
       <c r="I165" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45830</v>
       </c>
@@ -9319,8 +9889,11 @@
       <c r="I166" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45830</v>
       </c>
@@ -9351,8 +9924,11 @@
       <c r="I167" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45830</v>
       </c>
@@ -9383,8 +9959,11 @@
       <c r="I168" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45830</v>
       </c>
@@ -9415,8 +9994,11 @@
       <c r="I169" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45834</v>
       </c>
@@ -9447,8 +10029,11 @@
       <c r="I170" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45834</v>
       </c>
@@ -9479,8 +10064,11 @@
       <c r="I171" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45834</v>
       </c>
@@ -9511,8 +10099,11 @@
       <c r="I172" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45834</v>
       </c>
@@ -9543,8 +10134,11 @@
       <c r="I173" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45834</v>
       </c>
@@ -9575,8 +10169,11 @@
       <c r="I174" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45834</v>
       </c>
@@ -9607,8 +10204,11 @@
       <c r="I175" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45834</v>
       </c>
@@ -9639,8 +10239,11 @@
       <c r="I176" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45834</v>
       </c>
@@ -9671,8 +10274,11 @@
       <c r="I177" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45834</v>
       </c>
@@ -9703,8 +10309,11 @@
       <c r="I178" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45834</v>
       </c>
@@ -9735,8 +10344,11 @@
       <c r="I179" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45834</v>
       </c>
@@ -9767,8 +10379,11 @@
       <c r="I180" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>45834</v>
       </c>
@@ -9799,8 +10414,11 @@
       <c r="I181" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>45834</v>
       </c>
@@ -9831,8 +10449,11 @@
       <c r="I182" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45834</v>
       </c>
@@ -9863,8 +10484,11 @@
       <c r="I183" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45834</v>
       </c>
@@ -9895,8 +10519,11 @@
       <c r="I184" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>45834</v>
       </c>
@@ -9927,8 +10554,11 @@
       <c r="I185" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>45834</v>
       </c>
@@ -9959,8 +10589,11 @@
       <c r="I186" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>45834</v>
       </c>
@@ -9991,8 +10624,11 @@
       <c r="I187" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45834</v>
       </c>
@@ -10023,8 +10659,11 @@
       <c r="I188" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>45837</v>
       </c>
@@ -10055,8 +10694,11 @@
       <c r="I189" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>45837</v>
       </c>
@@ -10087,8 +10729,11 @@
       <c r="I190" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>45837</v>
       </c>
@@ -10119,8 +10764,11 @@
       <c r="I191" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>45837</v>
       </c>
@@ -10151,8 +10799,11 @@
       <c r="I192" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>45837</v>
       </c>
@@ -10183,8 +10834,11 @@
       <c r="I193" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>45837</v>
       </c>
@@ -10215,8 +10869,11 @@
       <c r="I194" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>45837</v>
       </c>
@@ -10247,8 +10904,11 @@
       <c r="I195" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>45837</v>
       </c>
@@ -10279,8 +10939,11 @@
       <c r="I196" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>45837</v>
       </c>
@@ -10311,8 +10974,11 @@
       <c r="I197" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>45837</v>
       </c>
@@ -10343,8 +11009,11 @@
       <c r="I198" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>45837</v>
       </c>
@@ -10375,8 +11044,11 @@
       <c r="I199" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>45837</v>
       </c>
@@ -10407,8 +11079,11 @@
       <c r="I200" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>45837</v>
       </c>
@@ -10439,8 +11114,11 @@
       <c r="I201" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>45837</v>
       </c>
@@ -10471,8 +11149,11 @@
       <c r="I202" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>45837</v>
       </c>
@@ -10503,8 +11184,11 @@
       <c r="I203" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>45837</v>
       </c>
@@ -10535,8 +11219,11 @@
       <c r="I204" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>45837</v>
       </c>
@@ -10567,8 +11254,11 @@
       <c r="I205" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>45837</v>
       </c>
@@ -10599,8 +11289,11 @@
       <c r="I206" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>45837</v>
       </c>
@@ -10631,8 +11324,11 @@
       <c r="I207" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>45837</v>
       </c>
@@ -10663,8 +11359,11 @@
       <c r="I208" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>45837</v>
       </c>
@@ -10695,8 +11394,11 @@
       <c r="I209" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>45837</v>
       </c>
@@ -10727,8 +11429,11 @@
       <c r="I210" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>45837</v>
       </c>
@@ -10759,8 +11464,11 @@
       <c r="I211" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45837</v>
       </c>
@@ -10791,8 +11499,11 @@
       <c r="I212" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45837</v>
       </c>
@@ -10823,8 +11534,11 @@
       <c r="I213" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45837</v>
       </c>
@@ -10855,8 +11569,11 @@
       <c r="I214" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45837</v>
       </c>
@@ -10887,8 +11604,11 @@
       <c r="I215" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>45837</v>
       </c>
@@ -10919,8 +11639,11 @@
       <c r="I216" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45837</v>
       </c>
@@ -10951,8 +11674,11 @@
       <c r="I217" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45837</v>
       </c>
@@ -10983,8 +11709,11 @@
       <c r="I218" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45837</v>
       </c>
@@ -11015,8 +11744,11 @@
       <c r="I219" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45855</v>
       </c>
@@ -11047,8 +11779,11 @@
       <c r="I220" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45855</v>
       </c>
@@ -11079,8 +11814,11 @@
       <c r="I221" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45855</v>
       </c>
@@ -11111,8 +11849,11 @@
       <c r="I222" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45855</v>
       </c>
@@ -11143,8 +11884,11 @@
       <c r="I223" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45855</v>
       </c>
@@ -11175,8 +11919,11 @@
       <c r="I224" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45855</v>
       </c>
@@ -11207,8 +11954,11 @@
       <c r="I225" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45855</v>
       </c>
@@ -11239,8 +11989,11 @@
       <c r="I226" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45855</v>
       </c>
@@ -11271,8 +12024,11 @@
       <c r="I227" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45855</v>
       </c>
@@ -11303,8 +12059,11 @@
       <c r="I228" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45855</v>
       </c>
@@ -11335,8 +12094,11 @@
       <c r="I229" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45855</v>
       </c>
@@ -11367,8 +12129,11 @@
       <c r="I230" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45855</v>
       </c>
@@ -11399,8 +12164,11 @@
       <c r="I231" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45855</v>
       </c>
@@ -11431,8 +12199,11 @@
       <c r="I232" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45855</v>
       </c>
@@ -11463,8 +12234,11 @@
       <c r="I233" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45855</v>
       </c>
@@ -11495,8 +12269,11 @@
       <c r="I234" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45855</v>
       </c>
@@ -11527,8 +12304,11 @@
       <c r="I235" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45855</v>
       </c>
@@ -11559,8 +12339,11 @@
       <c r="I236" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45855</v>
       </c>
@@ -11591,8 +12374,11 @@
       <c r="I237" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45858</v>
       </c>
@@ -11623,8 +12409,11 @@
       <c r="I238" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45858</v>
       </c>
@@ -11655,8 +12444,11 @@
       <c r="I239" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45858</v>
       </c>
@@ -11687,8 +12479,11 @@
       <c r="I240" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>45858</v>
       </c>
@@ -11719,8 +12514,11 @@
       <c r="I241" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>45858</v>
       </c>
@@ -11751,8 +12549,11 @@
       <c r="I242" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>45858</v>
       </c>
@@ -11783,8 +12584,11 @@
       <c r="I243" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>45858</v>
       </c>
@@ -11815,8 +12619,11 @@
       <c r="I244" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>45858</v>
       </c>
@@ -11847,8 +12654,11 @@
       <c r="I245" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>45858</v>
       </c>
@@ -11879,8 +12689,11 @@
       <c r="I246" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>45858</v>
       </c>
@@ -11911,8 +12724,11 @@
       <c r="I247" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>45858</v>
       </c>
@@ -11943,8 +12759,11 @@
       <c r="I248" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>45858</v>
       </c>
@@ -11975,8 +12794,11 @@
       <c r="I249" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>45858</v>
       </c>
@@ -12007,8 +12829,11 @@
       <c r="I250" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>45858</v>
       </c>
@@ -12039,8 +12864,11 @@
       <c r="I251" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>45858</v>
       </c>
@@ -12071,8 +12899,11 @@
       <c r="I252" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>45858</v>
       </c>
@@ -12103,8 +12934,11 @@
       <c r="I253" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45858</v>
       </c>
@@ -12135,8 +12969,11 @@
       <c r="I254" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>45858</v>
       </c>
@@ -12167,8 +13004,11 @@
       <c r="I255" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>45858</v>
       </c>
@@ -12199,8 +13039,11 @@
       <c r="I256" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>45862</v>
       </c>
@@ -12231,8 +13074,11 @@
       <c r="I257" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>45862</v>
       </c>
@@ -12263,8 +13109,11 @@
       <c r="I258" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>45862</v>
       </c>
@@ -12295,8 +13144,11 @@
       <c r="I259" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>45862</v>
       </c>
@@ -12327,8 +13179,11 @@
       <c r="I260" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>45862</v>
       </c>
@@ -12359,8 +13214,11 @@
       <c r="I261" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>45862</v>
       </c>
@@ -12391,8 +13249,11 @@
       <c r="I262" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>45862</v>
       </c>
@@ -12423,8 +13284,11 @@
       <c r="I263" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>45862</v>
       </c>
@@ -12455,8 +13319,11 @@
       <c r="I264" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>45862</v>
       </c>
@@ -12487,8 +13354,11 @@
       <c r="I265" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>45862</v>
       </c>
@@ -12519,8 +13389,11 @@
       <c r="I266" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>45862</v>
       </c>
@@ -12551,8 +13424,11 @@
       <c r="I267" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45862</v>
       </c>
@@ -12583,8 +13459,11 @@
       <c r="I268" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45862</v>
       </c>
@@ -12615,8 +13494,11 @@
       <c r="I269" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45862</v>
       </c>
@@ -12647,8 +13529,11 @@
       <c r="I270" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45862</v>
       </c>
@@ -12679,8 +13564,11 @@
       <c r="I271" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45862</v>
       </c>
@@ -12711,8 +13599,11 @@
       <c r="I272" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45862</v>
       </c>
@@ -12743,8 +13634,11 @@
       <c r="I273" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45862</v>
       </c>
@@ -12775,8 +13669,11 @@
       <c r="I274" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45862</v>
       </c>
@@ -12807,8 +13704,11 @@
       <c r="I275" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45865</v>
       </c>
@@ -12839,8 +13739,11 @@
       <c r="I276" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45865</v>
       </c>
@@ -12871,8 +13774,11 @@
       <c r="I277" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45865</v>
       </c>
@@ -12903,8 +13809,11 @@
       <c r="I278" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45865</v>
       </c>
@@ -12935,8 +13844,11 @@
       <c r="I279" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45865</v>
       </c>
@@ -12967,8 +13879,11 @@
       <c r="I280" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45865</v>
       </c>
@@ -12999,8 +13914,11 @@
       <c r="I281" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45865</v>
       </c>
@@ -13031,8 +13949,11 @@
       <c r="I282" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45865</v>
       </c>
@@ -13063,8 +13984,11 @@
       <c r="I283" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45865</v>
       </c>
@@ -13095,8 +14019,11 @@
       <c r="I284" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45865</v>
       </c>
@@ -13127,8 +14054,11 @@
       <c r="I285" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45865</v>
       </c>
@@ -13159,8 +14089,11 @@
       <c r="I286" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45865</v>
       </c>
@@ -13191,8 +14124,11 @@
       <c r="I287" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45865</v>
       </c>
@@ -13223,8 +14159,11 @@
       <c r="I288" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45865</v>
       </c>
@@ -13255,8 +14194,11 @@
       <c r="I289" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45865</v>
       </c>
@@ -13287,8 +14229,11 @@
       <c r="I290" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45865</v>
       </c>
@@ -13319,8 +14264,11 @@
       <c r="I291" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45865</v>
       </c>
@@ -13351,8 +14299,11 @@
       <c r="I292" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45865</v>
       </c>
@@ -13383,8 +14334,11 @@
       <c r="I293" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45865</v>
       </c>
@@ -13415,8 +14369,11 @@
       <c r="I294" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45865</v>
       </c>
@@ -13447,8 +14404,11 @@
       <c r="I295" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45865</v>
       </c>
@@ -13479,8 +14439,11 @@
       <c r="I296" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45865</v>
       </c>
@@ -13511,8 +14474,11 @@
       <c r="I297" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45869</v>
       </c>
@@ -13543,8 +14509,11 @@
       <c r="I298" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45869</v>
       </c>
@@ -13575,8 +14544,11 @@
       <c r="I299" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45869</v>
       </c>
@@ -13607,8 +14579,11 @@
       <c r="I300" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>45869</v>
       </c>
@@ -13639,8 +14614,11 @@
       <c r="I301" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>45869</v>
       </c>
@@ -13671,8 +14649,11 @@
       <c r="I302" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>45869</v>
       </c>
@@ -13703,8 +14684,11 @@
       <c r="I303" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>45869</v>
       </c>
@@ -13735,8 +14719,11 @@
       <c r="I304" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>45869</v>
       </c>
@@ -13767,8 +14754,11 @@
       <c r="I305" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>45869</v>
       </c>
@@ -13799,8 +14789,11 @@
       <c r="I306" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>45869</v>
       </c>
@@ -13831,8 +14824,11 @@
       <c r="I307" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>45869</v>
       </c>
@@ -13863,8 +14859,11 @@
       <c r="I308" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>45869</v>
       </c>
@@ -13895,8 +14894,11 @@
       <c r="I309" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>45869</v>
       </c>
@@ -13927,8 +14929,11 @@
       <c r="I310" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>45869</v>
       </c>
@@ -13959,8 +14964,11 @@
       <c r="I311" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>45869</v>
       </c>
@@ -13991,8 +14999,11 @@
       <c r="I312" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>45869</v>
       </c>
@@ -14023,8 +15034,11 @@
       <c r="I313" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>45869</v>
       </c>
@@ -14055,8 +15069,11 @@
       <c r="I314" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>45869</v>
       </c>
@@ -14087,8 +15104,11 @@
       <c r="I315" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>45872</v>
       </c>
@@ -14119,8 +15139,11 @@
       <c r="I316" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>45872</v>
       </c>
@@ -14151,8 +15174,11 @@
       <c r="I317" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>45872</v>
       </c>
@@ -14183,8 +15209,11 @@
       <c r="I318" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>45872</v>
       </c>
@@ -14215,8 +15244,11 @@
       <c r="I319" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>45872</v>
       </c>
@@ -14247,8 +15279,11 @@
       <c r="I320" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>45872</v>
       </c>
@@ -14279,8 +15314,11 @@
       <c r="I321" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>45872</v>
       </c>
@@ -14311,8 +15349,11 @@
       <c r="I322" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>45872</v>
       </c>
@@ -14343,8 +15384,11 @@
       <c r="I323" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>45872</v>
       </c>
@@ -14375,8 +15419,11 @@
       <c r="I324" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>45872</v>
       </c>
@@ -14407,8 +15454,11 @@
       <c r="I325" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>45872</v>
       </c>
@@ -14439,8 +15489,11 @@
       <c r="I326" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>45872</v>
       </c>
@@ -14471,8 +15524,11 @@
       <c r="I327" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>45872</v>
       </c>
@@ -14503,8 +15559,11 @@
       <c r="I328" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>45872</v>
       </c>
@@ -14535,8 +15594,11 @@
       <c r="I329" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>45872</v>
       </c>
@@ -14567,8 +15629,11 @@
       <c r="I330" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>45872</v>
       </c>
@@ -14599,8 +15664,11 @@
       <c r="I331" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>45872</v>
       </c>
@@ -14631,8 +15699,11 @@
       <c r="I332" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>45872</v>
       </c>
@@ -14663,8 +15734,11 @@
       <c r="I333" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>45872</v>
       </c>
@@ -14695,8 +15769,11 @@
       <c r="I334" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>45872</v>
       </c>
@@ -14727,8 +15804,11 @@
       <c r="I335" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>45872</v>
       </c>
@@ -14759,8 +15839,11 @@
       <c r="I336" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>45872</v>
       </c>
@@ -14791,8 +15874,11 @@
       <c r="I337" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>45876</v>
       </c>
@@ -14823,8 +15909,11 @@
       <c r="I338" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>45876</v>
       </c>
@@ -14855,8 +15944,11 @@
       <c r="I339" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>45876</v>
       </c>
@@ -14887,8 +15979,11 @@
       <c r="I340" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>45876</v>
       </c>
@@ -14919,8 +16014,11 @@
       <c r="I341" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>45876</v>
       </c>
@@ -14951,8 +16049,11 @@
       <c r="I342" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>45876</v>
       </c>
@@ -14983,8 +16084,11 @@
       <c r="I343" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>45876</v>
       </c>
@@ -15015,8 +16119,11 @@
       <c r="I344" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>45876</v>
       </c>
@@ -15047,8 +16154,11 @@
       <c r="I345" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>45876</v>
       </c>
@@ -15079,8 +16189,11 @@
       <c r="I346" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>45876</v>
       </c>
@@ -15111,8 +16224,11 @@
       <c r="I347" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>45876</v>
       </c>
@@ -15143,8 +16259,11 @@
       <c r="I348" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>45876</v>
       </c>
@@ -15175,8 +16294,11 @@
       <c r="I349" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>45876</v>
       </c>
@@ -15207,8 +16329,11 @@
       <c r="I350" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>45876</v>
       </c>
@@ -15239,8 +16364,11 @@
       <c r="I351" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>45876</v>
       </c>
@@ -15271,8 +16399,11 @@
       <c r="I352" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>45876</v>
       </c>
@@ -15303,8 +16434,11 @@
       <c r="I353" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>45876</v>
       </c>
@@ -15335,8 +16469,11 @@
       <c r="I354" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>45876</v>
       </c>
@@ -15367,8 +16504,11 @@
       <c r="I355" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>45876</v>
       </c>
@@ -15399,8 +16539,11 @@
       <c r="I356" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>45883</v>
       </c>
@@ -15431,8 +16574,11 @@
       <c r="I357" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>45883</v>
       </c>
@@ -15463,8 +16609,11 @@
       <c r="I358" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>45883</v>
       </c>
@@ -15495,8 +16644,11 @@
       <c r="I359" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>45883</v>
       </c>
@@ -15527,8 +16679,11 @@
       <c r="I360" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>45883</v>
       </c>
@@ -15559,8 +16714,11 @@
       <c r="I361" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>45883</v>
       </c>
@@ -15591,8 +16749,11 @@
       <c r="I362" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>45883</v>
       </c>
@@ -15623,8 +16784,11 @@
       <c r="I363" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>45883</v>
       </c>
@@ -15655,8 +16819,11 @@
       <c r="I364" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>45883</v>
       </c>
@@ -15687,8 +16854,11 @@
       <c r="I365" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>45883</v>
       </c>
@@ -15719,8 +16889,11 @@
       <c r="I366" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>45883</v>
       </c>
@@ -15751,8 +16924,11 @@
       <c r="I367" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>45883</v>
       </c>
@@ -15783,8 +16959,11 @@
       <c r="I368" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>45883</v>
       </c>
@@ -15815,8 +16994,11 @@
       <c r="I369" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>45883</v>
       </c>
@@ -15847,8 +17029,11 @@
       <c r="I370" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>45883</v>
       </c>
@@ -15879,8 +17064,11 @@
       <c r="I371" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>45883</v>
       </c>
@@ -15911,8 +17099,11 @@
       <c r="I372" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>45883</v>
       </c>
@@ -15943,8 +17134,11 @@
       <c r="I373" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>45883</v>
       </c>
@@ -15975,8 +17169,11 @@
       <c r="I374" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>45886</v>
       </c>
@@ -16007,8 +17204,11 @@
       <c r="I375" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>45886</v>
       </c>
@@ -16039,8 +17239,11 @@
       <c r="I376" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>45886</v>
       </c>
@@ -16071,8 +17274,11 @@
       <c r="I377" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>45886</v>
       </c>
@@ -16103,8 +17309,11 @@
       <c r="I378" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>45886</v>
       </c>
@@ -16135,8 +17344,11 @@
       <c r="I379" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>45886</v>
       </c>
@@ -16167,8 +17379,11 @@
       <c r="I380" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>45886</v>
       </c>
@@ -16199,8 +17414,11 @@
       <c r="I381" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>45886</v>
       </c>
@@ -16231,8 +17449,11 @@
       <c r="I382" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>45886</v>
       </c>
@@ -16263,8 +17484,11 @@
       <c r="I383" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>45886</v>
       </c>
@@ -16295,8 +17519,11 @@
       <c r="I384" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>45886</v>
       </c>
@@ -16327,8 +17554,11 @@
       <c r="I385" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>45886</v>
       </c>
@@ -16359,8 +17589,11 @@
       <c r="I386" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>45886</v>
       </c>
@@ -16391,8 +17624,11 @@
       <c r="I387" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>45886</v>
       </c>
@@ -16423,8 +17659,11 @@
       <c r="I388" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>45886</v>
       </c>
@@ -16455,8 +17694,11 @@
       <c r="I389" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>45886</v>
       </c>
@@ -16487,8 +17729,11 @@
       <c r="I390" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>45886</v>
       </c>
@@ -16519,8 +17764,11 @@
       <c r="I391" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>45886</v>
       </c>
@@ -16551,8 +17799,11 @@
       <c r="I392" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>45886</v>
       </c>
@@ -16583,8 +17834,11 @@
       <c r="I393" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>45886</v>
       </c>
@@ -16615,8 +17869,11 @@
       <c r="I394" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>45886</v>
       </c>
@@ -16647,8 +17904,11 @@
       <c r="I395" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>45886</v>
       </c>
@@ -16679,8 +17939,11 @@
       <c r="I396" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>45886</v>
       </c>
@@ -16711,8 +17974,11 @@
       <c r="I397" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>45886</v>
       </c>
@@ -16743,8 +18009,11 @@
       <c r="I398" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>45886</v>
       </c>
@@ -16775,8 +18044,11 @@
       <c r="I399" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>45886</v>
       </c>
@@ -16807,8 +18079,11 @@
       <c r="I400" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>45886</v>
       </c>
@@ -16839,8 +18114,11 @@
       <c r="I401" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>45890</v>
       </c>
@@ -16871,8 +18149,11 @@
       <c r="I402" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>45890</v>
       </c>
@@ -16903,8 +18184,11 @@
       <c r="I403" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>45890</v>
       </c>
@@ -16935,8 +18219,11 @@
       <c r="I404" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>45890</v>
       </c>
@@ -16967,8 +18254,11 @@
       <c r="I405" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>45890</v>
       </c>
@@ -16999,8 +18289,11 @@
       <c r="I406" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>45890</v>
       </c>
@@ -17031,8 +18324,11 @@
       <c r="I407" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>45890</v>
       </c>
@@ -17063,8 +18359,11 @@
       <c r="I408" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>45890</v>
       </c>
@@ -17095,8 +18394,11 @@
       <c r="I409" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>45890</v>
       </c>
@@ -17127,8 +18429,11 @@
       <c r="I410" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>45890</v>
       </c>
@@ -17159,8 +18464,11 @@
       <c r="I411" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>45890</v>
       </c>
@@ -17191,8 +18499,11 @@
       <c r="I412" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>45890</v>
       </c>
@@ -17223,8 +18534,11 @@
       <c r="I413" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>45890</v>
       </c>
@@ -17255,8 +18569,11 @@
       <c r="I414" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>45890</v>
       </c>
@@ -17287,8 +18604,11 @@
       <c r="I415" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>45890</v>
       </c>
@@ -17319,8 +18639,11 @@
       <c r="I416" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>45890</v>
       </c>
@@ -17351,8 +18674,11 @@
       <c r="I417" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>45890</v>
       </c>
@@ -17383,8 +18709,11 @@
       <c r="I418" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>45890</v>
       </c>
@@ -17415,8 +18744,11 @@
       <c r="I419" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>45890</v>
       </c>
@@ -17447,8 +18779,11 @@
       <c r="I420" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>45893</v>
       </c>
@@ -17479,8 +18814,11 @@
       <c r="I421" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>45893</v>
       </c>
@@ -17511,8 +18849,11 @@
       <c r="I422" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>45893</v>
       </c>
@@ -17543,8 +18884,11 @@
       <c r="I423" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>45893</v>
       </c>
@@ -17575,8 +18919,11 @@
       <c r="I424" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>45893</v>
       </c>
@@ -17607,8 +18954,11 @@
       <c r="I425" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>45893</v>
       </c>
@@ -17639,8 +18989,11 @@
       <c r="I426" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>45893</v>
       </c>
@@ -17671,8 +19024,11 @@
       <c r="I427" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>45893</v>
       </c>
@@ -17703,8 +19059,11 @@
       <c r="I428" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J428" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>45893</v>
       </c>
@@ -17735,8 +19094,11 @@
       <c r="I429" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>45893</v>
       </c>
@@ -17767,8 +19129,11 @@
       <c r="I430" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>45893</v>
       </c>
@@ -17799,8 +19164,11 @@
       <c r="I431" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>45893</v>
       </c>
@@ -17831,8 +19199,11 @@
       <c r="I432" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>45893</v>
       </c>
@@ -17863,8 +19234,11 @@
       <c r="I433" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>45893</v>
       </c>
@@ -17895,8 +19269,11 @@
       <c r="I434" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>45893</v>
       </c>
@@ -17927,8 +19304,11 @@
       <c r="I435" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>45893</v>
       </c>
@@ -17959,8 +19339,11 @@
       <c r="I436" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>45893</v>
       </c>
@@ -17991,8 +19374,11 @@
       <c r="I437" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>45893</v>
       </c>
@@ -18023,8 +19409,11 @@
       <c r="I438" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>45893</v>
       </c>
@@ -18055,8 +19444,11 @@
       <c r="I439" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>45897</v>
       </c>
@@ -18087,8 +19479,11 @@
       <c r="I440" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>45897</v>
       </c>
@@ -18119,8 +19514,11 @@
       <c r="I441" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>45897</v>
       </c>
@@ -18151,8 +19549,11 @@
       <c r="I442" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>45897</v>
       </c>
@@ -18183,8 +19584,11 @@
       <c r="I443" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>45897</v>
       </c>
@@ -18215,8 +19619,11 @@
       <c r="I444" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>45897</v>
       </c>
@@ -18247,8 +19654,11 @@
       <c r="I445" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>45897</v>
       </c>
@@ -18279,8 +19689,11 @@
       <c r="I446" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>45897</v>
       </c>
@@ -18311,8 +19724,11 @@
       <c r="I447" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>45897</v>
       </c>
@@ -18343,8 +19759,11 @@
       <c r="I448" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>45897</v>
       </c>
@@ -18375,8 +19794,11 @@
       <c r="I449" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>45897</v>
       </c>
@@ -18407,8 +19829,11 @@
       <c r="I450" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>45897</v>
       </c>
@@ -18439,8 +19864,11 @@
       <c r="I451" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>45897</v>
       </c>
@@ -18471,8 +19899,11 @@
       <c r="I452" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>45897</v>
       </c>
@@ -18503,8 +19934,11 @@
       <c r="I453" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>45897</v>
       </c>
@@ -18535,8 +19969,11 @@
       <c r="I454" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>45897</v>
       </c>
@@ -18567,8 +20004,11 @@
       <c r="I455" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>45897</v>
       </c>
@@ -18599,8 +20039,11 @@
       <c r="I456" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>45897</v>
       </c>
@@ -18631,8 +20074,11 @@
       <c r="I457" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>45897</v>
       </c>
@@ -18663,8 +20109,11 @@
       <c r="I458" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>45900</v>
       </c>
@@ -18695,8 +20144,11 @@
       <c r="I459" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>45900</v>
       </c>
@@ -18727,8 +20179,11 @@
       <c r="I460" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>45900</v>
       </c>
@@ -18759,8 +20214,11 @@
       <c r="I461" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>45900</v>
       </c>
@@ -18791,8 +20249,11 @@
       <c r="I462" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>45900</v>
       </c>
@@ -18823,8 +20284,11 @@
       <c r="I463" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>45900</v>
       </c>
@@ -18855,8 +20319,11 @@
       <c r="I464" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>45900</v>
       </c>
@@ -18887,8 +20354,11 @@
       <c r="I465" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>45900</v>
       </c>
@@ -18919,8 +20389,11 @@
       <c r="I466" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
         <v>45900</v>
       </c>
@@ -18951,8 +20424,11 @@
       <c r="I467" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>45900</v>
       </c>
@@ -18983,8 +20459,11 @@
       <c r="I468" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>45900</v>
       </c>
@@ -19015,8 +20494,11 @@
       <c r="I469" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>45900</v>
       </c>
@@ -19047,8 +20529,11 @@
       <c r="I470" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>45900</v>
       </c>
@@ -19079,8 +20564,11 @@
       <c r="I471" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>45900</v>
       </c>
@@ -19111,8 +20599,11 @@
       <c r="I472" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>45900</v>
       </c>
@@ -19143,8 +20634,11 @@
       <c r="I473" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
         <v>45900</v>
       </c>
@@ -19175,8 +20669,11 @@
       <c r="I474" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>45900</v>
       </c>
@@ -19207,8 +20704,11 @@
       <c r="I475" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
         <v>45900</v>
       </c>
@@ -19239,8 +20739,11 @@
       <c r="I476" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
         <v>45900</v>
       </c>
@@ -19271,8 +20774,11 @@
       <c r="I477" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>45900</v>
       </c>
@@ -19303,8 +20809,11 @@
       <c r="I478" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>45900</v>
       </c>
@@ -19335,8 +20844,11 @@
       <c r="I479" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
         <v>45900</v>
       </c>
@@ -19367,8 +20879,11 @@
       <c r="I480" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>45900</v>
       </c>
@@ -19399,8 +20914,11 @@
       <c r="I481" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
         <v>45900</v>
       </c>
@@ -19431,8 +20949,11 @@
       <c r="I482" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
         <v>45900</v>
       </c>
@@ -19463,8 +20984,11 @@
       <c r="I483" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>45900</v>
       </c>
@@ -19495,8 +21019,11 @@
       <c r="I484" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>45900</v>
       </c>
@@ -19527,8 +21054,11 @@
       <c r="I485" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>45900</v>
       </c>
@@ -19559,8 +21089,11 @@
       <c r="I486" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>45900</v>
       </c>
@@ -19591,8 +21124,11 @@
       <c r="I487" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
         <v>45904</v>
       </c>
@@ -19623,8 +21159,11 @@
       <c r="I488" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
         <v>45904</v>
       </c>
@@ -19655,8 +21194,11 @@
       <c r="I489" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>45904</v>
       </c>
@@ -19687,8 +21229,11 @@
       <c r="I490" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
         <v>45904</v>
       </c>
@@ -19719,8 +21264,11 @@
       <c r="I491" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>45904</v>
       </c>
@@ -19751,8 +21299,11 @@
       <c r="I492" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>45904</v>
       </c>
@@ -19783,8 +21334,11 @@
       <c r="I493" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
         <v>45904</v>
       </c>
@@ -19815,8 +21369,11 @@
       <c r="I494" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
         <v>45904</v>
       </c>
@@ -19847,8 +21404,11 @@
       <c r="I495" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>45904</v>
       </c>
@@ -19879,8 +21439,11 @@
       <c r="I496" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
         <v>45904</v>
       </c>
@@ -19911,8 +21474,11 @@
       <c r="I497" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>45904</v>
       </c>
@@ -19943,8 +21509,11 @@
       <c r="I498" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>45904</v>
       </c>
@@ -19975,8 +21544,11 @@
       <c r="I499" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>45904</v>
       </c>
@@ -20007,8 +21579,11 @@
       <c r="I500" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>45904</v>
       </c>
@@ -20039,8 +21614,11 @@
       <c r="I501" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>45904</v>
       </c>
@@ -20071,8 +21649,11 @@
       <c r="I502" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
         <v>45904</v>
       </c>
@@ -20103,8 +21684,11 @@
       <c r="I503" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>45904</v>
       </c>
@@ -20135,8 +21719,11 @@
       <c r="I504" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>45904</v>
       </c>
@@ -20167,8 +21754,11 @@
       <c r="I505" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>45904</v>
       </c>
@@ -20198,12 +21788,715 @@
       </c>
       <c r="I506" s="10">
         <v>0</v>
+      </c>
+      <c r="J506" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B507" s="7">
+        <v>1</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D507" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E507" s="7">
+        <v>1</v>
+      </c>
+      <c r="F507" s="8">
+        <v>2</v>
+      </c>
+      <c r="G507" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H507" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I507" s="10">
+        <v>0</v>
+      </c>
+      <c r="J507" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B508" s="7">
+        <v>3</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D508" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E508" s="7">
+        <v>1</v>
+      </c>
+      <c r="F508" s="8">
+        <v>1</v>
+      </c>
+      <c r="G508" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H508" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I508" s="10">
+        <v>0</v>
+      </c>
+      <c r="J508" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B509" s="7">
+        <v>3</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D509" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E509" s="7">
+        <v>1</v>
+      </c>
+      <c r="F509" s="8">
+        <v>0</v>
+      </c>
+      <c r="G509" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H509" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I509" s="10">
+        <v>0</v>
+      </c>
+      <c r="J509" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B510" s="7">
+        <v>1</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D510" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E510" s="7">
+        <v>1</v>
+      </c>
+      <c r="F510" s="8">
+        <v>4</v>
+      </c>
+      <c r="G510" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H510" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I510" s="10">
+        <v>0</v>
+      </c>
+      <c r="J510" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B511" s="7">
+        <v>2</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D511" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E511" s="7">
+        <v>4</v>
+      </c>
+      <c r="F511" s="8">
+        <v>0</v>
+      </c>
+      <c r="G511" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H511" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I511" s="10">
+        <v>1</v>
+      </c>
+      <c r="J511" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B512" s="7">
+        <v>3</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D512" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E512" s="7">
+        <v>3</v>
+      </c>
+      <c r="F512" s="8">
+        <v>1</v>
+      </c>
+      <c r="G512" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H512" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I512" s="10">
+        <v>0</v>
+      </c>
+      <c r="J512" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B513" s="7">
+        <v>1</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D513" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E513" s="7">
+        <v>0</v>
+      </c>
+      <c r="F513" s="8">
+        <v>0</v>
+      </c>
+      <c r="G513" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H513" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I513" s="10">
+        <v>0</v>
+      </c>
+      <c r="J513" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B514" s="7">
+        <v>1</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D514" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E514" s="7">
+        <v>2</v>
+      </c>
+      <c r="F514" s="8">
+        <v>0</v>
+      </c>
+      <c r="G514" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H514" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I514" s="10">
+        <v>0</v>
+      </c>
+      <c r="J514" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B515" s="7">
+        <v>1</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D515" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E515" s="7">
+        <v>2</v>
+      </c>
+      <c r="F515" s="8">
+        <v>0</v>
+      </c>
+      <c r="G515" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H515" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I515" s="10">
+        <v>0</v>
+      </c>
+      <c r="J515" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B516" s="7">
+        <v>3</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D516" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E516" s="7">
+        <v>1</v>
+      </c>
+      <c r="F516" s="8">
+        <v>1</v>
+      </c>
+      <c r="G516" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H516" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I516" s="10">
+        <v>0</v>
+      </c>
+      <c r="J516" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B517" s="7">
+        <v>2</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D517" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E517" s="7">
+        <v>1</v>
+      </c>
+      <c r="F517" s="8">
+        <v>0</v>
+      </c>
+      <c r="G517" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H517" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I517" s="10">
+        <v>0</v>
+      </c>
+      <c r="J517" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B518" s="7">
+        <v>3</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D518" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E518" s="7">
+        <v>3</v>
+      </c>
+      <c r="F518" s="8">
+        <v>1</v>
+      </c>
+      <c r="G518" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H518" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I518" s="10">
+        <v>0</v>
+      </c>
+      <c r="J518" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B519" s="7">
+        <v>1</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D519" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E519" s="7">
+        <v>0</v>
+      </c>
+      <c r="F519" s="8">
+        <v>0</v>
+      </c>
+      <c r="G519" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H519" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I519" s="10">
+        <v>2</v>
+      </c>
+      <c r="J519" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B520" s="7">
+        <v>2</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D520" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E520" s="7">
+        <v>2</v>
+      </c>
+      <c r="F520" s="8">
+        <v>3</v>
+      </c>
+      <c r="G520" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H520" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I520" s="10">
+        <v>1</v>
+      </c>
+      <c r="J520" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B521" s="7">
+        <v>3</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D521" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E521" s="7">
+        <v>1</v>
+      </c>
+      <c r="F521" s="8">
+        <v>2</v>
+      </c>
+      <c r="G521" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H521" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I521" s="10">
+        <v>0</v>
+      </c>
+      <c r="J521" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B522" s="7">
+        <v>2</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D522" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E522" s="7">
+        <v>2</v>
+      </c>
+      <c r="F522" s="8">
+        <v>4</v>
+      </c>
+      <c r="G522" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H522" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I522" s="10">
+        <v>0</v>
+      </c>
+      <c r="J522" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B523" s="7">
+        <v>2</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D523" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дядя Руслан</v>
+      </c>
+      <c r="E523" s="7">
+        <v>0</v>
+      </c>
+      <c r="F523" s="8">
+        <v>1</v>
+      </c>
+      <c r="G523" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H523" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I523" s="10">
+        <v>0</v>
+      </c>
+      <c r="J523" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B524" s="7">
+        <v>2</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D524" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E524" s="7">
+        <v>2</v>
+      </c>
+      <c r="F524" s="8">
+        <v>3</v>
+      </c>
+      <c r="G524" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H524" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I524" s="10">
+        <v>0</v>
+      </c>
+      <c r="J524" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B525" s="7">
+        <v>1</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D525" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег</v>
+      </c>
+      <c r="E525" s="7">
+        <v>0</v>
+      </c>
+      <c r="F525" s="8">
+        <v>0</v>
+      </c>
+      <c r="G525" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H525" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I525" s="10">
+        <v>0</v>
+      </c>
+      <c r="J525" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" s="6">
+        <v>45907</v>
+      </c>
+      <c r="B526" s="7">
+        <v>2</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D526" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E526" s="7">
+        <v>3</v>
+      </c>
+      <c r="F526" s="8">
+        <v>1</v>
+      </c>
+      <c r="G526" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H526" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I526" s="10">
+        <v>5</v>
+      </c>
+      <c r="J526" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C506" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C526" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -20220,10 +22513,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20231,10 +22524,10 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20247,8 +22540,11 @@
       <c r="D1" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>45806</v>
       </c>
@@ -20261,8 +22557,11 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>45806</v>
       </c>
@@ -20275,8 +22574,11 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>45806</v>
       </c>
@@ -20289,8 +22591,11 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>45809</v>
       </c>
@@ -20303,8 +22608,11 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>45809</v>
       </c>
@@ -20317,8 +22625,11 @@
       <c r="D6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>45809</v>
       </c>
@@ -20331,8 +22642,11 @@
       <c r="D7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>45813</v>
       </c>
@@ -20345,8 +22659,11 @@
       <c r="D8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>45813</v>
       </c>
@@ -20359,8 +22676,11 @@
       <c r="D9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45813</v>
       </c>
@@ -20373,8 +22693,11 @@
       <c r="D10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>45816</v>
       </c>
@@ -20387,8 +22710,11 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>45816</v>
       </c>
@@ -20401,8 +22727,11 @@
       <c r="D12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>45816</v>
       </c>
@@ -20415,8 +22744,11 @@
       <c r="D13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>45816</v>
       </c>
@@ -20429,8 +22761,11 @@
       <c r="D14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>45820</v>
       </c>
@@ -20443,8 +22778,11 @@
       <c r="D15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>45820</v>
       </c>
@@ -20457,8 +22795,11 @@
       <c r="D16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>45820</v>
       </c>
@@ -20471,8 +22812,11 @@
       <c r="D17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>45823</v>
       </c>
@@ -20485,8 +22829,11 @@
       <c r="D18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>45823</v>
       </c>
@@ -20499,8 +22846,11 @@
       <c r="D19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>45823</v>
       </c>
@@ -20513,8 +22863,11 @@
       <c r="D20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>45827</v>
       </c>
@@ -20527,8 +22880,11 @@
       <c r="D21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>45827</v>
       </c>
@@ -20541,8 +22897,11 @@
       <c r="D22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>45827</v>
       </c>
@@ -20555,8 +22914,11 @@
       <c r="D23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>45830</v>
       </c>
@@ -20569,8 +22931,11 @@
       <c r="D24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>45830</v>
       </c>
@@ -20583,8 +22948,11 @@
       <c r="D25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45830</v>
       </c>
@@ -20597,8 +22965,11 @@
       <c r="D26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>45834</v>
       </c>
@@ -20611,8 +22982,11 @@
       <c r="D27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>45834</v>
       </c>
@@ -20625,8 +22999,11 @@
       <c r="D28" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>45834</v>
       </c>
@@ -20639,8 +23016,11 @@
       <c r="D29" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>45837</v>
       </c>
@@ -20653,8 +23033,11 @@
       <c r="D30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>45837</v>
       </c>
@@ -20667,8 +23050,11 @@
       <c r="D31" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>45837</v>
       </c>
@@ -20681,8 +23067,11 @@
       <c r="D32" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>45837</v>
       </c>
@@ -20695,8 +23084,11 @@
       <c r="D33" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>45855</v>
       </c>
@@ -20709,8 +23101,11 @@
       <c r="D34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>45855</v>
       </c>
@@ -20723,8 +23118,11 @@
       <c r="D35" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>45855</v>
       </c>
@@ -20737,8 +23135,11 @@
       <c r="D36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>45858</v>
       </c>
@@ -20751,8 +23152,11 @@
       <c r="D37" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>45858</v>
       </c>
@@ -20765,8 +23169,11 @@
       <c r="D38" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>45858</v>
       </c>
@@ -20779,8 +23186,11 @@
       <c r="D39" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>45862</v>
       </c>
@@ -20793,8 +23203,11 @@
       <c r="D40" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>45862</v>
       </c>
@@ -20807,8 +23220,11 @@
       <c r="D41" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>45862</v>
       </c>
@@ -20821,8 +23237,11 @@
       <c r="D42" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>45865</v>
       </c>
@@ -20835,8 +23254,11 @@
       <c r="D43" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>45865</v>
       </c>
@@ -20849,8 +23271,11 @@
       <c r="D44" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>45865</v>
       </c>
@@ -20863,8 +23288,11 @@
       <c r="D45" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>45869</v>
       </c>
@@ -20877,8 +23305,11 @@
       <c r="D46" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>45869</v>
       </c>
@@ -20891,8 +23322,11 @@
       <c r="D47" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>45869</v>
       </c>
@@ -20905,8 +23339,11 @@
       <c r="D48" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>45872</v>
       </c>
@@ -20919,8 +23356,11 @@
       <c r="D49" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>45872</v>
       </c>
@@ -20933,8 +23373,11 @@
       <c r="D50" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>45872</v>
       </c>
@@ -20947,8 +23390,11 @@
       <c r="D51" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>45876</v>
       </c>
@@ -20961,8 +23407,11 @@
       <c r="D52" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>45876</v>
       </c>
@@ -20975,8 +23424,11 @@
       <c r="D53" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>45876</v>
       </c>
@@ -20989,8 +23441,11 @@
       <c r="D54" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>45883</v>
       </c>
@@ -21003,8 +23458,11 @@
       <c r="D55" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>45883</v>
       </c>
@@ -21017,8 +23475,11 @@
       <c r="D56" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>45883</v>
       </c>
@@ -21031,8 +23492,11 @@
       <c r="D57" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>45886</v>
       </c>
@@ -21045,8 +23509,11 @@
       <c r="D58" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>45886</v>
       </c>
@@ -21059,8 +23526,11 @@
       <c r="D59" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>45886</v>
       </c>
@@ -21073,8 +23543,11 @@
       <c r="D60" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>45886</v>
       </c>
@@ -21087,8 +23560,11 @@
       <c r="D61" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>45890</v>
       </c>
@@ -21101,8 +23577,11 @@
       <c r="D62" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>45890</v>
       </c>
@@ -21115,8 +23594,11 @@
       <c r="D63" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>45890</v>
       </c>
@@ -21129,8 +23611,11 @@
       <c r="D64" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>45893</v>
       </c>
@@ -21143,8 +23628,11 @@
       <c r="D65" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>45893</v>
       </c>
@@ -21157,8 +23645,11 @@
       <c r="D66" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>45897</v>
       </c>
@@ -21171,8 +23662,11 @@
       <c r="D67" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>45897</v>
       </c>
@@ -21185,8 +23679,11 @@
       <c r="D68" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>45897</v>
       </c>
@@ -21199,8 +23696,11 @@
       <c r="D69" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>45900</v>
       </c>
@@ -21213,8 +23713,11 @@
       <c r="D70" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>45900</v>
       </c>
@@ -21227,8 +23730,11 @@
       <c r="D71" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>45900</v>
       </c>
@@ -21241,8 +23747,11 @@
       <c r="D72" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>45900</v>
       </c>
@@ -21255,8 +23764,11 @@
       <c r="D73" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>45904</v>
       </c>
@@ -21269,8 +23781,11 @@
       <c r="D74" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>45904</v>
       </c>
@@ -21283,8 +23798,11 @@
       <c r="D75" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>45904</v>
       </c>
@@ -21297,10 +23815,64 @@
       <c r="D76" s="8">
         <v>1</v>
       </c>
+      <c r="E76" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>45907</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>45907</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>45907</v>
+      </c>
+      <c r="B79" s="7">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>3</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B76" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B79" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C87F6-F6F3-47FE-95DE-2994EEA40831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028E41B-0B2F-418F-A1CF-2890D0ADE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="30" windowWidth="13350" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13125" yWindow="780" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="107">
   <si>
     <t>player_id</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>УПК</t>
+  </si>
+  <si>
+    <t>Ваня (Иван+1)</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G89" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:G89" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G90" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G90" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
@@ -1245,8 +1248,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J526" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J526" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J546" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J546" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1273,8 +1276,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E79" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E79" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E82" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E82" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
@@ -1552,10 +1555,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,23 +1632,23 @@
       </c>
       <c r="C3" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F3" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1657,7 +1660,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1665,15 +1668,15 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1721,15 +1724,15 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1773,19 +1776,19 @@
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,15 +1864,15 @@
       </c>
       <c r="E11" s="21">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="22">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="22">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1885,19 +1888,19 @@
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1909,23 +1912,23 @@
       </c>
       <c r="C13" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F13" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1973,15 +1976,15 @@
       </c>
       <c r="E15" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2057,15 +2060,15 @@
       </c>
       <c r="E18" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,7 +2108,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2113,15 +2116,15 @@
       </c>
       <c r="E20" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2169,15 +2172,15 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F22" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2193,19 +2196,19 @@
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2277,19 +2280,19 @@
       </c>
       <c r="D26" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2309,15 +2312,15 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2337,15 +2340,15 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,7 +2416,7 @@
       </c>
       <c r="C31" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2421,15 +2424,15 @@
       </c>
       <c r="E31" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="C36" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2561,15 +2564,15 @@
       </c>
       <c r="E36" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F36" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2645,15 +2648,15 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3757,23 +3760,23 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F79" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4054,6 +4057,34 @@
       <c r="G89" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D90" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F90" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4069,10 +4100,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J546"/>
   <sheetViews>
-    <sheetView topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="J507" sqref="J507:J526"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="J527" sqref="J527:J546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22493,10 +22524,710 @@
         <v>105</v>
       </c>
     </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B527" s="7">
+        <v>1</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D527" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Костюнин</v>
+      </c>
+      <c r="E527" s="7">
+        <v>0</v>
+      </c>
+      <c r="F527" s="8">
+        <v>0</v>
+      </c>
+      <c r="G527" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H527" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I527" s="10">
+        <v>0</v>
+      </c>
+      <c r="J527" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B528" s="7">
+        <v>1</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D528" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E528" s="7">
+        <v>0</v>
+      </c>
+      <c r="F528" s="8">
+        <v>2</v>
+      </c>
+      <c r="G528" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H528" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I528" s="10">
+        <v>0</v>
+      </c>
+      <c r="J528" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B529" s="7">
+        <v>1</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D529" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E529" s="7">
+        <v>0</v>
+      </c>
+      <c r="F529" s="8">
+        <v>0</v>
+      </c>
+      <c r="G529" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H529" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I529" s="10">
+        <v>0</v>
+      </c>
+      <c r="J529" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B530" s="7">
+        <v>1</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D530" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E530" s="7">
+        <v>0</v>
+      </c>
+      <c r="F530" s="8">
+        <v>0</v>
+      </c>
+      <c r="G530" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H530" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I530" s="10">
+        <v>0</v>
+      </c>
+      <c r="J530" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B531" s="7">
+        <v>1</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D531" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E531" s="7">
+        <v>2</v>
+      </c>
+      <c r="F531" s="8">
+        <v>0</v>
+      </c>
+      <c r="G531" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H531" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I531" s="10">
+        <v>0</v>
+      </c>
+      <c r="J531" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B532" s="7">
+        <v>1</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D532" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E532" s="7">
+        <v>0</v>
+      </c>
+      <c r="F532" s="8">
+        <v>0</v>
+      </c>
+      <c r="G532" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H532" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I532" s="10">
+        <v>1</v>
+      </c>
+      <c r="J532" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B533" s="7">
+        <v>2</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D533" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Костя</v>
+      </c>
+      <c r="E533" s="7">
+        <v>2</v>
+      </c>
+      <c r="F533" s="8">
+        <v>2</v>
+      </c>
+      <c r="G533" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H533" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I533" s="10">
+        <v>0</v>
+      </c>
+      <c r="J533" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B534" s="7">
+        <v>2</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D534" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E534" s="7">
+        <v>4</v>
+      </c>
+      <c r="F534" s="8">
+        <v>3</v>
+      </c>
+      <c r="G534" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H534" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I534" s="10">
+        <v>0</v>
+      </c>
+      <c r="J534" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B535" s="7">
+        <v>2</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D535" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E535" s="7">
+        <v>6</v>
+      </c>
+      <c r="F535" s="8">
+        <v>3</v>
+      </c>
+      <c r="G535" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H535" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I535" s="10">
+        <v>0</v>
+      </c>
+      <c r="J535" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B536" s="7">
+        <v>2</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D536" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E536" s="7">
+        <v>0</v>
+      </c>
+      <c r="F536" s="8">
+        <v>2</v>
+      </c>
+      <c r="G536" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H536" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I536" s="10">
+        <v>0</v>
+      </c>
+      <c r="J536" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B537" s="7">
+        <v>2</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D537" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E537" s="7">
+        <v>0</v>
+      </c>
+      <c r="F537" s="8">
+        <v>2</v>
+      </c>
+      <c r="G537" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H537" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I537" s="10">
+        <v>0</v>
+      </c>
+      <c r="J537" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B538" s="7">
+        <v>2</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D538" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E538" s="7">
+        <v>0</v>
+      </c>
+      <c r="F538" s="8">
+        <v>0</v>
+      </c>
+      <c r="G538" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>8</v>
+      </c>
+      <c r="H538" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I538" s="10">
+        <v>2</v>
+      </c>
+      <c r="J538" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B539" s="7">
+        <v>3</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D539" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Илшат</v>
+      </c>
+      <c r="E539" s="7">
+        <v>0</v>
+      </c>
+      <c r="F539" s="8">
+        <v>0</v>
+      </c>
+      <c r="G539" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H539" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I539" s="10">
+        <v>0</v>
+      </c>
+      <c r="J539" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B540" s="7">
+        <v>3</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D540" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Вова</v>
+      </c>
+      <c r="E540" s="7">
+        <v>0</v>
+      </c>
+      <c r="F540" s="8">
+        <v>0</v>
+      </c>
+      <c r="G540" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H540" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I540" s="10">
+        <v>0</v>
+      </c>
+      <c r="J540" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B541" s="7">
+        <v>3</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D541" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Атай</v>
+      </c>
+      <c r="E541" s="7">
+        <v>1</v>
+      </c>
+      <c r="F541" s="8">
+        <v>0</v>
+      </c>
+      <c r="G541" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H541" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I541" s="10">
+        <v>0</v>
+      </c>
+      <c r="J541" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B542" s="7">
+        <v>3</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D542" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Василий Улитин</v>
+      </c>
+      <c r="E542" s="7">
+        <v>1</v>
+      </c>
+      <c r="F542" s="8">
+        <v>0</v>
+      </c>
+      <c r="G542" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H542" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I542" s="10">
+        <v>0</v>
+      </c>
+      <c r="J542" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B543" s="7">
+        <v>3</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D543" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Иван</v>
+      </c>
+      <c r="E543" s="7">
+        <v>1</v>
+      </c>
+      <c r="F543" s="8">
+        <v>0</v>
+      </c>
+      <c r="G543" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H543" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I543" s="10">
+        <v>0</v>
+      </c>
+      <c r="J543" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B544" s="7">
+        <v>3</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D544" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эля</v>
+      </c>
+      <c r="E544" s="7">
+        <v>0</v>
+      </c>
+      <c r="F544" s="8">
+        <v>2</v>
+      </c>
+      <c r="G544" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H544" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I544" s="10">
+        <v>0</v>
+      </c>
+      <c r="J544" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B545" s="7">
+        <v>3</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D545" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (Иван+1)</v>
+      </c>
+      <c r="E545" s="7">
+        <v>1</v>
+      </c>
+      <c r="F545" s="8">
+        <v>1</v>
+      </c>
+      <c r="G545" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H545" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I545" s="10">
+        <v>1</v>
+      </c>
+      <c r="J545" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" s="6">
+        <v>45911</v>
+      </c>
+      <c r="B546" s="7">
+        <v>1</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D546" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E546" s="7">
+        <v>0</v>
+      </c>
+      <c r="F546" s="8">
+        <v>0</v>
+      </c>
+      <c r="G546" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H546" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I546" s="10">
+        <v>1</v>
+      </c>
+      <c r="J546" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C526" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C546" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -22513,10 +23244,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23870,9 +24601,60 @@
         <v>105</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>45911</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>45911</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8">
+        <v>8</v>
+      </c>
+      <c r="D81" s="8">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>45911</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3</v>
+      </c>
+      <c r="C82" s="8">
+        <v>2</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B79" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028E41B-0B2F-418F-A1CF-2890D0ADE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FE681-74F3-4A7B-81EB-9690C842F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="780" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t>Нарек (АК+1)</t>
   </si>
   <si>
-    <t>Антон Копыч</t>
-  </si>
-  <si>
     <t>Сониксоннов Сергей</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Ваня (Иван+1)</t>
+  </si>
+  <si>
+    <t>Антон Копач</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1557,8 @@
   </sheetPr>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3753,10 +3753,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -4102,8 +4102,8 @@
   </sheetPr>
   <dimension ref="A1:J546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="J527" sqref="J527:J546"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="E529" sqref="E529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="J205" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="J266" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -14226,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="J291" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -14401,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -14506,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -14576,7 +14576,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="J300" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="J301" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -14657,11 +14657,11 @@
         <v>3</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D302" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E302" s="7">
         <v>3</v>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
       <c r="J303" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -14751,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="J305" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="J307" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -14891,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="J309" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -14961,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="J311" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -15031,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -15066,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="J313" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -15101,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="J314" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="J315" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="J316" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="J317" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="J318" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="J319" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="J320" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="J321" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="J322" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="J323" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="J324" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -15486,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="J325" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -15521,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="J326" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="J327" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -15591,7 +15591,7 @@
         <v>0</v>
       </c>
       <c r="J328" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="J329" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="J330" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -15672,11 +15672,11 @@
         <v>1</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D331" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="J331" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D332" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="J332" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -15766,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="J333" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D334" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="J334" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="J335" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -15847,7 +15847,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D336" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="J336" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="J337" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="J338" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -15952,7 +15952,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D339" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="J339" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="J340" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="J341" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="J342" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="J343" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="J344" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -16162,11 +16162,11 @@
         <v>3</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D345" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E345" s="7">
         <v>1</v>
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="J345" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J346" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="J347" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="J348" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -16326,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="J349" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="J350" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="J351" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -16431,7 +16431,7 @@
         <v>0</v>
       </c>
       <c r="J352" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="J353" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -16501,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="J354" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -16536,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="J355" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -16547,7 +16547,7 @@
         <v>2</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D356" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="J356" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="J357" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="J358" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="J359" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -16711,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="J360" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -16746,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="J361" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="J362" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="J363" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -16851,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="J364" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="J365" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -16921,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="J366" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="J367" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="J368" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="J369" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="J370" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>3</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D371" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="J371" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="J372" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="J373" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="J374" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="J375" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="J376" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="J377" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="J378" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="J379" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -17411,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="J380" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -17446,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="J381" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="J382" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="J383" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="J384" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="J385" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -17597,11 +17597,11 @@
         <v>4</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D386" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E386" s="7">
         <v>2</v>
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="J386" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="J387" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="J388" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="J389" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -17761,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="J390" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="J391" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -17807,7 +17807,7 @@
         <v>2</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D392" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="J392" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
       <c r="J393" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -17901,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="J394" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="J395" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="J396" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="J397" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="J398" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -18076,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="J399" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -18087,7 +18087,7 @@
         <v>3</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D400" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="J400" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="J401" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -18181,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="J402" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -18216,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="J403" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="J404" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="J405" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="J406" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="J407" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="J408" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="J409" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -18461,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="J410" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="J411" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -18531,7 +18531,7 @@
         <v>0</v>
       </c>
       <c r="J412" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="J413" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="J414" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="J415" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -18671,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="J416" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -18706,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="J417" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="J418" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="J419" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -18787,7 +18787,7 @@
         <v>2</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D420" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="J420" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="J421" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -18881,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="J422" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="J423" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -18951,7 +18951,7 @@
         <v>0</v>
       </c>
       <c r="J424" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -18962,7 +18962,7 @@
         <v>2</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D425" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="J425" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="J426" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="J427" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -19091,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="J428" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="J429" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="J430" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="J431" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="J432" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="J433" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="J434" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J435" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -19371,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="J436" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="J437" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="J438" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="J439" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -19511,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="J440" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="J441" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -19557,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D442" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="J442" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="J443" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -19627,7 +19627,7 @@
         <v>1</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D444" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="J444" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="J445" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -19721,7 +19721,7 @@
         <v>0</v>
       </c>
       <c r="J446" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="J447" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -19791,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="J448" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -19826,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="J449" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -19861,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="J450" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -19872,7 +19872,7 @@
         <v>3</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D451" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="J451" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="J452" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="J453" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
@@ -20001,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="J454" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="J455" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="J456" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="J457" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="J458" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="J459" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -20211,7 +20211,7 @@
         <v>0</v>
       </c>
       <c r="J460" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="J461" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="J462" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="J463" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -20351,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="J464" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="J465" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="J466" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -20432,11 +20432,11 @@
         <v>3</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D467" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E467" s="7">
         <v>2</v>
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="J467" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
@@ -20491,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="J468" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="J469" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="J470" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="J471" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="J472" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="J473" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="J474" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="J475" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="J476" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="J477" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="J478" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="J479" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -20911,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="J480" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -20922,7 +20922,7 @@
         <v>2</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D481" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -20946,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="J481" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="J482" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="J483" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -21051,7 +21051,7 @@
         <v>0</v>
       </c>
       <c r="J484" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="J485" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="J486" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="J487" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -21167,7 +21167,7 @@
         <v>1</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D488" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="J488" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="J489" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="J490" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -21296,7 +21296,7 @@
         <v>2</v>
       </c>
       <c r="J491" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -21331,7 +21331,7 @@
         <v>1</v>
       </c>
       <c r="J492" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -21366,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="J493" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="J494" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -21436,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="J495" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -21471,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="J496" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -21506,7 +21506,7 @@
         <v>3</v>
       </c>
       <c r="J497" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -21541,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="J498" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -21576,7 +21576,7 @@
         <v>2</v>
       </c>
       <c r="J499" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -21587,11 +21587,11 @@
         <v>3</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D500" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E500" s="7">
         <v>3</v>
@@ -21611,7 +21611,7 @@
         <v>1</v>
       </c>
       <c r="J500" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -21646,7 +21646,7 @@
         <v>1</v>
       </c>
       <c r="J501" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -21681,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="J502" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -21716,7 +21716,7 @@
         <v>1</v>
       </c>
       <c r="J503" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -21751,7 +21751,7 @@
         <v>1</v>
       </c>
       <c r="J504" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -21786,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="J505" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -21821,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="J506" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="J507" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -21891,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="J508" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="J509" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="J510" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -21996,7 +21996,7 @@
         <v>1</v>
       </c>
       <c r="J511" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -22031,7 +22031,7 @@
         <v>0</v>
       </c>
       <c r="J512" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
@@ -22066,7 +22066,7 @@
         <v>0</v>
       </c>
       <c r="J513" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
@@ -22101,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="J514" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -22112,11 +22112,11 @@
         <v>1</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D515" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E515" s="7">
         <v>2</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="J515" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -22171,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="J516" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="J517" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="J518" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -22276,7 +22276,7 @@
         <v>2</v>
       </c>
       <c r="J519" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="J520" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -22346,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="J521" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="J522" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -22416,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="J523" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J524" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
@@ -22462,31 +22462,31 @@
         <v>1</v>
       </c>
       <c r="C525" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D525" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег</v>
+      </c>
+      <c r="E525" s="7">
+        <v>0</v>
+      </c>
+      <c r="F525" s="8">
+        <v>0</v>
+      </c>
+      <c r="G525" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="H525" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="I525" s="10">
+        <v>0</v>
+      </c>
+      <c r="J525" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D525" s="10" t="str">
-        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Олег</v>
-      </c>
-      <c r="E525" s="7">
-        <v>0</v>
-      </c>
-      <c r="F525" s="8">
-        <v>0</v>
-      </c>
-      <c r="G525" s="10">
-        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>1</v>
-      </c>
-      <c r="H525" s="10">
-        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
-        <v>3</v>
-      </c>
-      <c r="I525" s="10">
-        <v>0</v>
-      </c>
-      <c r="J525" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
@@ -22521,7 +22521,7 @@
         <v>5</v>
       </c>
       <c r="J526" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="J527" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="J528" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="F529" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G529" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="J529" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="J530" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="J531" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
@@ -22731,7 +22731,7 @@
         <v>1</v>
       </c>
       <c r="J532" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -22766,7 +22766,7 @@
         <v>0</v>
       </c>
       <c r="J533" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="J534" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
@@ -22812,11 +22812,11 @@
         <v>2</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D535" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
-        <v>Антон Копыч</v>
+        <v>Антон Копач</v>
       </c>
       <c r="E535" s="7">
         <v>6</v>
@@ -22836,7 +22836,7 @@
         <v>0</v>
       </c>
       <c r="J535" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -22871,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="J536" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -22906,7 +22906,7 @@
         <v>0</v>
       </c>
       <c r="J537" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -22941,7 +22941,7 @@
         <v>2</v>
       </c>
       <c r="J538" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -22976,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="J539" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -23011,7 +23011,7 @@
         <v>0</v>
       </c>
       <c r="J540" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -23046,7 +23046,7 @@
         <v>0</v>
       </c>
       <c r="J541" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="J542" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
@@ -23116,7 +23116,7 @@
         <v>0</v>
       </c>
       <c r="J543" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="J544" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -23162,7 +23162,7 @@
         <v>3</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D545" s="10" t="str">
         <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
@@ -23186,7 +23186,7 @@
         <v>1</v>
       </c>
       <c r="J545" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -23221,7 +23221,7 @@
         <v>1</v>
       </c>
       <c r="J546" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -23269,10 +23269,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -23442,7 +23442,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -23493,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -23527,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -23544,7 +23544,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -23578,7 +23578,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -23646,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -23663,7 +23663,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -23731,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -23833,7 +23833,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -23850,7 +23850,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -24088,7 +24088,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -24156,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -24173,7 +24173,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -24309,7 +24309,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -24343,7 +24343,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -24428,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -24462,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -24479,7 +24479,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -24513,7 +24513,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -24530,7 +24530,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -24547,7 +24547,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -24564,7 +24564,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -24581,7 +24581,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -24598,7 +24598,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -24632,7 +24632,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -24649,7 +24649,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FE681-74F3-4A7B-81EB-9690C842F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31160638-1475-40B4-9D03-DF8DB3EA69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
   <dimension ref="A1:J546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="E529" sqref="E529"/>
+      <selection activeCell="E531" sqref="E531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22679,7 +22679,7 @@
         <v>Сергей</v>
       </c>
       <c r="E531" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F531" s="8">
         <v>0</v>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31160638-1475-40B4-9D03-DF8DB3EA69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A5F24-E859-49E7-8D6A-5C0787A17DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D3" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G3" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4102,8 +4102,8 @@
   </sheetPr>
   <dimension ref="A1:J546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="E531" sqref="E531"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="F533" sqref="F533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22752,7 +22752,7 @@
         <v>2</v>
       </c>
       <c r="F533" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G533" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028E41B-0B2F-418F-A1CF-2890D0ADE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF6020-C44C-4C56-9350-D949872DBACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="780" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="105" windowWidth="13350" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="113">
   <si>
     <t>player_id</t>
   </si>
@@ -377,6 +377,24 @@
   <si>
     <t>Ваня (Иван+1)</t>
   </si>
+  <si>
+    <t>Дэн (Нурик+1)</t>
+  </si>
+  <si>
+    <t>Умар (Женя+1)</t>
+  </si>
+  <si>
+    <t>Саша (Витя+1)</t>
+  </si>
+  <si>
+    <t>Сергей (АК+1)</t>
+  </si>
+  <si>
+    <t>Андрей (Олег+1)</t>
+  </si>
+  <si>
+    <t>Фуад</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +688,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,8 +1240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G90" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:G90" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G96" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G96" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
@@ -1248,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J546" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J546" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J569" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J569" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1276,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E82" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E82" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E85" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E85" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
@@ -1555,10 +1576,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1681,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1668,15 +1689,15 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,15 +1745,15 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,7 +1765,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1752,15 +1773,15 @@
       </c>
       <c r="E7" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,23 +1793,23 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,15 +1857,15 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1884,23 +1905,23 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F12" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1948,15 +1969,15 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F14" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2136,23 +2157,23 @@
       </c>
       <c r="C21" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F21" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2172,15 +2193,15 @@
       </c>
       <c r="E22" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F22" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2256,15 +2277,15 @@
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2304,23 +2325,23 @@
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2536,15 +2557,15 @@
       </c>
       <c r="E35" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F35" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2616,19 +2637,19 @@
       </c>
       <c r="D38" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F38" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2648,15 +2669,15 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F39" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2696,7 +2717,7 @@
       </c>
       <c r="C41" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2704,15 +2725,15 @@
       </c>
       <c r="E41" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F41" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,7 +3165,7 @@
       </c>
       <c r="C57" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3152,15 +3173,15 @@
       </c>
       <c r="E57" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3204,19 +3225,19 @@
       </c>
       <c r="D59" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F59" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,23 +3697,23 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F76" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,6 +4106,174 @@
       <c r="G90" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F92" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="G92" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D93" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F93" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G93" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="D94" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F94" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G94" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F95" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>5</v>
+      </c>
+      <c r="F96" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G96" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4100,10 +4289,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J546"/>
+  <dimension ref="A1:J569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="J527" sqref="J527:J546"/>
+    <sheetView topLeftCell="D539" workbookViewId="0">
+      <selection activeCell="J547" sqref="J547:J569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23224,10 +23413,815 @@
         <v>103</v>
       </c>
     </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B547" s="7">
+        <v>1</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D547" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E547" s="7">
+        <v>0</v>
+      </c>
+      <c r="F547" s="8">
+        <v>0</v>
+      </c>
+      <c r="G547" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H547" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I547" s="10">
+        <v>0</v>
+      </c>
+      <c r="J547" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B548" s="7">
+        <v>1</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D548" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E548" s="7">
+        <v>3</v>
+      </c>
+      <c r="F548" s="8">
+        <v>1</v>
+      </c>
+      <c r="G548" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H548" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I548" s="10">
+        <v>0</v>
+      </c>
+      <c r="J548" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B549" s="7">
+        <v>3</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D549" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Толя Шлаев</v>
+      </c>
+      <c r="E549" s="7">
+        <v>0</v>
+      </c>
+      <c r="F549" s="8">
+        <v>0</v>
+      </c>
+      <c r="G549" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H549" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I549" s="10">
+        <v>0</v>
+      </c>
+      <c r="J549" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B550" s="7">
+        <v>3</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D550" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Фуад</v>
+      </c>
+      <c r="E550" s="7">
+        <v>1</v>
+      </c>
+      <c r="F550" s="8">
+        <v>1</v>
+      </c>
+      <c r="G550" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H550" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I550" s="10">
+        <v>0</v>
+      </c>
+      <c r="J550" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B551" s="7">
+        <v>2</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D551" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E551" s="7">
+        <v>2</v>
+      </c>
+      <c r="F551" s="8">
+        <v>2</v>
+      </c>
+      <c r="G551" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H551" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I551" s="10">
+        <v>0</v>
+      </c>
+      <c r="J551" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B552" s="7">
+        <v>2</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D552" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E552" s="7">
+        <v>0</v>
+      </c>
+      <c r="F552" s="8">
+        <v>0</v>
+      </c>
+      <c r="G552" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H552" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I552" s="10">
+        <v>0</v>
+      </c>
+      <c r="J552" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B553" s="7">
+        <v>2</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D553" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E553" s="7">
+        <v>0</v>
+      </c>
+      <c r="F553" s="8">
+        <v>2</v>
+      </c>
+      <c r="G553" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H553" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I553" s="10">
+        <v>0</v>
+      </c>
+      <c r="J553" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A554" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B554" s="7">
+        <v>1</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D554" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E554" s="7">
+        <v>0</v>
+      </c>
+      <c r="F554" s="8">
+        <v>0</v>
+      </c>
+      <c r="G554" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H554" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I554" s="10">
+        <v>0</v>
+      </c>
+      <c r="J554" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A555" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B555" s="7">
+        <v>2</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D555" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E555" s="7">
+        <v>0</v>
+      </c>
+      <c r="F555" s="8">
+        <v>0</v>
+      </c>
+      <c r="G555" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H555" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I555" s="10">
+        <v>5</v>
+      </c>
+      <c r="J555" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B556" s="7">
+        <v>3</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D556" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Юра Пименов</v>
+      </c>
+      <c r="E556" s="7">
+        <v>2</v>
+      </c>
+      <c r="F556" s="8">
+        <v>3</v>
+      </c>
+      <c r="G556" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H556" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I556" s="10">
+        <v>0</v>
+      </c>
+      <c r="J556" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A557" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B557" s="7">
+        <v>2</v>
+      </c>
+      <c r="C557" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D557" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E557" s="7">
+        <v>0</v>
+      </c>
+      <c r="F557" s="8">
+        <v>0</v>
+      </c>
+      <c r="G557" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H557" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I557" s="10">
+        <v>0</v>
+      </c>
+      <c r="J557" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A558" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B558" s="7">
+        <v>2</v>
+      </c>
+      <c r="C558" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D558" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E558" s="7">
+        <v>2</v>
+      </c>
+      <c r="F558" s="8">
+        <v>0</v>
+      </c>
+      <c r="G558" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H558" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I558" s="10">
+        <v>0</v>
+      </c>
+      <c r="J558" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A559" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B559" s="7">
+        <v>3</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D559" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E559" s="7">
+        <v>2</v>
+      </c>
+      <c r="F559" s="8">
+        <v>3</v>
+      </c>
+      <c r="G559" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H559" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I559" s="10">
+        <v>0</v>
+      </c>
+      <c r="J559" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A560" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B560" s="7">
+        <v>3</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D560" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (Нур+1)</v>
+      </c>
+      <c r="E560" s="7">
+        <v>1</v>
+      </c>
+      <c r="F560" s="8">
+        <v>0</v>
+      </c>
+      <c r="G560" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H560" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I560" s="10">
+        <v>0</v>
+      </c>
+      <c r="J560" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B561" s="7">
+        <v>2</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D561" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Умар (Женя+1)</v>
+      </c>
+      <c r="E561" s="7">
+        <v>0</v>
+      </c>
+      <c r="F561" s="8">
+        <v>0</v>
+      </c>
+      <c r="G561" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H561" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I561" s="10">
+        <v>0</v>
+      </c>
+      <c r="J561" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A562" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B562" s="7">
+        <v>1</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D562" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей (АК+1)</v>
+      </c>
+      <c r="E562" s="7">
+        <v>2</v>
+      </c>
+      <c r="F562" s="8">
+        <v>1</v>
+      </c>
+      <c r="G562" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H562" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I562" s="10">
+        <v>0</v>
+      </c>
+      <c r="J562" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A563" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B563" s="7">
+        <v>1</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D563" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита (АК+1)</v>
+      </c>
+      <c r="E563" s="7">
+        <v>0</v>
+      </c>
+      <c r="F563" s="8">
+        <v>1</v>
+      </c>
+      <c r="G563" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H563" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I563" s="10">
+        <v>0</v>
+      </c>
+      <c r="J563" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A564" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B564" s="7">
+        <v>1</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D564" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (Олег+1)</v>
+      </c>
+      <c r="E564" s="7">
+        <v>0</v>
+      </c>
+      <c r="F564" s="8">
+        <v>0</v>
+      </c>
+      <c r="G564" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H564" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I564" s="10">
+        <v>0</v>
+      </c>
+      <c r="J564" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A565" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B565" s="7">
+        <v>3</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D565" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Саша (Витя+1)</v>
+      </c>
+      <c r="E565" s="7">
+        <v>1</v>
+      </c>
+      <c r="F565" s="8">
+        <v>1</v>
+      </c>
+      <c r="G565" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H565" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I565" s="10">
+        <v>0</v>
+      </c>
+      <c r="J565" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A566" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B566" s="7">
+        <v>3</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D566" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E566" s="7">
+        <v>1</v>
+      </c>
+      <c r="F566" s="8">
+        <v>1</v>
+      </c>
+      <c r="G566" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>5</v>
+      </c>
+      <c r="H566" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I566" s="10">
+        <v>0</v>
+      </c>
+      <c r="J566" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A567" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B567" s="7">
+        <v>1</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D567" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Рома Сурнин</v>
+      </c>
+      <c r="E567" s="7">
+        <v>2</v>
+      </c>
+      <c r="F567" s="8">
+        <v>0</v>
+      </c>
+      <c r="G567" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H567" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I567" s="10">
+        <v>0</v>
+      </c>
+      <c r="J567" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A568" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B568" s="7">
+        <v>2</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D568" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Александр Травкин</v>
+      </c>
+      <c r="E568" s="7">
+        <v>3</v>
+      </c>
+      <c r="F568" s="8">
+        <v>0</v>
+      </c>
+      <c r="G568" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H568" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I568" s="10">
+        <v>1</v>
+      </c>
+      <c r="J568" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A569" s="6">
+        <v>45914</v>
+      </c>
+      <c r="B569" s="7">
+        <v>1</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D569" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эльдар</v>
+      </c>
+      <c r="E569" s="7">
+        <v>0</v>
+      </c>
+      <c r="F569" s="8">
+        <v>0</v>
+      </c>
+      <c r="G569" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H569" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I569" s="10">
+        <v>0</v>
+      </c>
+      <c r="J569" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C546" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C569" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -23244,10 +24238,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24652,9 +25646,60 @@
         <v>103</v>
       </c>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>45914</v>
+      </c>
+      <c r="B83" s="7">
+        <v>1</v>
+      </c>
+      <c r="C83" s="8">
+        <v>4</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>45914</v>
+      </c>
+      <c r="B84" s="7">
+        <v>2</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>45914</v>
+      </c>
+      <c r="B85" s="7">
+        <v>3</v>
+      </c>
+      <c r="C85" s="8">
+        <v>5</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B85" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF6020-C44C-4C56-9350-D949872DBACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FC9F8-1514-4713-900E-D96EC579539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="105" windowWidth="13350" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G7" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C12" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="G12" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4291,8 +4291,8 @@
   </sheetPr>
   <dimension ref="A1:J569"/>
   <sheetViews>
-    <sheetView topLeftCell="D539" workbookViewId="0">
-      <selection activeCell="J547" sqref="J547:J569"/>
+    <sheetView tabSelected="1" topLeftCell="D542" workbookViewId="0">
+      <selection activeCell="G556" sqref="G556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23743,10 +23743,10 @@
         <v>Юра Пименов</v>
       </c>
       <c r="E556" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F556" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G556" s="10">
         <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
@@ -24163,7 +24163,7 @@
         <v>Александр Травкин</v>
       </c>
       <c r="E568" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F568" s="8">
         <v>0</v>
@@ -24240,7 +24240,7 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF6020-C44C-4C56-9350-D949872DBACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F928AE0-E229-4698-8E4B-FFC0D250235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="105" windowWidth="13350" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="360" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="115">
   <si>
     <t>player_id</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Фуад</t>
+  </si>
+  <si>
+    <t>Ибрагим (Вася+1)</t>
+  </si>
+  <si>
+    <t>Фируз (Вася+1)</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G96" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:G96" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G98" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G98" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
@@ -1269,8 +1275,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J569" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J569" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J587" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J587" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1297,8 +1303,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E85" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E85" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E88" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
@@ -1576,10 +1582,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,23 +1687,23 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1745,15 +1751,15 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,7 +1799,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1801,15 +1807,15 @@
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,19 +1971,19 @@
       </c>
       <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F14" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2217,19 +2223,19 @@
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2269,23 +2275,23 @@
       </c>
       <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2357,19 +2363,19 @@
       </c>
       <c r="D28" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F28" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,23 +2583,23 @@
       </c>
       <c r="C36" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F36" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2669,15 +2675,15 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F39" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2921,15 +2927,15 @@
       </c>
       <c r="E48" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F48" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3781,23 +3787,23 @@
       </c>
       <c r="C79" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D79" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F79" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3893,23 +3899,23 @@
       </c>
       <c r="C83" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F83" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4005,23 +4011,23 @@
       </c>
       <c r="C87" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D87" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F87" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,23 +4095,23 @@
       </c>
       <c r="C90" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4201,7 +4207,7 @@
       </c>
       <c r="C94" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -4209,15 +4215,15 @@
       </c>
       <c r="E94" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F94" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4237,15 +4243,15 @@
       </c>
       <c r="E95" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F95" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,6 +4280,62 @@
       <c r="G96" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D97" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F97" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>3</v>
+      </c>
+      <c r="D98" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>6</v>
+      </c>
+      <c r="F98" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4289,10 +4351,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J569"/>
+  <dimension ref="A1:J587"/>
   <sheetViews>
-    <sheetView topLeftCell="D539" workbookViewId="0">
-      <selection activeCell="J547" sqref="J547:J569"/>
+    <sheetView tabSelected="1" topLeftCell="E566" workbookViewId="0">
+      <selection activeCell="J570" sqref="J570:J587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24218,10 +24280,640 @@
         <v>105</v>
       </c>
     </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A570" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B570" s="7">
+        <v>1</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D570" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Антон Копыч</v>
+      </c>
+      <c r="E570" s="7">
+        <v>3</v>
+      </c>
+      <c r="F570" s="8">
+        <v>1</v>
+      </c>
+      <c r="G570" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H570" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I570" s="10">
+        <v>0</v>
+      </c>
+      <c r="J570" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A571" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B571" s="7">
+        <v>3</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D571" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Василий Улитин</v>
+      </c>
+      <c r="E571" s="7">
+        <v>3</v>
+      </c>
+      <c r="F571" s="8">
+        <v>1</v>
+      </c>
+      <c r="G571" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H571" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I571" s="10">
+        <v>0</v>
+      </c>
+      <c r="J571" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A572" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B572" s="7">
+        <v>1</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D572" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E572" s="7">
+        <v>2</v>
+      </c>
+      <c r="F572" s="8">
+        <v>2</v>
+      </c>
+      <c r="G572" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H572" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I572" s="10">
+        <v>1</v>
+      </c>
+      <c r="J572" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A573" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B573" s="7">
+        <v>2</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D573" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E573" s="7">
+        <v>0</v>
+      </c>
+      <c r="F573" s="8">
+        <v>1</v>
+      </c>
+      <c r="G573" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H573" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I573" s="10">
+        <v>0</v>
+      </c>
+      <c r="J573" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A574" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B574" s="7">
+        <v>1</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D574" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E574" s="7">
+        <v>0</v>
+      </c>
+      <c r="F574" s="8">
+        <v>0</v>
+      </c>
+      <c r="G574" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H574" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I574" s="10">
+        <v>1</v>
+      </c>
+      <c r="J574" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A575" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B575" s="7">
+        <v>2</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D575" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей (АК+1)</v>
+      </c>
+      <c r="E575" s="7">
+        <v>2</v>
+      </c>
+      <c r="F575" s="8">
+        <v>0</v>
+      </c>
+      <c r="G575" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H575" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I575" s="10">
+        <v>0</v>
+      </c>
+      <c r="J575" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A576" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B576" s="7">
+        <v>1</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D576" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Андрей (Олег+1)</v>
+      </c>
+      <c r="E576" s="7">
+        <v>0</v>
+      </c>
+      <c r="F576" s="8">
+        <v>0</v>
+      </c>
+      <c r="G576" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H576" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I576" s="10">
+        <v>0</v>
+      </c>
+      <c r="J576" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A577" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B577" s="7">
+        <v>3</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D577" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ибрагим (Вася+1)</v>
+      </c>
+      <c r="E577" s="7">
+        <v>3</v>
+      </c>
+      <c r="F577" s="8">
+        <v>0</v>
+      </c>
+      <c r="G577" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H577" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I577" s="10">
+        <v>0</v>
+      </c>
+      <c r="J577" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A578" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B578" s="7">
+        <v>1</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D578" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Нурик</v>
+      </c>
+      <c r="E578" s="7">
+        <v>1</v>
+      </c>
+      <c r="F578" s="8">
+        <v>0</v>
+      </c>
+      <c r="G578" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H578" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I578" s="10">
+        <v>0</v>
+      </c>
+      <c r="J578" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A579" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B579" s="7">
+        <v>1</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D579" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша Орехов</v>
+      </c>
+      <c r="E579" s="7">
+        <v>1</v>
+      </c>
+      <c r="F579" s="8">
+        <v>3</v>
+      </c>
+      <c r="G579" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H579" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I579" s="10">
+        <v>1</v>
+      </c>
+      <c r="J579" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A580" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B580" s="7">
+        <v>2</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D580" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Витя</v>
+      </c>
+      <c r="E580" s="7">
+        <v>0</v>
+      </c>
+      <c r="F580" s="8">
+        <v>1</v>
+      </c>
+      <c r="G580" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H580" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I580" s="10">
+        <v>0</v>
+      </c>
+      <c r="J580" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A581" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B581" s="7">
+        <v>3</v>
+      </c>
+      <c r="C581" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D581" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E581" s="7">
+        <v>1</v>
+      </c>
+      <c r="F581" s="8">
+        <v>4</v>
+      </c>
+      <c r="G581" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H581" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I581" s="10">
+        <v>0</v>
+      </c>
+      <c r="J581" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A582" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B582" s="7">
+        <v>3</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D582" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E582" s="7">
+        <v>0</v>
+      </c>
+      <c r="F582" s="8">
+        <v>1</v>
+      </c>
+      <c r="G582" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H582" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I582" s="10">
+        <v>0</v>
+      </c>
+      <c r="J582" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A583" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B583" s="7">
+        <v>3</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D583" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E583" s="7">
+        <v>0</v>
+      </c>
+      <c r="F583" s="8">
+        <v>0</v>
+      </c>
+      <c r="G583" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H583" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I583" s="10">
+        <v>5</v>
+      </c>
+      <c r="J583" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A584" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B584" s="7">
+        <v>2</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D584" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Энтони Тепеев</v>
+      </c>
+      <c r="E584" s="7">
+        <v>4</v>
+      </c>
+      <c r="F584" s="8">
+        <v>1</v>
+      </c>
+      <c r="G584" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H584" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I584" s="10">
+        <v>0</v>
+      </c>
+      <c r="J584" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A585" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B585" s="7">
+        <v>3</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D585" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Фируз (Вася+1)</v>
+      </c>
+      <c r="E585" s="7">
+        <v>3</v>
+      </c>
+      <c r="F585" s="8">
+        <v>0</v>
+      </c>
+      <c r="G585" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>6</v>
+      </c>
+      <c r="H585" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I585" s="10">
+        <v>0</v>
+      </c>
+      <c r="J585" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A586" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B586" s="7">
+        <v>2</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D586" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (Иван+1)</v>
+      </c>
+      <c r="E586" s="7">
+        <v>3</v>
+      </c>
+      <c r="F586" s="8">
+        <v>1</v>
+      </c>
+      <c r="G586" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H586" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I586" s="10">
+        <v>0</v>
+      </c>
+      <c r="J586" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A587" s="6">
+        <v>45918</v>
+      </c>
+      <c r="B587" s="7">
+        <v>2</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D587" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даня (сын Вити)</v>
+      </c>
+      <c r="E587" s="7">
+        <v>0</v>
+      </c>
+      <c r="F587" s="8">
+        <v>0</v>
+      </c>
+      <c r="G587" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>3</v>
+      </c>
+      <c r="H587" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I587" s="10">
+        <v>0</v>
+      </c>
+      <c r="J587" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C569" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C587" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -24238,10 +24930,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25697,9 +26389,60 @@
         <v>105</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>45918</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>45918</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2</v>
+      </c>
+      <c r="C87" s="8">
+        <v>3</v>
+      </c>
+      <c r="D87" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>45918</v>
+      </c>
+      <c r="B88" s="7">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8">
+        <v>6</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B85" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B88" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23162A7C-3DF3-40AA-9719-9D6E6BEB8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A51D19-69FC-468C-839E-4A4700E7CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="15" windowWidth="13350" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="0" windowWidth="14205" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="118">
   <si>
     <t>player_id</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>Фируз (Вася+1)</t>
+  </si>
+  <si>
+    <t>Азамат (Никита+1)</t>
+  </si>
+  <si>
+    <t>Дима (Паша+1)</t>
+  </si>
+  <si>
+    <t>Леха (Паша+1)</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1255,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G98" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:G98" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G101" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G101" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
@@ -1275,8 +1284,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J587" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J587" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J608" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J608" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1303,8 +1312,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E88" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E91" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
@@ -1582,10 +1591,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1695,15 +1704,15 @@
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1743,11 +1752,11 @@
       </c>
       <c r="C6" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1755,11 +1764,11 @@
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1863,15 +1872,15 @@
       </c>
       <c r="E10" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1939,23 +1948,23 @@
       </c>
       <c r="C13" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1979,11 +1988,11 @@
       </c>
       <c r="F14" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2163,23 +2172,23 @@
       </c>
       <c r="C21" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E21" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2275,23 +2284,23 @@
       </c>
       <c r="C25" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F25" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2331,7 +2340,7 @@
       </c>
       <c r="C27" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2339,15 +2348,15 @@
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2367,15 +2376,15 @@
       </c>
       <c r="E28" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,7 +2568,7 @@
       </c>
       <c r="D35" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2567,11 +2576,11 @@
       </c>
       <c r="F35" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2647,15 +2656,15 @@
       </c>
       <c r="E38" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F38" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2675,15 +2684,15 @@
       </c>
       <c r="E39" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F39" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2847,11 +2856,11 @@
       </c>
       <c r="F45" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3375,15 +3384,15 @@
       </c>
       <c r="E64" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F64" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,7 +3712,7 @@
       </c>
       <c r="C76" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D76" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -3715,11 +3724,11 @@
       </c>
       <c r="F76" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4107,11 +4116,11 @@
       </c>
       <c r="F90" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4207,23 +4216,23 @@
       </c>
       <c r="C94" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F94" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G94" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4263,23 +4272,23 @@
       </c>
       <c r="C96" s="10">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="10">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="10">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F96" s="18">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,6 +4345,90 @@
       <c r="G98" s="18">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="10">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="10">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="F99" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>2</v>
+      </c>
+      <c r="G99" s="18">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="16">
+        <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="16">
+        <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="16">
+        <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>4</v>
+      </c>
+      <c r="F101" s="18">
+        <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="17">
+        <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4351,10 +4444,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J587"/>
+  <dimension ref="A1:J608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="E590" sqref="E590"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="A588" sqref="A588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24910,10 +25003,745 @@
         <v>103</v>
       </c>
     </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A588" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B588" s="7">
+        <v>2</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D588" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей Крюков</v>
+      </c>
+      <c r="E588" s="7">
+        <v>1</v>
+      </c>
+      <c r="F588" s="8">
+        <v>2</v>
+      </c>
+      <c r="G588" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H588" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I588" s="10">
+        <v>0</v>
+      </c>
+      <c r="J588" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A589" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B589" s="7">
+        <v>1</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D589" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Миша</v>
+      </c>
+      <c r="E589" s="7">
+        <v>2</v>
+      </c>
+      <c r="F589" s="8">
+        <v>0</v>
+      </c>
+      <c r="G589" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H589" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I589" s="10">
+        <v>0</v>
+      </c>
+      <c r="J589" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A590" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B590" s="7">
+        <v>1</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D590" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Никита</v>
+      </c>
+      <c r="E590" s="7">
+        <v>0</v>
+      </c>
+      <c r="F590" s="8">
+        <v>0</v>
+      </c>
+      <c r="G590" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H590" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I590" s="10">
+        <v>0</v>
+      </c>
+      <c r="J590" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A591" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B591" s="7">
+        <v>3</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D591" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей</v>
+      </c>
+      <c r="E591" s="7">
+        <v>1</v>
+      </c>
+      <c r="F591" s="8">
+        <v>0</v>
+      </c>
+      <c r="G591" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H591" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I591" s="10">
+        <v>0</v>
+      </c>
+      <c r="J591" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A592" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B592" s="7">
+        <v>3</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D592" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Анашкин</v>
+      </c>
+      <c r="E592" s="7">
+        <v>0</v>
+      </c>
+      <c r="F592" s="8">
+        <v>0</v>
+      </c>
+      <c r="G592" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H592" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I592" s="10">
+        <v>0</v>
+      </c>
+      <c r="J592" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B593" s="7">
+        <v>3</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D593" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Игорь Фомичев</v>
+      </c>
+      <c r="E593" s="7">
+        <v>2</v>
+      </c>
+      <c r="F593" s="8">
+        <v>3</v>
+      </c>
+      <c r="G593" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H593" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I593" s="10">
+        <v>0</v>
+      </c>
+      <c r="J593" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B594" s="7">
+        <v>1</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D594" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Тёма</v>
+      </c>
+      <c r="E594" s="7">
+        <v>0</v>
+      </c>
+      <c r="F594" s="8">
+        <v>0</v>
+      </c>
+      <c r="G594" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H594" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I594" s="10">
+        <v>0</v>
+      </c>
+      <c r="J594" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B595" s="7">
+        <v>2</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D595" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Олег Шишкин</v>
+      </c>
+      <c r="E595" s="7">
+        <v>0</v>
+      </c>
+      <c r="F595" s="8">
+        <v>0</v>
+      </c>
+      <c r="G595" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H595" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I595" s="10">
+        <v>0</v>
+      </c>
+      <c r="J595" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B596" s="7">
+        <v>3</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D596" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Женя (кипер)</v>
+      </c>
+      <c r="E596" s="7">
+        <v>0</v>
+      </c>
+      <c r="F596" s="8">
+        <v>0</v>
+      </c>
+      <c r="G596" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H596" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I596" s="10">
+        <v>2</v>
+      </c>
+      <c r="J596" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B597" s="7">
+        <v>3</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D597" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Кирилл Попов</v>
+      </c>
+      <c r="E597" s="7">
+        <v>1</v>
+      </c>
+      <c r="F597" s="8">
+        <v>2</v>
+      </c>
+      <c r="G597" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H597" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I597" s="10">
+        <v>2</v>
+      </c>
+      <c r="J597" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B598" s="7">
+        <v>2</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D598" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Зинаддин Алимов</v>
+      </c>
+      <c r="E598" s="7">
+        <v>5</v>
+      </c>
+      <c r="F598" s="8">
+        <v>0</v>
+      </c>
+      <c r="G598" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H598" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I598" s="10">
+        <v>0</v>
+      </c>
+      <c r="J598" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B599" s="7">
+        <v>1</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D599" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Сергей (АК+1)</v>
+      </c>
+      <c r="E599" s="7">
+        <v>1</v>
+      </c>
+      <c r="F599" s="8">
+        <v>3</v>
+      </c>
+      <c r="G599" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H599" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I599" s="10">
+        <v>0</v>
+      </c>
+      <c r="J599" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B600" s="7">
+        <v>2</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D600" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эд (Сэм)</v>
+      </c>
+      <c r="E600" s="7">
+        <v>0</v>
+      </c>
+      <c r="F600" s="8">
+        <v>0</v>
+      </c>
+      <c r="G600" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H600" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I600" s="10">
+        <v>0</v>
+      </c>
+      <c r="J600" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B601" s="7">
+        <v>1</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D601" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Азамат (Никита+1)</v>
+      </c>
+      <c r="E601" s="7">
+        <v>0</v>
+      </c>
+      <c r="F601" s="8">
+        <v>1</v>
+      </c>
+      <c r="G601" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H601" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I601" s="10">
+        <v>0</v>
+      </c>
+      <c r="J601" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A602" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B602" s="7">
+        <v>2</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D602" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Дима (Паша+1)</v>
+      </c>
+      <c r="E602" s="7">
+        <v>0</v>
+      </c>
+      <c r="F602" s="8">
+        <v>1</v>
+      </c>
+      <c r="G602" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H602" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I602" s="10">
+        <v>0</v>
+      </c>
+      <c r="J602" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A603" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B603" s="7">
+        <v>3</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D603" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Леха (Паша+1)</v>
+      </c>
+      <c r="E603" s="7">
+        <v>0</v>
+      </c>
+      <c r="F603" s="8">
+        <v>0</v>
+      </c>
+      <c r="G603" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H603" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I603" s="10">
+        <v>0</v>
+      </c>
+      <c r="J603" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A604" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B604" s="7">
+        <v>1</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D604" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Фуад</v>
+      </c>
+      <c r="E604" s="7">
+        <v>1</v>
+      </c>
+      <c r="F604" s="8">
+        <v>1</v>
+      </c>
+      <c r="G604" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H604" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I604" s="10">
+        <v>0</v>
+      </c>
+      <c r="J604" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A605" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B605" s="7">
+        <v>1</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D605" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Артем Ширяев</v>
+      </c>
+      <c r="E605" s="7">
+        <v>0</v>
+      </c>
+      <c r="F605" s="8">
+        <v>0</v>
+      </c>
+      <c r="G605" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="H605" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>2</v>
+      </c>
+      <c r="I605" s="10">
+        <v>0</v>
+      </c>
+      <c r="J605" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A606" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B606" s="7">
+        <v>2</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D606" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Эльдар</v>
+      </c>
+      <c r="E606" s="7">
+        <v>0</v>
+      </c>
+      <c r="F606" s="8">
+        <v>1</v>
+      </c>
+      <c r="G606" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H606" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I606" s="10">
+        <v>1</v>
+      </c>
+      <c r="J606" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A607" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B607" s="7">
+        <v>3</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D607" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Даниил</v>
+      </c>
+      <c r="E607" s="7">
+        <v>6</v>
+      </c>
+      <c r="F607" s="8">
+        <v>2</v>
+      </c>
+      <c r="G607" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>4</v>
+      </c>
+      <c r="H607" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I607" s="10">
+        <v>0</v>
+      </c>
+      <c r="J607" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A608" s="6">
+        <v>45921</v>
+      </c>
+      <c r="B608" s="7">
+        <v>2</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D608" s="10" t="str">
+        <f>IFERROR(VLOOKUP(_stats[[#This Row],[player_id]],_players[[player_id]:[player_name]],2,0),"")</f>
+        <v>Ваня (Иван+1)</v>
+      </c>
+      <c r="E608" s="7">
+        <v>0</v>
+      </c>
+      <c r="F608" s="8">
+        <v>0</v>
+      </c>
+      <c r="G608" s="10">
+        <f>SUMIFS(_teams[wins_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>0</v>
+      </c>
+      <c r="H608" s="10">
+        <f>SUMIFS(_teams[draws_on_date],_teams[date],_stats[[#This Row],[date]],_teams[team_number],_stats[[#This Row],[team_number]])</f>
+        <v>1</v>
+      </c>
+      <c r="I608" s="10">
+        <v>0</v>
+      </c>
+      <c r="J608" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C587" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C608" xr:uid="{196C3799-EB98-437C-A569-9C3B494F4FE2}">
       <formula1>tel_</formula1>
     </dataValidation>
   </dataValidations>
@@ -24930,10 +25758,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86:E88"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26440,9 +27268,60 @@
         <v>103</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>45921</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>45921</v>
+      </c>
+      <c r="B90" s="7">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>45921</v>
+      </c>
+      <c r="B91" s="7">
+        <v>3</v>
+      </c>
+      <c r="C91" s="8">
+        <v>4</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B88" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B91" xr:uid="{FB33A308-4E41-4174-AACA-4EC901547F19}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/football_stats.xlsx
+++ b/football_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\football_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A51D19-69FC-468C-839E-4A4700E7CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFD398B-00AD-4357-BD5F-BF25853C3766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="0" windowWidth="14205" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="0" windowWidth="14595" windowHeight="15645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="119">
   <si>
     <t>player_id</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Леха (Паша+1)</t>
+  </si>
+  <si>
+    <t>Виктор Царьков</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G101" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:G101" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}" name="_players" displayName="_players" ref="A1:G102" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:G102" xr:uid="{CC58E8C5-7B8B-42F7-9BFF-85AAC284233D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition descending="1" ref="G1:G74"/>
   </sortState>
@@ -1284,8 +1287,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J608" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J608" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}" name="_stats" displayName="_stats" ref="A1:J625" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J625" xr:uid="{D3D1149F-12DA-4A23-97C8-9D9CCA1140FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -1312,8 +1315,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E91" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}" name="_teams" displayName="_teams" ref="A1:E94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E94" xr:uid="{B6423DC2-EC3F-4914-9E08-BC4E7C6626C9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BE0DCE-EF0C-43B2-937D-640EBFF087A6}" name="date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B497FB59-180E-4B72-9ECD-E25C88173489}" name="team_number" dataDxfId="3"/>
@@ -1591,10 +1594,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,23 +1643,23 @@
       </c>
       <c r="C2" s="19">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" s="19">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="19">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="20">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1696,23 +1699,23 @@
       </c>
       <c r="C4" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1760,7 +1763,7 @@
       </c>
       <c r="E6" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1768,7 +1771,7 @@
       </c>
       <c r="G6" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1812,11 +1815,11 @@
       </c>
       <c r="D8" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1824,7 +1827,7 @@
       </c>
       <c r="G8" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,7 +1979,7 @@
       </c>
       <c r="C14" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -1984,15 +1987,15 @@
       </c>
       <c r="E14" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2228,7 +2231,7 @@
       </c>
       <c r="C23" s="11">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2236,7 +2239,7 @@
       </c>
       <c r="E23" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="G23" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2312,23 +2315,23 @@
       </c>
       <c r="C26" s="16">
         <f>SUMIFS(_stats[goals_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2344,11 +2347,11 @@
       </c>
       <c r="D27" s="11">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="11">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="12">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2356,7 +2359,7 @@
       </c>
       <c r="G27" s="12">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2400,11 +2403,11 @@
       </c>
       <c r="D29" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(_stats[wins_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="17">
         <f>SUMIFS(_stats[draws_on_date],_stats[player_id],_players[[#This Row],[player_id]])</f>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="G29" s="17">
         <f>SUM(_players[[#This Row],[goals]:[draws]])</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2456,19 +2459,19 @@
       </c>
       <c r="D31" s="16">
         <f>SUMIFS(_stats[assists_on_date],_stats[play